--- a/lang/hu/headTags.xlsx
+++ b/lang/hu/headTags.xlsx
@@ -10,19 +10,19 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1169</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1170">
   <si>
     <t>en</t>
   </si>
   <si>
-    <t>hu</t>
+    <t>hu (Hungarian)</t>
   </si>
   <si>
     <t>101 Dalmatians</t>
@@ -511,6 +511,9 @@
     <t>Charlie and the Chocolate Factory</t>
   </si>
   <si>
+    <t>Chase the Skies</t>
+  </si>
+  <si>
     <t>Cheese</t>
   </si>
   <si>
@@ -982,6 +985,9 @@
     <t>Fairy Tales</t>
   </si>
   <si>
+    <t>Fall Drop</t>
+  </si>
+  <si>
     <t>Fall Guys</t>
   </si>
   <si>
@@ -1747,6 +1753,9 @@
     <t>Hypixel</t>
   </si>
   <si>
+    <t>Hypixel (Attribute Shard)</t>
+  </si>
+  <si>
     <t>Hypixel (Dyes)</t>
   </si>
   <si>
@@ -2638,6 +2647,9 @@
     <t>Quake</t>
   </si>
   <si>
+    <t>R.E.P.O.</t>
+  </si>
+  <si>
     <t>Rabbit</t>
   </si>
   <si>
@@ -2959,6 +2971,9 @@
     <t>Spooky's Jump Scare Mansion</t>
   </si>
   <si>
+    <t>Spore</t>
+  </si>
+  <si>
     <t>Sport</t>
   </si>
   <si>
@@ -3047,9 +3062,6 @@
   </si>
   <si>
     <t>Summer</t>
-  </si>
-  <si>
-    <t>Summer Drop 2025</t>
   </si>
   <si>
     <t>Sunglasses</t>
@@ -3861,7 +3873,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1165"/>
+  <dimension ref="A1:B1169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -9702,8 +9714,28 @@
         <v>1165</v>
       </c>
     </row>
+    <row r="1166" spans="1:2">
+      <c r="A1166" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:2">
+      <c r="A1167" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:2">
+      <c r="A1168" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:2">
+      <c r="A1169" t="s">
+        <v>1169</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1165"/>
+  <autoFilter ref="A1:B1169"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/hu/headTags.xlsx
+++ b/lang/hu/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1170</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1872">
   <si>
     <t>en</t>
   </si>
@@ -1526,6 +1526,12 @@
   </si>
   <si>
     <t>Robbanásveszélyes</t>
+  </si>
+  <si>
+    <t>Eye</t>
+  </si>
+  <si>
+    <t>Szem</t>
   </si>
   <si>
     <t>Eyepatch</t>
@@ -5973,7 +5979,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1169"/>
+  <dimension ref="A1:B1170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -8519,36 +8525,36 @@
         <v>507</v>
       </c>
       <c r="B317" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B318" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B319" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B320" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B321" t="s">
         <v>512</v>
@@ -8559,12 +8565,12 @@
         <v>513</v>
       </c>
       <c r="B322" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B323" t="s">
         <v>515</v>
@@ -8575,44 +8581,44 @@
         <v>516</v>
       </c>
       <c r="B324" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B325" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B326" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B327" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B328" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B329" t="s">
         <v>522</v>
@@ -8623,12 +8629,12 @@
         <v>523</v>
       </c>
       <c r="B330" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B331" t="s">
         <v>525</v>
@@ -8639,12 +8645,12 @@
         <v>526</v>
       </c>
       <c r="B332" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B333" t="s">
         <v>528</v>
@@ -8695,12 +8701,12 @@
         <v>539</v>
       </c>
       <c r="B339" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B340" t="s">
         <v>541</v>
@@ -8719,12 +8725,12 @@
         <v>544</v>
       </c>
       <c r="B342" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B343" t="s">
         <v>546</v>
@@ -8743,20 +8749,20 @@
         <v>549</v>
       </c>
       <c r="B345" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B346" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B347" t="s">
         <v>552</v>
@@ -8855,12 +8861,12 @@
         <v>575</v>
       </c>
       <c r="B359" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B360" t="s">
         <v>577</v>
@@ -8887,12 +8893,12 @@
         <v>582</v>
       </c>
       <c r="B363" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B364" t="s">
         <v>584</v>
@@ -9415,44 +9421,44 @@
         <v>713</v>
       </c>
       <c r="B429" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B430" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B431" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B432" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B433" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B434" t="s">
         <v>719</v>
@@ -9527,12 +9533,12 @@
         <v>736</v>
       </c>
       <c r="B443" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B444" t="s">
         <v>738</v>
@@ -9543,12 +9549,12 @@
         <v>739</v>
       </c>
       <c r="B445" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B446" t="s">
         <v>741</v>
@@ -9559,12 +9565,12 @@
         <v>742</v>
       </c>
       <c r="B447" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B448" t="s">
         <v>744</v>
@@ -9599,20 +9605,20 @@
         <v>751</v>
       </c>
       <c r="B452" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B453" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B454" t="s">
         <v>754</v>
@@ -9639,12 +9645,12 @@
         <v>759</v>
       </c>
       <c r="B457" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B458" t="s">
         <v>761</v>
@@ -9679,20 +9685,20 @@
         <v>768</v>
       </c>
       <c r="B462" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B463" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B464" t="s">
         <v>771</v>
@@ -9703,12 +9709,12 @@
         <v>772</v>
       </c>
       <c r="B465" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B466" t="s">
         <v>774</v>
@@ -9727,39 +9733,39 @@
         <v>777</v>
       </c>
       <c r="B468" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B469" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B470" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B471" t="s">
-        <v>506</v>
+        <v>781</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B472" t="s">
-        <v>782</v>
+        <v>508</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -9767,12 +9773,12 @@
         <v>783</v>
       </c>
       <c r="B473" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B474" t="s">
         <v>785</v>
@@ -9783,12 +9789,12 @@
         <v>786</v>
       </c>
       <c r="B475" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B476" t="s">
         <v>788</v>
@@ -9807,12 +9813,12 @@
         <v>791</v>
       </c>
       <c r="B478" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B479" t="s">
         <v>793</v>
@@ -9823,20 +9829,20 @@
         <v>794</v>
       </c>
       <c r="B480" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B481" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B482" t="s">
         <v>797</v>
@@ -9847,12 +9853,12 @@
         <v>798</v>
       </c>
       <c r="B483" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B484" t="s">
         <v>800</v>
@@ -9863,20 +9869,20 @@
         <v>801</v>
       </c>
       <c r="B485" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B486" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B487" t="s">
         <v>804</v>
@@ -9887,12 +9893,12 @@
         <v>805</v>
       </c>
       <c r="B488" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B489" t="s">
         <v>807</v>
@@ -10047,20 +10053,20 @@
         <v>844</v>
       </c>
       <c r="B508" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B509" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B510" t="s">
         <v>847</v>
@@ -10071,12 +10077,12 @@
         <v>848</v>
       </c>
       <c r="B511" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B512" t="s">
         <v>850</v>
@@ -10119,20 +10125,20 @@
         <v>859</v>
       </c>
       <c r="B517" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B518" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B519" t="s">
         <v>862</v>
@@ -10167,12 +10173,12 @@
         <v>869</v>
       </c>
       <c r="B523" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B524" t="s">
         <v>871</v>
@@ -10223,12 +10229,12 @@
         <v>882</v>
       </c>
       <c r="B530" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B531" t="s">
         <v>884</v>
@@ -10247,20 +10253,20 @@
         <v>887</v>
       </c>
       <c r="B533" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B534" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B535" t="s">
         <v>890</v>
@@ -10271,60 +10277,60 @@
         <v>891</v>
       </c>
       <c r="B536" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B537" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B538" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B539" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B540" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B541" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B542" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B543" t="s">
         <v>899</v>
@@ -10335,20 +10341,20 @@
         <v>900</v>
       </c>
       <c r="B544" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B545" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B546" t="s">
         <v>903</v>
@@ -10367,28 +10373,28 @@
         <v>906</v>
       </c>
       <c r="B548" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B549" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B550" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B551" t="s">
         <v>910</v>
@@ -10407,12 +10413,12 @@
         <v>913</v>
       </c>
       <c r="B553" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B554" t="s">
         <v>915</v>
@@ -10471,28 +10477,28 @@
         <v>928</v>
       </c>
       <c r="B561" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B562" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B563" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B564" t="s">
         <v>932</v>
@@ -10511,12 +10517,12 @@
         <v>935</v>
       </c>
       <c r="B566" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B567" t="s">
         <v>937</v>
@@ -10535,12 +10541,12 @@
         <v>940</v>
       </c>
       <c r="B569" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B570" t="s">
         <v>942</v>
@@ -10559,52 +10565,52 @@
         <v>945</v>
       </c>
       <c r="B572" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B573" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B574" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B575" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B576" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B577" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B578" t="s">
         <v>952</v>
@@ -10631,28 +10637,28 @@
         <v>957</v>
       </c>
       <c r="B581" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B582" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B583" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B584" t="s">
         <v>961</v>
@@ -10679,12 +10685,12 @@
         <v>966</v>
       </c>
       <c r="B587" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B588" t="s">
         <v>968</v>
@@ -10711,12 +10717,12 @@
         <v>973</v>
       </c>
       <c r="B591" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B592" t="s">
         <v>975</v>
@@ -10783,20 +10789,20 @@
         <v>990</v>
       </c>
       <c r="B600" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B601" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B602" t="s">
         <v>993</v>
@@ -10807,20 +10813,20 @@
         <v>994</v>
       </c>
       <c r="B603" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B604" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B605" t="s">
         <v>997</v>
@@ -10855,28 +10861,28 @@
         <v>1004</v>
       </c>
       <c r="B609" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B610" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B611" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B612" t="s">
         <v>1008</v>
@@ -10919,12 +10925,12 @@
         <v>1017</v>
       </c>
       <c r="B617" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B618" t="s">
         <v>1019</v>
@@ -10959,28 +10965,28 @@
         <v>1026</v>
       </c>
       <c r="B622" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B623" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B624" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B625" t="s">
         <v>1030</v>
@@ -10991,20 +10997,20 @@
         <v>1031</v>
       </c>
       <c r="B626" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B627" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B628" t="s">
         <v>1034</v>
@@ -11015,20 +11021,20 @@
         <v>1035</v>
       </c>
       <c r="B629" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B630" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B631" t="s">
         <v>1038</v>
@@ -11039,52 +11045,52 @@
         <v>1039</v>
       </c>
       <c r="B632" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B633" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B634" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B635" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B636" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B637" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B638" t="s">
         <v>1046</v>
@@ -11095,36 +11101,36 @@
         <v>1047</v>
       </c>
       <c r="B639" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B640" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B641" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B642" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B643" t="s">
         <v>1052</v>
@@ -11159,28 +11165,28 @@
         <v>1059</v>
       </c>
       <c r="B647" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B648" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B649" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B650" t="s">
         <v>1063</v>
@@ -11191,12 +11197,12 @@
         <v>1064</v>
       </c>
       <c r="B651" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B652" t="s">
         <v>1066</v>
@@ -11215,20 +11221,20 @@
         <v>1069</v>
       </c>
       <c r="B654" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B655" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B656" t="s">
         <v>1072</v>
@@ -11247,12 +11253,12 @@
         <v>1075</v>
       </c>
       <c r="B658" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B659" t="s">
         <v>1077</v>
@@ -11303,12 +11309,12 @@
         <v>1088</v>
       </c>
       <c r="B665" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B666" t="s">
         <v>1090</v>
@@ -11319,36 +11325,36 @@
         <v>1091</v>
       </c>
       <c r="B667" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B668" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B669" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B670" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B671" t="s">
         <v>1096</v>
@@ -11359,44 +11365,44 @@
         <v>1097</v>
       </c>
       <c r="B672" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B673" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B674" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B675" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B676" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B677" t="s">
         <v>1103</v>
@@ -11423,20 +11429,20 @@
         <v>1108</v>
       </c>
       <c r="B680" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B681" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B682" t="s">
         <v>1111</v>
@@ -11487,20 +11493,20 @@
         <v>1122</v>
       </c>
       <c r="B688" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B689" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B690" t="s">
         <v>1125</v>
@@ -11519,12 +11525,12 @@
         <v>1128</v>
       </c>
       <c r="B692" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B693" t="s">
         <v>1130</v>
@@ -11567,12 +11573,12 @@
         <v>1139</v>
       </c>
       <c r="B698" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B699" t="s">
         <v>1141</v>
@@ -11583,20 +11589,20 @@
         <v>1142</v>
       </c>
       <c r="B700" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B701" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B702" t="s">
         <v>1145</v>
@@ -11607,28 +11613,28 @@
         <v>1146</v>
       </c>
       <c r="B703" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B704" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B705" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B706" t="s">
         <v>1150</v>
@@ -11639,28 +11645,28 @@
         <v>1151</v>
       </c>
       <c r="B707" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B708" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B709" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B710" t="s">
         <v>1155</v>
@@ -11735,12 +11741,12 @@
         <v>1172</v>
       </c>
       <c r="B719" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B720" t="s">
         <v>1174</v>
@@ -11767,12 +11773,12 @@
         <v>1179</v>
       </c>
       <c r="B723" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B724" t="s">
         <v>1181</v>
@@ -11791,20 +11797,20 @@
         <v>1184</v>
       </c>
       <c r="B726" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B727" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B728" t="s">
         <v>1187</v>
@@ -11815,12 +11821,12 @@
         <v>1188</v>
       </c>
       <c r="B729" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B730" t="s">
         <v>1190</v>
@@ -11831,36 +11837,36 @@
         <v>1191</v>
       </c>
       <c r="B731" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="732" spans="1:2">
       <c r="A732" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B732" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="733" spans="1:2">
       <c r="A733" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B733" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B734" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B735" t="s">
         <v>1196</v>
@@ -11871,44 +11877,44 @@
         <v>1197</v>
       </c>
       <c r="B736" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B737" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B738" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B739" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B740" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B741" t="s">
         <v>1203</v>
@@ -11919,36 +11925,36 @@
         <v>1204</v>
       </c>
       <c r="B742" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B743" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B744" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B745" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B746" t="s">
         <v>1209</v>
@@ -12007,20 +12013,20 @@
         <v>1222</v>
       </c>
       <c r="B753" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B754" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B755" t="s">
         <v>1225</v>
@@ -12039,12 +12045,12 @@
         <v>1228</v>
       </c>
       <c r="B757" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B758" t="s">
         <v>1230</v>
@@ -12055,20 +12061,20 @@
         <v>1231</v>
       </c>
       <c r="B759" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="B760" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="B761" t="s">
         <v>1234</v>
@@ -12111,12 +12117,12 @@
         <v>1243</v>
       </c>
       <c r="B766" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B767" t="s">
         <v>1245</v>
@@ -12135,12 +12141,12 @@
         <v>1248</v>
       </c>
       <c r="B769" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="770" spans="1:2">
       <c r="A770" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B770" t="s">
         <v>1250</v>
@@ -12151,12 +12157,12 @@
         <v>1251</v>
       </c>
       <c r="B771" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B772" t="s">
         <v>1253</v>
@@ -12223,28 +12229,28 @@
         <v>1268</v>
       </c>
       <c r="B780" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B781" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B782" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B783" t="s">
         <v>1272</v>
@@ -12263,12 +12269,12 @@
         <v>1275</v>
       </c>
       <c r="B785" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B786" t="s">
         <v>1277</v>
@@ -12279,60 +12285,60 @@
         <v>1278</v>
       </c>
       <c r="B787" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="B788" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B789" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B790" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B791" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="B792" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B793" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="B794" t="s">
         <v>1286</v>
@@ -12343,12 +12349,12 @@
         <v>1287</v>
       </c>
       <c r="B795" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="B796" t="s">
         <v>1289</v>
@@ -12407,28 +12413,28 @@
         <v>1302</v>
       </c>
       <c r="B803" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="804" spans="1:2">
       <c r="A804" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B804" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B805" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B806" t="s">
         <v>1306</v>
@@ -12495,12 +12501,12 @@
         <v>1321</v>
       </c>
       <c r="B814" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B815" t="s">
         <v>1323</v>
@@ -12527,12 +12533,12 @@
         <v>1328</v>
       </c>
       <c r="B818" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B819" t="s">
         <v>1330</v>
@@ -12559,12 +12565,12 @@
         <v>1335</v>
       </c>
       <c r="B822" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B823" t="s">
         <v>1337</v>
@@ -12591,12 +12597,12 @@
         <v>1342</v>
       </c>
       <c r="B826" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B827" t="s">
         <v>1344</v>
@@ -12607,36 +12613,36 @@
         <v>1345</v>
       </c>
       <c r="B828" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B829" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B830" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B831" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B832" t="s">
         <v>1350</v>
@@ -12679,12 +12685,12 @@
         <v>1359</v>
       </c>
       <c r="B837" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="838" spans="1:2">
       <c r="A838" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B838" t="s">
         <v>1361</v>
@@ -12695,108 +12701,108 @@
         <v>1362</v>
       </c>
       <c r="B839" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="B840" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="B841" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="B842" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B843" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B844" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="B845" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="846" spans="1:2">
       <c r="A846" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B846" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="847" spans="1:2">
       <c r="A847" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B847" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="848" spans="1:2">
       <c r="A848" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B848" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="849" spans="1:2">
       <c r="A849" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B849" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="850" spans="1:2">
       <c r="A850" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B850" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="851" spans="1:2">
       <c r="A851" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B851" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="852" spans="1:2">
       <c r="A852" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="B852" t="s">
         <v>1376</v>
@@ -12831,52 +12837,52 @@
         <v>1383</v>
       </c>
       <c r="B856" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="857" spans="1:2">
       <c r="A857" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="B857" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="B858" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B859" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="B860" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="B861" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="B862" t="s">
         <v>1390</v>
@@ -12895,28 +12901,28 @@
         <v>1393</v>
       </c>
       <c r="B864" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="B865" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="B866" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="B867" t="s">
         <v>1397</v>
@@ -12983,20 +12989,20 @@
         <v>1412</v>
       </c>
       <c r="B875" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="876" spans="1:2">
       <c r="A876" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B876" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B877" t="s">
         <v>1415</v>
@@ -13015,28 +13021,28 @@
         <v>1418</v>
       </c>
       <c r="B879" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="880" spans="1:2">
       <c r="A880" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B880" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="881" spans="1:2">
       <c r="A881" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B881" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="B882" t="s">
         <v>1422</v>
@@ -13047,12 +13053,12 @@
         <v>1423</v>
       </c>
       <c r="B883" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="B884" t="s">
         <v>1425</v>
@@ -13063,12 +13069,12 @@
         <v>1426</v>
       </c>
       <c r="B885" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B886" t="s">
         <v>1428</v>
@@ -13079,12 +13085,12 @@
         <v>1429</v>
       </c>
       <c r="B887" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="B888" t="s">
         <v>1431</v>
@@ -13095,20 +13101,20 @@
         <v>1432</v>
       </c>
       <c r="B889" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="B890" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="891" spans="1:2">
       <c r="A891" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="B891" t="s">
         <v>1435</v>
@@ -13127,20 +13133,20 @@
         <v>1438</v>
       </c>
       <c r="B893" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="894" spans="1:2">
       <c r="A894" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="B894" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="895" spans="1:2">
       <c r="A895" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B895" t="s">
         <v>1441</v>
@@ -13191,60 +13197,60 @@
         <v>1452</v>
       </c>
       <c r="B901" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="902" spans="1:2">
       <c r="A902" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="B902" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="B903" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B904" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="B905" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="B906" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B907" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B908" t="s">
         <v>1460</v>
@@ -13271,28 +13277,28 @@
         <v>1465</v>
       </c>
       <c r="B911" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="912" spans="1:2">
       <c r="A912" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B912" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B913" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B914" t="s">
         <v>1469</v>
@@ -13311,12 +13317,12 @@
         <v>1472</v>
       </c>
       <c r="B916" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="917" spans="1:2">
       <c r="A917" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B917" t="s">
         <v>1474</v>
@@ -13335,20 +13341,20 @@
         <v>1477</v>
       </c>
       <c r="B919" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="920" spans="1:2">
       <c r="A920" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="B920" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B921" t="s">
         <v>1480</v>
@@ -13383,44 +13389,44 @@
         <v>1487</v>
       </c>
       <c r="B925" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="926" spans="1:2">
       <c r="A926" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B926" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="927" spans="1:2">
       <c r="A927" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="B927" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B928" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="B929" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B930" t="s">
         <v>1493</v>
@@ -13479,28 +13485,28 @@
         <v>1506</v>
       </c>
       <c r="B937" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B938" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B939" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B940" t="s">
         <v>1510</v>
@@ -13519,60 +13525,60 @@
         <v>1513</v>
       </c>
       <c r="B942" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="B943" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="B944" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B945" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B946" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B947" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="B948" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B949" t="s">
         <v>1521</v>
@@ -13599,20 +13605,20 @@
         <v>1526</v>
       </c>
       <c r="B952" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="953" spans="1:2">
       <c r="A953" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B953" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B954" t="s">
         <v>1529</v>
@@ -13647,12 +13653,12 @@
         <v>1536</v>
       </c>
       <c r="B958" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="959" spans="1:2">
       <c r="A959" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B959" t="s">
         <v>1538</v>
@@ -13663,28 +13669,28 @@
         <v>1539</v>
       </c>
       <c r="B960" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="961" spans="1:2">
       <c r="A961" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="B961" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="B962" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="B963" t="s">
         <v>1543</v>
@@ -13743,12 +13749,12 @@
         <v>1556</v>
       </c>
       <c r="B970" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="971" spans="1:2">
       <c r="A971" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B971" t="s">
         <v>1558</v>
@@ -13759,12 +13765,12 @@
         <v>1559</v>
       </c>
       <c r="B972" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="973" spans="1:2">
       <c r="A973" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B973" t="s">
         <v>1561</v>
@@ -13783,20 +13789,20 @@
         <v>1564</v>
       </c>
       <c r="B975" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="B976" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="B977" t="s">
         <v>1567</v>
@@ -13823,20 +13829,20 @@
         <v>1572</v>
       </c>
       <c r="B980" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="B981" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="B982" t="s">
         <v>1575</v>
@@ -13847,28 +13853,28 @@
         <v>1576</v>
       </c>
       <c r="B983" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B984" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="B985" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="B986" t="s">
         <v>1580</v>
@@ -13895,12 +13901,12 @@
         <v>1585</v>
       </c>
       <c r="B989" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="B990" t="s">
         <v>1587</v>
@@ -13919,28 +13925,28 @@
         <v>1590</v>
       </c>
       <c r="B992" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="B993" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="B994" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B995" t="s">
         <v>1594</v>
@@ -13951,12 +13957,12 @@
         <v>1595</v>
       </c>
       <c r="B996" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B997" t="s">
         <v>1597</v>
@@ -13975,36 +13981,36 @@
         <v>1600</v>
       </c>
       <c r="B999" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B1000" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B1001" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B1002" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B1003" t="s">
         <v>1605</v>
@@ -14015,36 +14021,36 @@
         <v>1606</v>
       </c>
       <c r="B1004" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B1005" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B1006" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B1007" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B1008" t="s">
         <v>1611</v>
@@ -14063,36 +14069,36 @@
         <v>1614</v>
       </c>
       <c r="B1010" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B1011" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="B1012" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B1013" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="B1014" t="s">
         <v>1619</v>
@@ -14111,12 +14117,12 @@
         <v>1622</v>
       </c>
       <c r="B1016" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="B1017" t="s">
         <v>1624</v>
@@ -14143,92 +14149,92 @@
         <v>1629</v>
       </c>
       <c r="B1020" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
       <c r="A1021" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="B1021" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
       <c r="A1022" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="B1022" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="B1023" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B1024" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="B1025" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="B1026" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B1027" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="B1028" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="B1029" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="B1030" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="B1031" t="s">
         <v>1641</v>
@@ -14247,12 +14253,12 @@
         <v>1644</v>
       </c>
       <c r="B1033" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="B1034" t="s">
         <v>1646</v>
@@ -14327,12 +14333,12 @@
         <v>1663</v>
       </c>
       <c r="B1043" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="B1044" t="s">
         <v>1665</v>
@@ -14343,12 +14349,12 @@
         <v>1666</v>
       </c>
       <c r="B1045" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="B1046" t="s">
         <v>1668</v>
@@ -14423,12 +14429,12 @@
         <v>1685</v>
       </c>
       <c r="B1055" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
       <c r="A1056" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="B1056" t="s">
         <v>1687</v>
@@ -14519,20 +14525,20 @@
         <v>1708</v>
       </c>
       <c r="B1067" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B1068" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="B1069" t="s">
         <v>1711</v>
@@ -14543,28 +14549,28 @@
         <v>1712</v>
       </c>
       <c r="B1070" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="B1071" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="B1072" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B1073" t="s">
         <v>1716</v>
@@ -14575,12 +14581,12 @@
         <v>1717</v>
       </c>
       <c r="B1074" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="B1075" t="s">
         <v>1719</v>
@@ -14599,12 +14605,12 @@
         <v>1722</v>
       </c>
       <c r="B1077" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="B1078" t="s">
         <v>1724</v>
@@ -14631,12 +14637,12 @@
         <v>1729</v>
       </c>
       <c r="B1081" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B1082" t="s">
         <v>1731</v>
@@ -14671,20 +14677,20 @@
         <v>1738</v>
       </c>
       <c r="B1086" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
       <c r="A1087" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="B1087" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="B1088" t="s">
         <v>1741</v>
@@ -14727,12 +14733,12 @@
         <v>1750</v>
       </c>
       <c r="B1093" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B1094" t="s">
         <v>1752</v>
@@ -14743,20 +14749,20 @@
         <v>1753</v>
       </c>
       <c r="B1095" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
       <c r="A1096" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B1096" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B1097" t="s">
         <v>1756</v>
@@ -14767,20 +14773,20 @@
         <v>1757</v>
       </c>
       <c r="B1098" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="B1099" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B1100" t="s">
         <v>1760</v>
@@ -14815,28 +14821,28 @@
         <v>1767</v>
       </c>
       <c r="B1104" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="B1105" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="B1106" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="B1107" t="s">
         <v>1771</v>
@@ -14887,23 +14893,23 @@
         <v>1782</v>
       </c>
       <c r="B1113" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
       <c r="A1114" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="B1114" t="s">
-        <v>790</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="B1115" t="s">
-        <v>1785</v>
+        <v>792</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
@@ -14911,12 +14917,12 @@
         <v>1786</v>
       </c>
       <c r="B1116" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="B1117" t="s">
         <v>1788</v>
@@ -14991,44 +14997,44 @@
         <v>1805</v>
       </c>
       <c r="B1126" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="B1127" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="B1128" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="B1129" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="B1130" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="B1131" t="s">
         <v>1811</v>
@@ -15047,28 +15053,28 @@
         <v>1814</v>
       </c>
       <c r="B1133" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="B1134" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="B1135" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="B1136" t="s">
         <v>1818</v>
@@ -15087,12 +15093,12 @@
         <v>1821</v>
       </c>
       <c r="B1138" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="B1139" t="s">
         <v>1823</v>
@@ -15151,12 +15157,12 @@
         <v>1836</v>
       </c>
       <c r="B1146" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="B1147" t="s">
         <v>1838</v>
@@ -15191,44 +15197,44 @@
         <v>1845</v>
       </c>
       <c r="B1151" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="B1152" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="B1153" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B1154" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="B1155" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="B1156" t="s">
         <v>1851</v>
@@ -15247,20 +15253,20 @@
         <v>1854</v>
       </c>
       <c r="B1158" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="B1159" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="B1160" t="s">
         <v>1857</v>
@@ -15271,36 +15277,36 @@
         <v>1858</v>
       </c>
       <c r="B1161" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="B1162" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="B1163" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="B1164" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="B1165" t="s">
         <v>1863</v>
@@ -15319,12 +15325,12 @@
         <v>1866</v>
       </c>
       <c r="B1167" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B1168" t="s">
         <v>1868</v>
@@ -15335,11 +15341,19 @@
         <v>1869</v>
       </c>
       <c r="B1169" t="s">
-        <v>1869</v>
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:2">
+      <c r="A1170" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>1871</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1169"/>
+  <autoFilter ref="A1:B1170"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/hu/headTags.xlsx
+++ b/lang/hu/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1171</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1874">
   <si>
     <t>en</t>
   </si>
@@ -4529,6 +4529,12 @@
   </si>
   <si>
     <t>Hét halálos bűn</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
+  </si>
+  <si>
+    <t>A kolosszus árnyéka</t>
   </si>
   <si>
     <t>Shadows of Mordor</t>
@@ -5979,7 +5985,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1170"/>
+  <dimension ref="A1:B1171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -13493,28 +13499,28 @@
         <v>1508</v>
       </c>
       <c r="B938" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B939" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="B940" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B941" t="s">
         <v>1512</v>
@@ -13533,60 +13539,60 @@
         <v>1515</v>
       </c>
       <c r="B943" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B944" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B945" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B946" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="B947" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B948" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B949" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="B950" t="s">
         <v>1523</v>
@@ -13613,20 +13619,20 @@
         <v>1528</v>
       </c>
       <c r="B953" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="B954" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B955" t="s">
         <v>1531</v>
@@ -13661,12 +13667,12 @@
         <v>1538</v>
       </c>
       <c r="B959" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="960" spans="1:2">
       <c r="A960" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="B960" t="s">
         <v>1540</v>
@@ -13677,28 +13683,28 @@
         <v>1541</v>
       </c>
       <c r="B961" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="B962" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="B963" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="B964" t="s">
         <v>1545</v>
@@ -13757,12 +13763,12 @@
         <v>1558</v>
       </c>
       <c r="B971" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="972" spans="1:2">
       <c r="A972" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B972" t="s">
         <v>1560</v>
@@ -13773,12 +13779,12 @@
         <v>1561</v>
       </c>
       <c r="B973" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="974" spans="1:2">
       <c r="A974" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B974" t="s">
         <v>1563</v>
@@ -13797,20 +13803,20 @@
         <v>1566</v>
       </c>
       <c r="B976" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="B977" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="B978" t="s">
         <v>1569</v>
@@ -13837,20 +13843,20 @@
         <v>1574</v>
       </c>
       <c r="B981" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="B982" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="B983" t="s">
         <v>1577</v>
@@ -13861,28 +13867,28 @@
         <v>1578</v>
       </c>
       <c r="B984" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="B985" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="B986" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="B987" t="s">
         <v>1582</v>
@@ -13909,12 +13915,12 @@
         <v>1587</v>
       </c>
       <c r="B990" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="991" spans="1:2">
       <c r="A991" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="B991" t="s">
         <v>1589</v>
@@ -13933,28 +13939,28 @@
         <v>1592</v>
       </c>
       <c r="B993" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B994" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="B995" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="B996" t="s">
         <v>1596</v>
@@ -13965,12 +13971,12 @@
         <v>1597</v>
       </c>
       <c r="B997" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="998" spans="1:2">
       <c r="A998" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="B998" t="s">
         <v>1599</v>
@@ -13989,36 +13995,36 @@
         <v>1602</v>
       </c>
       <c r="B1000" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B1001" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B1002" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="B1003" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B1004" t="s">
         <v>1607</v>
@@ -14029,36 +14035,36 @@
         <v>1608</v>
       </c>
       <c r="B1005" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B1006" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B1007" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B1008" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B1009" t="s">
         <v>1613</v>
@@ -14077,36 +14083,36 @@
         <v>1616</v>
       </c>
       <c r="B1011" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B1012" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="B1013" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="B1014" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="B1015" t="s">
         <v>1621</v>
@@ -14125,12 +14131,12 @@
         <v>1624</v>
       </c>
       <c r="B1017" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
       <c r="A1018" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B1018" t="s">
         <v>1626</v>
@@ -14157,92 +14163,92 @@
         <v>1631</v>
       </c>
       <c r="B1021" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
       <c r="A1022" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="B1022" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B1023" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="B1024" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="B1025" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B1026" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="B1027" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="B1028" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="B1029" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="B1030" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="B1031" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="B1032" t="s">
         <v>1643</v>
@@ -14261,12 +14267,12 @@
         <v>1646</v>
       </c>
       <c r="B1034" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="B1035" t="s">
         <v>1648</v>
@@ -14341,12 +14347,12 @@
         <v>1665</v>
       </c>
       <c r="B1044" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
       <c r="A1045" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="B1045" t="s">
         <v>1667</v>
@@ -14357,12 +14363,12 @@
         <v>1668</v>
       </c>
       <c r="B1046" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="B1047" t="s">
         <v>1670</v>
@@ -14437,12 +14443,12 @@
         <v>1687</v>
       </c>
       <c r="B1056" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
       <c r="A1057" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="B1057" t="s">
         <v>1689</v>
@@ -14533,20 +14539,20 @@
         <v>1710</v>
       </c>
       <c r="B1068" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B1069" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="B1070" t="s">
         <v>1713</v>
@@ -14557,28 +14563,28 @@
         <v>1714</v>
       </c>
       <c r="B1071" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B1072" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="B1073" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="B1074" t="s">
         <v>1718</v>
@@ -14589,12 +14595,12 @@
         <v>1719</v>
       </c>
       <c r="B1075" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="B1076" t="s">
         <v>1721</v>
@@ -14613,12 +14619,12 @@
         <v>1724</v>
       </c>
       <c r="B1078" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B1079" t="s">
         <v>1726</v>
@@ -14645,12 +14651,12 @@
         <v>1731</v>
       </c>
       <c r="B1082" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="B1083" t="s">
         <v>1733</v>
@@ -14685,20 +14691,20 @@
         <v>1740</v>
       </c>
       <c r="B1087" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="B1088" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
       <c r="A1089" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="B1089" t="s">
         <v>1743</v>
@@ -14741,12 +14747,12 @@
         <v>1752</v>
       </c>
       <c r="B1094" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
       <c r="A1095" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="B1095" t="s">
         <v>1754</v>
@@ -14757,20 +14763,20 @@
         <v>1755</v>
       </c>
       <c r="B1096" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="B1097" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="B1098" t="s">
         <v>1758</v>
@@ -14781,20 +14787,20 @@
         <v>1759</v>
       </c>
       <c r="B1099" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="B1100" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B1101" t="s">
         <v>1762</v>
@@ -14829,28 +14835,28 @@
         <v>1769</v>
       </c>
       <c r="B1105" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="B1106" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="B1107" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="B1108" t="s">
         <v>1773</v>
@@ -14901,23 +14907,23 @@
         <v>1784</v>
       </c>
       <c r="B1114" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="B1115" t="s">
-        <v>792</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="B1116" t="s">
-        <v>1787</v>
+        <v>792</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
@@ -14925,12 +14931,12 @@
         <v>1788</v>
       </c>
       <c r="B1117" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="B1118" t="s">
         <v>1790</v>
@@ -15005,44 +15011,44 @@
         <v>1807</v>
       </c>
       <c r="B1127" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="B1128" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="B1129" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="B1130" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="B1131" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="B1132" t="s">
         <v>1813</v>
@@ -15061,28 +15067,28 @@
         <v>1816</v>
       </c>
       <c r="B1134" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="B1135" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B1136" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="B1137" t="s">
         <v>1820</v>
@@ -15101,12 +15107,12 @@
         <v>1823</v>
       </c>
       <c r="B1139" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="B1140" t="s">
         <v>1825</v>
@@ -15165,12 +15171,12 @@
         <v>1838</v>
       </c>
       <c r="B1147" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="B1148" t="s">
         <v>1840</v>
@@ -15205,44 +15211,44 @@
         <v>1847</v>
       </c>
       <c r="B1152" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B1153" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="B1154" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="B1155" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="B1156" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="B1157" t="s">
         <v>1853</v>
@@ -15261,20 +15267,20 @@
         <v>1856</v>
       </c>
       <c r="B1159" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="B1160" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="B1161" t="s">
         <v>1859</v>
@@ -15285,36 +15291,36 @@
         <v>1860</v>
       </c>
       <c r="B1162" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="B1163" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="B1164" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="B1165" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="B1166" t="s">
         <v>1865</v>
@@ -15333,12 +15339,12 @@
         <v>1868</v>
       </c>
       <c r="B1168" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="B1169" t="s">
         <v>1870</v>
@@ -15349,11 +15355,19 @@
         <v>1871</v>
       </c>
       <c r="B1170" t="s">
-        <v>1871</v>
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:2">
+      <c r="A1171" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>1873</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1170"/>
+  <autoFilter ref="A1:B1171"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/hu/headTags.xlsx
+++ b/lang/hu/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1172</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1173</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1877">
   <si>
     <t>en</t>
   </si>
@@ -3626,6 +3626,9 @@
   </si>
   <si>
     <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
   </si>
   <si>
     <t>Mouthwashing</t>
@@ -5991,7 +5994,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1172"/>
+  <dimension ref="A1:B1173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -11929,12 +11932,12 @@
         <v>1203</v>
       </c>
       <c r="B741" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B742" t="s">
         <v>1205</v>
@@ -11969,60 +11972,60 @@
         <v>1209</v>
       </c>
       <c r="B746" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B747" t="s">
         <v>1211</v>
-      </c>
-      <c r="B747" t="s">
-        <v>1212</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B748" t="s">
         <v>1213</v>
-      </c>
-      <c r="B748" t="s">
-        <v>1214</v>
       </c>
     </row>
     <row r="749" spans="1:2">
       <c r="A749" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B749" t="s">
         <v>1215</v>
-      </c>
-      <c r="B749" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="750" spans="1:2">
       <c r="A750" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B750" t="s">
         <v>1217</v>
-      </c>
-      <c r="B750" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="751" spans="1:2">
       <c r="A751" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B751" t="s">
         <v>1219</v>
-      </c>
-      <c r="B751" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="752" spans="1:2">
       <c r="A752" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B752" t="s">
         <v>1221</v>
-      </c>
-      <c r="B752" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="753" spans="1:2">
       <c r="A753" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B753" t="s">
         <v>1223</v>
@@ -12041,20 +12044,20 @@
         <v>1225</v>
       </c>
       <c r="B755" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B756" t="s">
         <v>1227</v>
-      </c>
-      <c r="B756" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B757" t="s">
         <v>1229</v>
@@ -12065,12 +12068,12 @@
         <v>1230</v>
       </c>
       <c r="B758" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B759" t="s">
         <v>1232</v>
@@ -12089,44 +12092,44 @@
         <v>1234</v>
       </c>
       <c r="B761" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B762" t="s">
         <v>1236</v>
-      </c>
-      <c r="B762" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B763" t="s">
         <v>1238</v>
-      </c>
-      <c r="B763" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="764" spans="1:2">
       <c r="A764" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B764" t="s">
         <v>1240</v>
-      </c>
-      <c r="B764" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="765" spans="1:2">
       <c r="A765" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B765" t="s">
         <v>1242</v>
-      </c>
-      <c r="B765" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="766" spans="1:2">
       <c r="A766" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B766" t="s">
         <v>1244</v>
@@ -12137,20 +12140,20 @@
         <v>1245</v>
       </c>
       <c r="B767" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B768" t="s">
         <v>1247</v>
-      </c>
-      <c r="B768" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B769" t="s">
         <v>1249</v>
@@ -12161,12 +12164,12 @@
         <v>1250</v>
       </c>
       <c r="B770" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B771" t="s">
         <v>1252</v>
@@ -12177,68 +12180,68 @@
         <v>1253</v>
       </c>
       <c r="B772" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B773" t="s">
         <v>1255</v>
-      </c>
-      <c r="B773" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B774" t="s">
         <v>1257</v>
-      </c>
-      <c r="B774" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="775" spans="1:2">
       <c r="A775" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B775" t="s">
         <v>1259</v>
-      </c>
-      <c r="B775" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="776" spans="1:2">
       <c r="A776" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B776" t="s">
         <v>1261</v>
-      </c>
-      <c r="B776" t="s">
-        <v>1262</v>
       </c>
     </row>
     <row r="777" spans="1:2">
       <c r="A777" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B777" t="s">
         <v>1263</v>
-      </c>
-      <c r="B777" t="s">
-        <v>1264</v>
       </c>
     </row>
     <row r="778" spans="1:2">
       <c r="A778" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B778" t="s">
         <v>1265</v>
-      </c>
-      <c r="B778" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="779" spans="1:2">
       <c r="A779" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B779" t="s">
         <v>1267</v>
-      </c>
-      <c r="B779" t="s">
-        <v>1268</v>
       </c>
     </row>
     <row r="780" spans="1:2">
       <c r="A780" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B780" t="s">
         <v>1269</v>
@@ -12265,20 +12268,20 @@
         <v>1272</v>
       </c>
       <c r="B783" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B784" t="s">
         <v>1274</v>
-      </c>
-      <c r="B784" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B785" t="s">
         <v>1276</v>
@@ -12289,12 +12292,12 @@
         <v>1277</v>
       </c>
       <c r="B786" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B787" t="s">
         <v>1279</v>
@@ -12353,12 +12356,12 @@
         <v>1286</v>
       </c>
       <c r="B794" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B795" t="s">
         <v>1288</v>
@@ -12369,60 +12372,60 @@
         <v>1289</v>
       </c>
       <c r="B796" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B797" t="s">
         <v>1291</v>
-      </c>
-      <c r="B797" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B798" t="s">
         <v>1293</v>
-      </c>
-      <c r="B798" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="799" spans="1:2">
       <c r="A799" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B799" t="s">
         <v>1295</v>
-      </c>
-      <c r="B799" t="s">
-        <v>1296</v>
       </c>
     </row>
     <row r="800" spans="1:2">
       <c r="A800" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B800" t="s">
         <v>1297</v>
-      </c>
-      <c r="B800" t="s">
-        <v>1298</v>
       </c>
     </row>
     <row r="801" spans="1:2">
       <c r="A801" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B801" t="s">
         <v>1299</v>
-      </c>
-      <c r="B801" t="s">
-        <v>1300</v>
       </c>
     </row>
     <row r="802" spans="1:2">
       <c r="A802" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B802" t="s">
         <v>1301</v>
-      </c>
-      <c r="B802" t="s">
-        <v>1302</v>
       </c>
     </row>
     <row r="803" spans="1:2">
       <c r="A803" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B803" t="s">
         <v>1303</v>
@@ -12449,68 +12452,68 @@
         <v>1306</v>
       </c>
       <c r="B806" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B807" t="s">
         <v>1308</v>
-      </c>
-      <c r="B807" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B808" t="s">
         <v>1310</v>
-      </c>
-      <c r="B808" t="s">
-        <v>1311</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B809" t="s">
         <v>1312</v>
-      </c>
-      <c r="B809" t="s">
-        <v>1313</v>
       </c>
     </row>
     <row r="810" spans="1:2">
       <c r="A810" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B810" t="s">
         <v>1314</v>
-      </c>
-      <c r="B810" t="s">
-        <v>1315</v>
       </c>
     </row>
     <row r="811" spans="1:2">
       <c r="A811" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B811" t="s">
         <v>1316</v>
-      </c>
-      <c r="B811" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="812" spans="1:2">
       <c r="A812" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B812" t="s">
         <v>1318</v>
-      </c>
-      <c r="B812" t="s">
-        <v>1319</v>
       </c>
     </row>
     <row r="813" spans="1:2">
       <c r="A813" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B813" t="s">
         <v>1320</v>
-      </c>
-      <c r="B813" t="s">
-        <v>1321</v>
       </c>
     </row>
     <row r="814" spans="1:2">
       <c r="A814" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B814" t="s">
         <v>1322</v>
@@ -12521,28 +12524,28 @@
         <v>1323</v>
       </c>
       <c r="B815" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="816" spans="1:2">
       <c r="A816" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B816" t="s">
         <v>1325</v>
-      </c>
-      <c r="B816" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="817" spans="1:2">
       <c r="A817" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B817" t="s">
         <v>1327</v>
-      </c>
-      <c r="B817" t="s">
-        <v>1328</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B818" t="s">
         <v>1329</v>
@@ -12553,28 +12556,28 @@
         <v>1330</v>
       </c>
       <c r="B819" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B820" t="s">
         <v>1332</v>
-      </c>
-      <c r="B820" t="s">
-        <v>1333</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B821" t="s">
         <v>1334</v>
-      </c>
-      <c r="B821" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="822" spans="1:2">
       <c r="A822" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B822" t="s">
         <v>1336</v>
@@ -12585,28 +12588,28 @@
         <v>1337</v>
       </c>
       <c r="B823" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="824" spans="1:2">
       <c r="A824" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B824" t="s">
         <v>1339</v>
-      </c>
-      <c r="B824" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B825" t="s">
         <v>1341</v>
-      </c>
-      <c r="B825" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B826" t="s">
         <v>1343</v>
@@ -12617,12 +12620,12 @@
         <v>1344</v>
       </c>
       <c r="B827" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="828" spans="1:2">
       <c r="A828" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B828" t="s">
         <v>1346</v>
@@ -12657,44 +12660,44 @@
         <v>1350</v>
       </c>
       <c r="B832" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B833" t="s">
         <v>1352</v>
-      </c>
-      <c r="B833" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B834" t="s">
         <v>1354</v>
-      </c>
-      <c r="B834" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="835" spans="1:2">
       <c r="A835" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B835" t="s">
         <v>1356</v>
-      </c>
-      <c r="B835" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="836" spans="1:2">
       <c r="A836" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B836" t="s">
         <v>1358</v>
-      </c>
-      <c r="B836" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="837" spans="1:2">
       <c r="A837" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B837" t="s">
         <v>1360</v>
@@ -12705,12 +12708,12 @@
         <v>1361</v>
       </c>
       <c r="B838" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="839" spans="1:2">
       <c r="A839" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B839" t="s">
         <v>1363</v>
@@ -12817,36 +12820,36 @@
         <v>1376</v>
       </c>
       <c r="B852" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="853" spans="1:2">
       <c r="A853" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B853" t="s">
         <v>1378</v>
-      </c>
-      <c r="B853" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="854" spans="1:2">
       <c r="A854" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B854" t="s">
         <v>1380</v>
-      </c>
-      <c r="B854" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="855" spans="1:2">
       <c r="A855" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B855" t="s">
         <v>1382</v>
-      </c>
-      <c r="B855" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="856" spans="1:2">
       <c r="A856" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B856" t="s">
         <v>1384</v>
@@ -12897,20 +12900,20 @@
         <v>1390</v>
       </c>
       <c r="B862" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B863" t="s">
         <v>1392</v>
-      </c>
-      <c r="B863" t="s">
-        <v>1393</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B864" t="s">
         <v>1394</v>
@@ -12937,68 +12940,68 @@
         <v>1397</v>
       </c>
       <c r="B867" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="868" spans="1:2">
       <c r="A868" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B868" t="s">
         <v>1399</v>
-      </c>
-      <c r="B868" t="s">
-        <v>1400</v>
       </c>
     </row>
     <row r="869" spans="1:2">
       <c r="A869" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B869" t="s">
         <v>1401</v>
-      </c>
-      <c r="B869" t="s">
-        <v>1402</v>
       </c>
     </row>
     <row r="870" spans="1:2">
       <c r="A870" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B870" t="s">
         <v>1403</v>
-      </c>
-      <c r="B870" t="s">
-        <v>1404</v>
       </c>
     </row>
     <row r="871" spans="1:2">
       <c r="A871" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B871" t="s">
         <v>1405</v>
-      </c>
-      <c r="B871" t="s">
-        <v>1406</v>
       </c>
     </row>
     <row r="872" spans="1:2">
       <c r="A872" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B872" t="s">
         <v>1407</v>
-      </c>
-      <c r="B872" t="s">
-        <v>1408</v>
       </c>
     </row>
     <row r="873" spans="1:2">
       <c r="A873" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B873" t="s">
         <v>1409</v>
-      </c>
-      <c r="B873" t="s">
-        <v>1410</v>
       </c>
     </row>
     <row r="874" spans="1:2">
       <c r="A874" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B874" t="s">
         <v>1411</v>
-      </c>
-      <c r="B874" t="s">
-        <v>1412</v>
       </c>
     </row>
     <row r="875" spans="1:2">
       <c r="A875" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B875" t="s">
         <v>1413</v>
@@ -13017,20 +13020,20 @@
         <v>1415</v>
       </c>
       <c r="B877" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B878" t="s">
         <v>1417</v>
-      </c>
-      <c r="B878" t="s">
-        <v>1418</v>
       </c>
     </row>
     <row r="879" spans="1:2">
       <c r="A879" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B879" t="s">
         <v>1419</v>
@@ -13057,12 +13060,12 @@
         <v>1422</v>
       </c>
       <c r="B882" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B883" t="s">
         <v>1424</v>
@@ -13073,12 +13076,12 @@
         <v>1425</v>
       </c>
       <c r="B884" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B885" t="s">
         <v>1427</v>
@@ -13089,12 +13092,12 @@
         <v>1428</v>
       </c>
       <c r="B886" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B887" t="s">
         <v>1430</v>
@@ -13105,12 +13108,12 @@
         <v>1431</v>
       </c>
       <c r="B888" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="889" spans="1:2">
       <c r="A889" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B889" t="s">
         <v>1433</v>
@@ -13129,20 +13132,20 @@
         <v>1435</v>
       </c>
       <c r="B891" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B892" t="s">
         <v>1437</v>
-      </c>
-      <c r="B892" t="s">
-        <v>1438</v>
       </c>
     </row>
     <row r="893" spans="1:2">
       <c r="A893" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B893" t="s">
         <v>1439</v>
@@ -13161,52 +13164,52 @@
         <v>1441</v>
       </c>
       <c r="B895" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B896" t="s">
         <v>1443</v>
-      </c>
-      <c r="B896" t="s">
-        <v>1444</v>
       </c>
     </row>
     <row r="897" spans="1:2">
       <c r="A897" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B897" t="s">
         <v>1445</v>
-      </c>
-      <c r="B897" t="s">
-        <v>1446</v>
       </c>
     </row>
     <row r="898" spans="1:2">
       <c r="A898" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B898" t="s">
         <v>1447</v>
-      </c>
-      <c r="B898" t="s">
-        <v>1448</v>
       </c>
     </row>
     <row r="899" spans="1:2">
       <c r="A899" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B899" t="s">
         <v>1449</v>
-      </c>
-      <c r="B899" t="s">
-        <v>1450</v>
       </c>
     </row>
     <row r="900" spans="1:2">
       <c r="A900" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B900" t="s">
         <v>1451</v>
-      </c>
-      <c r="B900" t="s">
-        <v>1452</v>
       </c>
     </row>
     <row r="901" spans="1:2">
       <c r="A901" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B901" t="s">
         <v>1453</v>
@@ -13265,28 +13268,28 @@
         <v>1460</v>
       </c>
       <c r="B908" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B909" t="s">
         <v>1462</v>
-      </c>
-      <c r="B909" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="910" spans="1:2">
       <c r="A910" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B910" t="s">
         <v>1464</v>
-      </c>
-      <c r="B910" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="911" spans="1:2">
       <c r="A911" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B911" t="s">
         <v>1466</v>
@@ -13313,20 +13316,20 @@
         <v>1469</v>
       </c>
       <c r="B914" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B915" t="s">
         <v>1471</v>
-      </c>
-      <c r="B915" t="s">
-        <v>1472</v>
       </c>
     </row>
     <row r="916" spans="1:2">
       <c r="A916" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B916" t="s">
         <v>1473</v>
@@ -13337,20 +13340,20 @@
         <v>1474</v>
       </c>
       <c r="B917" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="918" spans="1:2">
       <c r="A918" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B918" t="s">
         <v>1476</v>
-      </c>
-      <c r="B918" t="s">
-        <v>1477</v>
       </c>
     </row>
     <row r="919" spans="1:2">
       <c r="A919" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B919" t="s">
         <v>1478</v>
@@ -13369,36 +13372,36 @@
         <v>1480</v>
       </c>
       <c r="B921" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B922" t="s">
         <v>1482</v>
-      </c>
-      <c r="B922" t="s">
-        <v>1483</v>
       </c>
     </row>
     <row r="923" spans="1:2">
       <c r="A923" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B923" t="s">
         <v>1484</v>
-      </c>
-      <c r="B923" t="s">
-        <v>1485</v>
       </c>
     </row>
     <row r="924" spans="1:2">
       <c r="A924" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B924" t="s">
         <v>1486</v>
-      </c>
-      <c r="B924" t="s">
-        <v>1487</v>
       </c>
     </row>
     <row r="925" spans="1:2">
       <c r="A925" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B925" t="s">
         <v>1488</v>
@@ -13441,68 +13444,68 @@
         <v>1493</v>
       </c>
       <c r="B930" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B931" t="s">
         <v>1495</v>
-      </c>
-      <c r="B931" t="s">
-        <v>1496</v>
       </c>
     </row>
     <row r="932" spans="1:2">
       <c r="A932" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B932" t="s">
         <v>1497</v>
-      </c>
-      <c r="B932" t="s">
-        <v>1498</v>
       </c>
     </row>
     <row r="933" spans="1:2">
       <c r="A933" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B933" t="s">
         <v>1499</v>
-      </c>
-      <c r="B933" t="s">
-        <v>1500</v>
       </c>
     </row>
     <row r="934" spans="1:2">
       <c r="A934" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B934" t="s">
         <v>1501</v>
-      </c>
-      <c r="B934" t="s">
-        <v>1502</v>
       </c>
     </row>
     <row r="935" spans="1:2">
       <c r="A935" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B935" t="s">
         <v>1503</v>
-      </c>
-      <c r="B935" t="s">
-        <v>1504</v>
       </c>
     </row>
     <row r="936" spans="1:2">
       <c r="A936" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B936" t="s">
         <v>1505</v>
-      </c>
-      <c r="B936" t="s">
-        <v>1506</v>
       </c>
     </row>
     <row r="937" spans="1:2">
       <c r="A937" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B937" t="s">
         <v>1507</v>
-      </c>
-      <c r="B937" t="s">
-        <v>1508</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B938" t="s">
         <v>1509</v>
@@ -13529,20 +13532,20 @@
         <v>1512</v>
       </c>
       <c r="B941" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B942" t="s">
         <v>1514</v>
-      </c>
-      <c r="B942" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B943" t="s">
         <v>1516</v>
@@ -13601,28 +13604,28 @@
         <v>1523</v>
       </c>
       <c r="B950" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="951" spans="1:2">
       <c r="A951" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B951" t="s">
         <v>1525</v>
-      </c>
-      <c r="B951" t="s">
-        <v>1526</v>
       </c>
     </row>
     <row r="952" spans="1:2">
       <c r="A952" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B952" t="s">
         <v>1527</v>
-      </c>
-      <c r="B952" t="s">
-        <v>1528</v>
       </c>
     </row>
     <row r="953" spans="1:2">
       <c r="A953" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B953" t="s">
         <v>1529</v>
@@ -13641,36 +13644,36 @@
         <v>1531</v>
       </c>
       <c r="B955" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B956" t="s">
         <v>1533</v>
-      </c>
-      <c r="B956" t="s">
-        <v>1534</v>
       </c>
     </row>
     <row r="957" spans="1:2">
       <c r="A957" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B957" t="s">
         <v>1535</v>
-      </c>
-      <c r="B957" t="s">
-        <v>1536</v>
       </c>
     </row>
     <row r="958" spans="1:2">
       <c r="A958" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B958" t="s">
         <v>1537</v>
-      </c>
-      <c r="B958" t="s">
-        <v>1538</v>
       </c>
     </row>
     <row r="959" spans="1:2">
       <c r="A959" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B959" t="s">
         <v>1539</v>
@@ -13681,12 +13684,12 @@
         <v>1540</v>
       </c>
       <c r="B960" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="961" spans="1:2">
       <c r="A961" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B961" t="s">
         <v>1542</v>
@@ -13713,60 +13716,60 @@
         <v>1545</v>
       </c>
       <c r="B964" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B965" t="s">
         <v>1547</v>
-      </c>
-      <c r="B965" t="s">
-        <v>1548</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B966" t="s">
         <v>1549</v>
-      </c>
-      <c r="B966" t="s">
-        <v>1550</v>
       </c>
     </row>
     <row r="967" spans="1:2">
       <c r="A967" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B967" t="s">
         <v>1551</v>
-      </c>
-      <c r="B967" t="s">
-        <v>1552</v>
       </c>
     </row>
     <row r="968" spans="1:2">
       <c r="A968" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B968" t="s">
         <v>1553</v>
-      </c>
-      <c r="B968" t="s">
-        <v>1554</v>
       </c>
     </row>
     <row r="969" spans="1:2">
       <c r="A969" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B969" t="s">
         <v>1555</v>
-      </c>
-      <c r="B969" t="s">
-        <v>1556</v>
       </c>
     </row>
     <row r="970" spans="1:2">
       <c r="A970" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B970" t="s">
         <v>1557</v>
-      </c>
-      <c r="B970" t="s">
-        <v>1558</v>
       </c>
     </row>
     <row r="971" spans="1:2">
       <c r="A971" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B971" t="s">
         <v>1559</v>
@@ -13777,12 +13780,12 @@
         <v>1560</v>
       </c>
       <c r="B972" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="973" spans="1:2">
       <c r="A973" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B973" t="s">
         <v>1562</v>
@@ -13793,20 +13796,20 @@
         <v>1563</v>
       </c>
       <c r="B974" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="975" spans="1:2">
       <c r="A975" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B975" t="s">
         <v>1565</v>
-      </c>
-      <c r="B975" t="s">
-        <v>1566</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B976" t="s">
         <v>1567</v>
@@ -13825,28 +13828,28 @@
         <v>1569</v>
       </c>
       <c r="B978" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B979" t="s">
         <v>1571</v>
-      </c>
-      <c r="B979" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B980" t="s">
         <v>1573</v>
-      </c>
-      <c r="B980" t="s">
-        <v>1574</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="B981" t="s">
         <v>1575</v>
@@ -13865,12 +13868,12 @@
         <v>1577</v>
       </c>
       <c r="B983" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B984" t="s">
         <v>1579</v>
@@ -13897,28 +13900,28 @@
         <v>1582</v>
       </c>
       <c r="B987" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B988" t="s">
         <v>1584</v>
-      </c>
-      <c r="B988" t="s">
-        <v>1585</v>
       </c>
     </row>
     <row r="989" spans="1:2">
       <c r="A989" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B989" t="s">
         <v>1586</v>
-      </c>
-      <c r="B989" t="s">
-        <v>1587</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B990" t="s">
         <v>1588</v>
@@ -13929,20 +13932,20 @@
         <v>1589</v>
       </c>
       <c r="B991" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="992" spans="1:2">
       <c r="A992" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B992" t="s">
         <v>1591</v>
-      </c>
-      <c r="B992" t="s">
-        <v>1592</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B993" t="s">
         <v>1593</v>
@@ -13969,12 +13972,12 @@
         <v>1596</v>
       </c>
       <c r="B996" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="B997" t="s">
         <v>1598</v>
@@ -13985,20 +13988,20 @@
         <v>1599</v>
       </c>
       <c r="B998" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="999" spans="1:2">
       <c r="A999" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B999" t="s">
         <v>1601</v>
-      </c>
-      <c r="B999" t="s">
-        <v>1602</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B1000" t="s">
         <v>1603</v>
@@ -14033,12 +14036,12 @@
         <v>1607</v>
       </c>
       <c r="B1004" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B1005" t="s">
         <v>1609</v>
@@ -14073,20 +14076,20 @@
         <v>1613</v>
       </c>
       <c r="B1009" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B1010" t="s">
         <v>1615</v>
-      </c>
-      <c r="B1010" t="s">
-        <v>1616</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B1011" t="s">
         <v>1617</v>
@@ -14121,20 +14124,20 @@
         <v>1621</v>
       </c>
       <c r="B1015" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B1016" t="s">
         <v>1623</v>
-      </c>
-      <c r="B1016" t="s">
-        <v>1624</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="B1017" t="s">
         <v>1625</v>
@@ -14145,28 +14148,28 @@
         <v>1626</v>
       </c>
       <c r="B1018" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
       <c r="A1019" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B1019" t="s">
         <v>1628</v>
-      </c>
-      <c r="B1019" t="s">
-        <v>1629</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B1020" t="s">
         <v>1630</v>
-      </c>
-      <c r="B1020" t="s">
-        <v>1631</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
       <c r="A1021" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B1021" t="s">
         <v>1632</v>
@@ -14257,20 +14260,20 @@
         <v>1643</v>
       </c>
       <c r="B1032" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B1033" t="s">
         <v>1645</v>
-      </c>
-      <c r="B1033" t="s">
-        <v>1646</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B1034" t="s">
         <v>1647</v>
@@ -14281,84 +14284,84 @@
         <v>1648</v>
       </c>
       <c r="B1035" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B1036" t="s">
         <v>1650</v>
-      </c>
-      <c r="B1036" t="s">
-        <v>1651</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B1037" t="s">
         <v>1652</v>
-      </c>
-      <c r="B1037" t="s">
-        <v>1653</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
       <c r="A1038" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B1038" t="s">
         <v>1654</v>
-      </c>
-      <c r="B1038" t="s">
-        <v>1655</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
       <c r="A1039" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B1039" t="s">
         <v>1656</v>
-      </c>
-      <c r="B1039" t="s">
-        <v>1657</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B1040" t="s">
         <v>1658</v>
-      </c>
-      <c r="B1040" t="s">
-        <v>1659</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B1041" t="s">
         <v>1660</v>
-      </c>
-      <c r="B1041" t="s">
-        <v>1661</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
       <c r="A1042" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B1042" t="s">
         <v>1662</v>
-      </c>
-      <c r="B1042" t="s">
-        <v>1663</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
       <c r="A1043" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B1043" t="s">
         <v>1664</v>
-      </c>
-      <c r="B1043" t="s">
-        <v>1665</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B1044" t="s">
         <v>1666</v>
-      </c>
-      <c r="B1044" t="s">
-        <v>1667</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
       <c r="A1045" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="B1045" t="s">
         <v>1668</v>
@@ -14369,12 +14372,12 @@
         <v>1669</v>
       </c>
       <c r="B1046" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="B1047" t="s">
         <v>1671</v>
@@ -14385,76 +14388,76 @@
         <v>1672</v>
       </c>
       <c r="B1048" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
       <c r="A1049" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B1049" t="s">
         <v>1674</v>
-      </c>
-      <c r="B1049" t="s">
-        <v>1675</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
       <c r="A1050" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B1050" t="s">
         <v>1676</v>
-      </c>
-      <c r="B1050" t="s">
-        <v>1677</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
       <c r="A1051" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B1051" t="s">
         <v>1678</v>
-      </c>
-      <c r="B1051" t="s">
-        <v>1679</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
       <c r="A1052" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B1052" t="s">
         <v>1680</v>
-      </c>
-      <c r="B1052" t="s">
-        <v>1681</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
       <c r="A1053" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B1053" t="s">
         <v>1682</v>
-      </c>
-      <c r="B1053" t="s">
-        <v>1683</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
       <c r="A1054" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B1054" t="s">
         <v>1684</v>
-      </c>
-      <c r="B1054" t="s">
-        <v>1685</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
       <c r="A1055" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B1055" t="s">
         <v>1686</v>
-      </c>
-      <c r="B1055" t="s">
-        <v>1687</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
       <c r="A1056" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B1056" t="s">
         <v>1688</v>
-      </c>
-      <c r="B1056" t="s">
-        <v>1689</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
       <c r="A1057" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B1057" t="s">
         <v>1690</v>
@@ -14465,92 +14468,92 @@
         <v>1691</v>
       </c>
       <c r="B1058" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B1059" t="s">
         <v>1693</v>
-      </c>
-      <c r="B1059" t="s">
-        <v>1694</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B1060" t="s">
         <v>1695</v>
-      </c>
-      <c r="B1060" t="s">
-        <v>1696</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
       <c r="A1061" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B1061" t="s">
         <v>1697</v>
-      </c>
-      <c r="B1061" t="s">
-        <v>1698</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B1062" t="s">
         <v>1699</v>
-      </c>
-      <c r="B1062" t="s">
-        <v>1700</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
       <c r="A1063" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B1063" t="s">
         <v>1701</v>
-      </c>
-      <c r="B1063" t="s">
-        <v>1702</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
       <c r="A1064" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B1064" t="s">
         <v>1703</v>
-      </c>
-      <c r="B1064" t="s">
-        <v>1704</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
       <c r="A1065" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B1065" t="s">
         <v>1705</v>
-      </c>
-      <c r="B1065" t="s">
-        <v>1706</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
       <c r="A1066" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B1066" t="s">
         <v>1707</v>
-      </c>
-      <c r="B1066" t="s">
-        <v>1708</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
       <c r="A1067" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B1067" t="s">
         <v>1709</v>
-      </c>
-      <c r="B1067" t="s">
-        <v>1710</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B1068" t="s">
         <v>1711</v>
-      </c>
-      <c r="B1068" t="s">
-        <v>1712</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B1069" t="s">
         <v>1713</v>
@@ -14569,12 +14572,12 @@
         <v>1715</v>
       </c>
       <c r="B1071" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="B1072" t="s">
         <v>1717</v>
@@ -14601,12 +14604,12 @@
         <v>1720</v>
       </c>
       <c r="B1075" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B1076" t="s">
         <v>1722</v>
@@ -14617,20 +14620,20 @@
         <v>1723</v>
       </c>
       <c r="B1077" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B1078" t="s">
         <v>1725</v>
-      </c>
-      <c r="B1078" t="s">
-        <v>1726</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="B1079" t="s">
         <v>1727</v>
@@ -14641,28 +14644,28 @@
         <v>1728</v>
       </c>
       <c r="B1080" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B1081" t="s">
         <v>1730</v>
-      </c>
-      <c r="B1081" t="s">
-        <v>1731</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B1082" t="s">
         <v>1732</v>
-      </c>
-      <c r="B1082" t="s">
-        <v>1733</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="B1083" t="s">
         <v>1734</v>
@@ -14673,36 +14676,36 @@
         <v>1735</v>
       </c>
       <c r="B1084" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B1085" t="s">
         <v>1737</v>
-      </c>
-      <c r="B1085" t="s">
-        <v>1738</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1086" t="s">
         <v>1739</v>
-      </c>
-      <c r="B1086" t="s">
-        <v>1740</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
       <c r="A1087" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B1087" t="s">
         <v>1741</v>
-      </c>
-      <c r="B1087" t="s">
-        <v>1742</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="B1088" t="s">
         <v>1743</v>
@@ -14721,44 +14724,44 @@
         <v>1745</v>
       </c>
       <c r="B1090" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B1091" t="s">
         <v>1747</v>
-      </c>
-      <c r="B1091" t="s">
-        <v>1748</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B1092" t="s">
         <v>1749</v>
-      </c>
-      <c r="B1092" t="s">
-        <v>1750</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
       <c r="A1093" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B1093" t="s">
         <v>1751</v>
-      </c>
-      <c r="B1093" t="s">
-        <v>1752</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B1094" t="s">
         <v>1753</v>
-      </c>
-      <c r="B1094" t="s">
-        <v>1754</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
       <c r="A1095" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B1095" t="s">
         <v>1755</v>
@@ -14769,12 +14772,12 @@
         <v>1756</v>
       </c>
       <c r="B1096" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B1097" t="s">
         <v>1758</v>
@@ -14793,12 +14796,12 @@
         <v>1760</v>
       </c>
       <c r="B1099" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B1100" t="s">
         <v>1762</v>
@@ -14817,36 +14820,36 @@
         <v>1764</v>
       </c>
       <c r="B1102" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B1103" t="s">
         <v>1766</v>
-      </c>
-      <c r="B1103" t="s">
-        <v>1767</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B1104" t="s">
         <v>1768</v>
-      </c>
-      <c r="B1104" t="s">
-        <v>1769</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B1105" t="s">
         <v>1770</v>
-      </c>
-      <c r="B1105" t="s">
-        <v>1771</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B1106" t="s">
         <v>1772</v>
@@ -14873,52 +14876,52 @@
         <v>1775</v>
       </c>
       <c r="B1109" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B1110" t="s">
         <v>1777</v>
-      </c>
-      <c r="B1110" t="s">
-        <v>1778</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
       <c r="A1111" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1111" t="s">
         <v>1779</v>
-      </c>
-      <c r="B1111" t="s">
-        <v>1780</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B1112" t="s">
         <v>1781</v>
-      </c>
-      <c r="B1112" t="s">
-        <v>1782</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B1113" t="s">
         <v>1783</v>
-      </c>
-      <c r="B1113" t="s">
-        <v>1784</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
       <c r="A1114" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B1114" t="s">
         <v>1785</v>
-      </c>
-      <c r="B1114" t="s">
-        <v>1786</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B1115" t="s">
         <v>1787</v>
@@ -14929,7 +14932,7 @@
         <v>1788</v>
       </c>
       <c r="B1116" t="s">
-        <v>791</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
@@ -14937,12 +14940,12 @@
         <v>1789</v>
       </c>
       <c r="B1117" t="s">
-        <v>1790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="B1118" t="s">
         <v>1791</v>
@@ -14953,76 +14956,76 @@
         <v>1792</v>
       </c>
       <c r="B1119" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
       <c r="A1120" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B1120" t="s">
         <v>1794</v>
-      </c>
-      <c r="B1120" t="s">
-        <v>1795</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
       <c r="A1121" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B1121" t="s">
         <v>1796</v>
-      </c>
-      <c r="B1121" t="s">
-        <v>1797</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
       <c r="A1122" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B1122" t="s">
         <v>1798</v>
-      </c>
-      <c r="B1122" t="s">
-        <v>1799</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
       <c r="A1123" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B1123" t="s">
         <v>1800</v>
-      </c>
-      <c r="B1123" t="s">
-        <v>1801</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
       <c r="A1124" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B1124" t="s">
         <v>1802</v>
-      </c>
-      <c r="B1124" t="s">
-        <v>1803</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
       <c r="A1125" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B1125" t="s">
         <v>1804</v>
-      </c>
-      <c r="B1125" t="s">
-        <v>1805</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
       <c r="A1126" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B1126" t="s">
         <v>1806</v>
-      </c>
-      <c r="B1126" t="s">
-        <v>1807</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B1127" t="s">
         <v>1808</v>
-      </c>
-      <c r="B1127" t="s">
-        <v>1809</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="B1128" t="s">
         <v>1810</v>
@@ -15065,20 +15068,20 @@
         <v>1815</v>
       </c>
       <c r="B1133" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B1134" t="s">
         <v>1817</v>
-      </c>
-      <c r="B1134" t="s">
-        <v>1818</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="B1135" t="s">
         <v>1819</v>
@@ -15105,20 +15108,20 @@
         <v>1822</v>
       </c>
       <c r="B1138" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B1139" t="s">
         <v>1824</v>
-      </c>
-      <c r="B1139" t="s">
-        <v>1825</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="B1140" t="s">
         <v>1826</v>
@@ -15129,60 +15132,60 @@
         <v>1827</v>
       </c>
       <c r="B1141" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B1142" t="s">
         <v>1829</v>
-      </c>
-      <c r="B1142" t="s">
-        <v>1830</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B1143" t="s">
         <v>1831</v>
-      </c>
-      <c r="B1143" t="s">
-        <v>1832</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B1144" t="s">
         <v>1833</v>
-      </c>
-      <c r="B1144" t="s">
-        <v>1834</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B1145" t="s">
         <v>1835</v>
-      </c>
-      <c r="B1145" t="s">
-        <v>1836</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B1146" t="s">
         <v>1837</v>
-      </c>
-      <c r="B1146" t="s">
-        <v>1838</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B1147" t="s">
         <v>1839</v>
-      </c>
-      <c r="B1147" t="s">
-        <v>1840</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="B1148" t="s">
         <v>1841</v>
@@ -15193,36 +15196,36 @@
         <v>1842</v>
       </c>
       <c r="B1149" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B1150" t="s">
         <v>1844</v>
-      </c>
-      <c r="B1150" t="s">
-        <v>1845</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B1151" t="s">
         <v>1846</v>
-      </c>
-      <c r="B1151" t="s">
-        <v>1847</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B1152" t="s">
         <v>1848</v>
-      </c>
-      <c r="B1152" t="s">
-        <v>1849</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="B1153" t="s">
         <v>1850</v>
@@ -15265,20 +15268,20 @@
         <v>1855</v>
       </c>
       <c r="B1158" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B1159" t="s">
         <v>1857</v>
-      </c>
-      <c r="B1159" t="s">
-        <v>1858</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="B1160" t="s">
         <v>1859</v>
@@ -15297,12 +15300,12 @@
         <v>1861</v>
       </c>
       <c r="B1162" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B1163" t="s">
         <v>1863</v>
@@ -15337,20 +15340,20 @@
         <v>1867</v>
       </c>
       <c r="B1167" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B1168" t="s">
         <v>1869</v>
-      </c>
-      <c r="B1168" t="s">
-        <v>1870</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="B1169" t="s">
         <v>1871</v>
@@ -15361,12 +15364,12 @@
         <v>1872</v>
       </c>
       <c r="B1170" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B1171" t="s">
         <v>1874</v>
@@ -15380,8 +15383,16 @@
         <v>1875</v>
       </c>
     </row>
+    <row r="1173" spans="1:2">
+      <c r="A1173" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>1876</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1172"/>
+  <autoFilter ref="A1:B1173"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/hu/headTags.xlsx
+++ b/lang/hu/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1174</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1879">
   <si>
     <t>en</t>
   </si>
@@ -2081,6 +2081,12 @@
   </si>
   <si>
     <t>Betűtípus (Rainbow)</t>
+  </si>
+  <si>
+    <t>Font (Red Chiseled Sandstone)</t>
+  </si>
+  <si>
+    <t>Betűtípus (Red Chiseled Sandstone)</t>
   </si>
   <si>
     <t>Font (Red)</t>
@@ -5994,7 +6000,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1173"/>
+  <dimension ref="A1:B1174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -9436,44 +9442,44 @@
         <v>714</v>
       </c>
       <c r="B429" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B430" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B431" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B432" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B433" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B434" t="s">
         <v>720</v>
@@ -9548,12 +9554,12 @@
         <v>737</v>
       </c>
       <c r="B443" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B444" t="s">
         <v>739</v>
@@ -9564,12 +9570,12 @@
         <v>740</v>
       </c>
       <c r="B445" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B446" t="s">
         <v>742</v>
@@ -9580,12 +9586,12 @@
         <v>743</v>
       </c>
       <c r="B447" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B448" t="s">
         <v>745</v>
@@ -9620,20 +9626,20 @@
         <v>752</v>
       </c>
       <c r="B452" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B453" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B454" t="s">
         <v>755</v>
@@ -9660,12 +9666,12 @@
         <v>760</v>
       </c>
       <c r="B457" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B458" t="s">
         <v>762</v>
@@ -9700,20 +9706,20 @@
         <v>769</v>
       </c>
       <c r="B462" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B463" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B464" t="s">
         <v>772</v>
@@ -9724,12 +9730,12 @@
         <v>773</v>
       </c>
       <c r="B465" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B466" t="s">
         <v>775</v>
@@ -9748,39 +9754,39 @@
         <v>778</v>
       </c>
       <c r="B468" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B469" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B470" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B471" t="s">
-        <v>508</v>
+        <v>782</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B472" t="s">
-        <v>783</v>
+        <v>508</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -9788,12 +9794,12 @@
         <v>784</v>
       </c>
       <c r="B473" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B474" t="s">
         <v>786</v>
@@ -9804,12 +9810,12 @@
         <v>787</v>
       </c>
       <c r="B475" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B476" t="s">
         <v>789</v>
@@ -9828,12 +9834,12 @@
         <v>792</v>
       </c>
       <c r="B478" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B479" t="s">
         <v>794</v>
@@ -9844,20 +9850,20 @@
         <v>795</v>
       </c>
       <c r="B480" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B481" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B482" t="s">
         <v>798</v>
@@ -9868,12 +9874,12 @@
         <v>799</v>
       </c>
       <c r="B483" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B484" t="s">
         <v>801</v>
@@ -9884,20 +9890,20 @@
         <v>802</v>
       </c>
       <c r="B485" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B486" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B487" t="s">
         <v>805</v>
@@ -9908,12 +9914,12 @@
         <v>806</v>
       </c>
       <c r="B488" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B489" t="s">
         <v>808</v>
@@ -10068,20 +10074,20 @@
         <v>845</v>
       </c>
       <c r="B508" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B509" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B510" t="s">
         <v>848</v>
@@ -10092,12 +10098,12 @@
         <v>849</v>
       </c>
       <c r="B511" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B512" t="s">
         <v>851</v>
@@ -10140,20 +10146,20 @@
         <v>860</v>
       </c>
       <c r="B517" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B518" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B519" t="s">
         <v>863</v>
@@ -10188,12 +10194,12 @@
         <v>870</v>
       </c>
       <c r="B523" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B524" t="s">
         <v>872</v>
@@ -10244,12 +10250,12 @@
         <v>883</v>
       </c>
       <c r="B530" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B531" t="s">
         <v>885</v>
@@ -10268,20 +10274,20 @@
         <v>888</v>
       </c>
       <c r="B533" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B534" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B535" t="s">
         <v>891</v>
@@ -10292,60 +10298,60 @@
         <v>892</v>
       </c>
       <c r="B536" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B537" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B538" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B539" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B540" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B541" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B542" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B543" t="s">
         <v>900</v>
@@ -10356,20 +10362,20 @@
         <v>901</v>
       </c>
       <c r="B544" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B545" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B546" t="s">
         <v>904</v>
@@ -10388,28 +10394,28 @@
         <v>907</v>
       </c>
       <c r="B548" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B549" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B550" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B551" t="s">
         <v>911</v>
@@ -10428,12 +10434,12 @@
         <v>914</v>
       </c>
       <c r="B553" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B554" t="s">
         <v>916</v>
@@ -10492,28 +10498,28 @@
         <v>929</v>
       </c>
       <c r="B561" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B562" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B563" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B564" t="s">
         <v>933</v>
@@ -10532,12 +10538,12 @@
         <v>936</v>
       </c>
       <c r="B566" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B567" t="s">
         <v>938</v>
@@ -10556,12 +10562,12 @@
         <v>941</v>
       </c>
       <c r="B569" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B570" t="s">
         <v>943</v>
@@ -10580,52 +10586,52 @@
         <v>946</v>
       </c>
       <c r="B572" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B573" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B574" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B575" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B576" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B577" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B578" t="s">
         <v>953</v>
@@ -10652,28 +10658,28 @@
         <v>958</v>
       </c>
       <c r="B581" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B582" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B583" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B584" t="s">
         <v>962</v>
@@ -10700,12 +10706,12 @@
         <v>967</v>
       </c>
       <c r="B587" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B588" t="s">
         <v>969</v>
@@ -10732,12 +10738,12 @@
         <v>974</v>
       </c>
       <c r="B591" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B592" t="s">
         <v>976</v>
@@ -10804,20 +10810,20 @@
         <v>991</v>
       </c>
       <c r="B600" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B601" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B602" t="s">
         <v>994</v>
@@ -10828,20 +10834,20 @@
         <v>995</v>
       </c>
       <c r="B603" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B604" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B605" t="s">
         <v>998</v>
@@ -10876,28 +10882,28 @@
         <v>1005</v>
       </c>
       <c r="B609" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B610" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B611" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B612" t="s">
         <v>1009</v>
@@ -10940,12 +10946,12 @@
         <v>1018</v>
       </c>
       <c r="B617" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B618" t="s">
         <v>1020</v>
@@ -10980,28 +10986,28 @@
         <v>1027</v>
       </c>
       <c r="B622" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B623" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B624" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B625" t="s">
         <v>1031</v>
@@ -11012,20 +11018,20 @@
         <v>1032</v>
       </c>
       <c r="B626" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B627" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B628" t="s">
         <v>1035</v>
@@ -11036,20 +11042,20 @@
         <v>1036</v>
       </c>
       <c r="B629" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B630" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B631" t="s">
         <v>1039</v>
@@ -11060,52 +11066,52 @@
         <v>1040</v>
       </c>
       <c r="B632" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B633" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B634" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B635" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B636" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B637" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B638" t="s">
         <v>1047</v>
@@ -11116,36 +11122,36 @@
         <v>1048</v>
       </c>
       <c r="B639" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B640" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B641" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B642" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B643" t="s">
         <v>1053</v>
@@ -11180,28 +11186,28 @@
         <v>1060</v>
       </c>
       <c r="B647" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B648" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B649" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B650" t="s">
         <v>1064</v>
@@ -11212,12 +11218,12 @@
         <v>1065</v>
       </c>
       <c r="B651" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B652" t="s">
         <v>1067</v>
@@ -11236,20 +11242,20 @@
         <v>1070</v>
       </c>
       <c r="B654" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B655" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B656" t="s">
         <v>1073</v>
@@ -11268,12 +11274,12 @@
         <v>1076</v>
       </c>
       <c r="B658" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B659" t="s">
         <v>1078</v>
@@ -11324,12 +11330,12 @@
         <v>1089</v>
       </c>
       <c r="B665" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B666" t="s">
         <v>1091</v>
@@ -11340,36 +11346,36 @@
         <v>1092</v>
       </c>
       <c r="B667" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B668" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B669" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B670" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B671" t="s">
         <v>1097</v>
@@ -11380,44 +11386,44 @@
         <v>1098</v>
       </c>
       <c r="B672" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B673" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B674" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B675" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B676" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B677" t="s">
         <v>1104</v>
@@ -11444,20 +11450,20 @@
         <v>1109</v>
       </c>
       <c r="B680" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B681" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B682" t="s">
         <v>1112</v>
@@ -11508,20 +11514,20 @@
         <v>1123</v>
       </c>
       <c r="B688" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B689" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B690" t="s">
         <v>1126</v>
@@ -11540,12 +11546,12 @@
         <v>1129</v>
       </c>
       <c r="B692" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B693" t="s">
         <v>1131</v>
@@ -11588,12 +11594,12 @@
         <v>1140</v>
       </c>
       <c r="B698" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B699" t="s">
         <v>1142</v>
@@ -11604,20 +11610,20 @@
         <v>1143</v>
       </c>
       <c r="B700" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B701" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B702" t="s">
         <v>1146</v>
@@ -11628,28 +11634,28 @@
         <v>1147</v>
       </c>
       <c r="B703" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B704" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B705" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B706" t="s">
         <v>1151</v>
@@ -11660,28 +11666,28 @@
         <v>1152</v>
       </c>
       <c r="B707" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B708" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B709" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B710" t="s">
         <v>1156</v>
@@ -11756,12 +11762,12 @@
         <v>1173</v>
       </c>
       <c r="B719" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B720" t="s">
         <v>1175</v>
@@ -11788,12 +11794,12 @@
         <v>1180</v>
       </c>
       <c r="B723" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B724" t="s">
         <v>1182</v>
@@ -11812,20 +11818,20 @@
         <v>1185</v>
       </c>
       <c r="B726" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B727" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B728" t="s">
         <v>1188</v>
@@ -11836,12 +11842,12 @@
         <v>1189</v>
       </c>
       <c r="B729" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B730" t="s">
         <v>1191</v>
@@ -11852,36 +11858,36 @@
         <v>1192</v>
       </c>
       <c r="B731" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="732" spans="1:2">
       <c r="A732" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B732" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="733" spans="1:2">
       <c r="A733" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B733" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B734" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B735" t="s">
         <v>1197</v>
@@ -11892,52 +11898,52 @@
         <v>1198</v>
       </c>
       <c r="B736" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B737" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B738" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B739" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B740" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B741" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B742" t="s">
         <v>1205</v>
@@ -11948,36 +11954,36 @@
         <v>1206</v>
       </c>
       <c r="B743" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B744" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B745" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B746" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="B747" t="s">
         <v>1211</v>
@@ -12036,20 +12042,20 @@
         <v>1224</v>
       </c>
       <c r="B754" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B755" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B756" t="s">
         <v>1227</v>
@@ -12068,12 +12074,12 @@
         <v>1230</v>
       </c>
       <c r="B758" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B759" t="s">
         <v>1232</v>
@@ -12084,20 +12090,20 @@
         <v>1233</v>
       </c>
       <c r="B760" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="B761" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="B762" t="s">
         <v>1236</v>
@@ -12140,12 +12146,12 @@
         <v>1245</v>
       </c>
       <c r="B767" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B768" t="s">
         <v>1247</v>
@@ -12164,12 +12170,12 @@
         <v>1250</v>
       </c>
       <c r="B770" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="B771" t="s">
         <v>1252</v>
@@ -12180,12 +12186,12 @@
         <v>1253</v>
       </c>
       <c r="B772" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B773" t="s">
         <v>1255</v>
@@ -12252,28 +12258,28 @@
         <v>1270</v>
       </c>
       <c r="B781" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B782" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B783" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B784" t="s">
         <v>1274</v>
@@ -12292,12 +12298,12 @@
         <v>1277</v>
       </c>
       <c r="B786" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B787" t="s">
         <v>1279</v>
@@ -12308,60 +12314,60 @@
         <v>1280</v>
       </c>
       <c r="B788" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B789" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B790" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="B791" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B792" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="B793" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B794" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="B795" t="s">
         <v>1288</v>
@@ -12372,12 +12378,12 @@
         <v>1289</v>
       </c>
       <c r="B796" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B797" t="s">
         <v>1291</v>
@@ -12436,28 +12442,28 @@
         <v>1304</v>
       </c>
       <c r="B804" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B805" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B806" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B807" t="s">
         <v>1308</v>
@@ -12524,12 +12530,12 @@
         <v>1323</v>
       </c>
       <c r="B815" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="816" spans="1:2">
       <c r="A816" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="B816" t="s">
         <v>1325</v>
@@ -12556,12 +12562,12 @@
         <v>1330</v>
       </c>
       <c r="B819" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B820" t="s">
         <v>1332</v>
@@ -12588,12 +12594,12 @@
         <v>1337</v>
       </c>
       <c r="B823" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="824" spans="1:2">
       <c r="A824" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B824" t="s">
         <v>1339</v>
@@ -12620,12 +12626,12 @@
         <v>1344</v>
       </c>
       <c r="B827" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="828" spans="1:2">
       <c r="A828" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="B828" t="s">
         <v>1346</v>
@@ -12636,36 +12642,36 @@
         <v>1347</v>
       </c>
       <c r="B829" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B830" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B831" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B832" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B833" t="s">
         <v>1352</v>
@@ -12708,12 +12714,12 @@
         <v>1361</v>
       </c>
       <c r="B838" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="839" spans="1:2">
       <c r="A839" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B839" t="s">
         <v>1363</v>
@@ -12724,108 +12730,108 @@
         <v>1364</v>
       </c>
       <c r="B840" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="B841" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B842" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B843" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="B844" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B845" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="846" spans="1:2">
       <c r="A846" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B846" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="847" spans="1:2">
       <c r="A847" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B847" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="848" spans="1:2">
       <c r="A848" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B848" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="849" spans="1:2">
       <c r="A849" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B849" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="850" spans="1:2">
       <c r="A850" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B850" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="851" spans="1:2">
       <c r="A851" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="B851" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="852" spans="1:2">
       <c r="A852" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B852" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="853" spans="1:2">
       <c r="A853" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B853" t="s">
         <v>1378</v>
@@ -12860,52 +12866,52 @@
         <v>1385</v>
       </c>
       <c r="B857" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B858" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="B859" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="B860" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="B861" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="B862" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="B863" t="s">
         <v>1392</v>
@@ -12924,28 +12930,28 @@
         <v>1395</v>
       </c>
       <c r="B865" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="B866" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="B867" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="868" spans="1:2">
       <c r="A868" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="B868" t="s">
         <v>1399</v>
@@ -13012,20 +13018,20 @@
         <v>1414</v>
       </c>
       <c r="B876" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="B877" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B878" t="s">
         <v>1417</v>
@@ -13044,28 +13050,28 @@
         <v>1420</v>
       </c>
       <c r="B880" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="881" spans="1:2">
       <c r="A881" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="B881" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="B882" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B883" t="s">
         <v>1424</v>
@@ -13076,12 +13082,12 @@
         <v>1425</v>
       </c>
       <c r="B884" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="B885" t="s">
         <v>1427</v>
@@ -13092,12 +13098,12 @@
         <v>1428</v>
       </c>
       <c r="B886" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="B887" t="s">
         <v>1430</v>
@@ -13108,12 +13114,12 @@
         <v>1431</v>
       </c>
       <c r="B888" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="889" spans="1:2">
       <c r="A889" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="B889" t="s">
         <v>1433</v>
@@ -13124,20 +13130,20 @@
         <v>1434</v>
       </c>
       <c r="B890" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="891" spans="1:2">
       <c r="A891" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="B891" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B892" t="s">
         <v>1437</v>
@@ -13156,20 +13162,20 @@
         <v>1440</v>
       </c>
       <c r="B894" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="895" spans="1:2">
       <c r="A895" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="B895" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B896" t="s">
         <v>1443</v>
@@ -13220,60 +13226,60 @@
         <v>1454</v>
       </c>
       <c r="B902" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B903" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="B904" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="B905" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B906" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B907" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="B908" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B909" t="s">
         <v>1462</v>
@@ -13300,28 +13306,28 @@
         <v>1467</v>
       </c>
       <c r="B912" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B913" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="B914" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B915" t="s">
         <v>1471</v>
@@ -13340,12 +13346,12 @@
         <v>1474</v>
       </c>
       <c r="B917" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="918" spans="1:2">
       <c r="A918" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B918" t="s">
         <v>1476</v>
@@ -13364,20 +13370,20 @@
         <v>1479</v>
       </c>
       <c r="B920" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B921" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="B922" t="s">
         <v>1482</v>
@@ -13412,44 +13418,44 @@
         <v>1489</v>
       </c>
       <c r="B926" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="927" spans="1:2">
       <c r="A927" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B927" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="B928" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B929" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B930" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B931" t="s">
         <v>1495</v>
@@ -13516,28 +13522,28 @@
         <v>1510</v>
       </c>
       <c r="B939" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B940" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B941" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B942" t="s">
         <v>1514</v>
@@ -13556,60 +13562,60 @@
         <v>1517</v>
       </c>
       <c r="B944" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B945" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="B946" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B947" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B948" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="B949" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B950" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="951" spans="1:2">
       <c r="A951" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="B951" t="s">
         <v>1525</v>
@@ -13636,20 +13642,20 @@
         <v>1530</v>
       </c>
       <c r="B954" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B955" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B956" t="s">
         <v>1533</v>
@@ -13684,12 +13690,12 @@
         <v>1540</v>
       </c>
       <c r="B960" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="961" spans="1:2">
       <c r="A961" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="B961" t="s">
         <v>1542</v>
@@ -13700,28 +13706,28 @@
         <v>1543</v>
       </c>
       <c r="B962" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="B963" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="B964" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="B965" t="s">
         <v>1547</v>
@@ -13780,12 +13786,12 @@
         <v>1560</v>
       </c>
       <c r="B972" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="973" spans="1:2">
       <c r="A973" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="B973" t="s">
         <v>1562</v>
@@ -13796,12 +13802,12 @@
         <v>1563</v>
       </c>
       <c r="B974" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="975" spans="1:2">
       <c r="A975" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="B975" t="s">
         <v>1565</v>
@@ -13820,20 +13826,20 @@
         <v>1568</v>
       </c>
       <c r="B977" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B978" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="B979" t="s">
         <v>1571</v>
@@ -13860,20 +13866,20 @@
         <v>1576</v>
       </c>
       <c r="B982" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B983" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="B984" t="s">
         <v>1579</v>
@@ -13884,28 +13890,28 @@
         <v>1580</v>
       </c>
       <c r="B985" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="B986" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="B987" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B988" t="s">
         <v>1584</v>
@@ -13932,12 +13938,12 @@
         <v>1589</v>
       </c>
       <c r="B991" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="992" spans="1:2">
       <c r="A992" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="B992" t="s">
         <v>1591</v>
@@ -13956,28 +13962,28 @@
         <v>1594</v>
       </c>
       <c r="B994" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="B995" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B996" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B997" t="s">
         <v>1598</v>
@@ -13988,12 +13994,12 @@
         <v>1599</v>
       </c>
       <c r="B998" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="999" spans="1:2">
       <c r="A999" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="B999" t="s">
         <v>1601</v>
@@ -14012,36 +14018,36 @@
         <v>1604</v>
       </c>
       <c r="B1001" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="B1002" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B1003" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B1004" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B1005" t="s">
         <v>1609</v>
@@ -14052,36 +14058,36 @@
         <v>1610</v>
       </c>
       <c r="B1006" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B1007" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B1008" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B1009" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B1010" t="s">
         <v>1615</v>
@@ -14100,36 +14106,36 @@
         <v>1618</v>
       </c>
       <c r="B1012" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="B1013" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="B1014" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="B1015" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="B1016" t="s">
         <v>1623</v>
@@ -14148,12 +14154,12 @@
         <v>1626</v>
       </c>
       <c r="B1018" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
       <c r="A1019" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="B1019" t="s">
         <v>1628</v>
@@ -14180,92 +14186,92 @@
         <v>1633</v>
       </c>
       <c r="B1022" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="B1023" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="B1024" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B1025" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="B1026" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="B1027" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="B1028" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="B1029" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="B1030" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="B1031" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="B1032" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="B1033" t="s">
         <v>1645</v>
@@ -14284,12 +14290,12 @@
         <v>1648</v>
       </c>
       <c r="B1035" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="B1036" t="s">
         <v>1650</v>
@@ -14372,12 +14378,12 @@
         <v>1669</v>
       </c>
       <c r="B1046" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="B1047" t="s">
         <v>1671</v>
@@ -14388,12 +14394,12 @@
         <v>1672</v>
       </c>
       <c r="B1048" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
       <c r="A1049" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="B1049" t="s">
         <v>1674</v>
@@ -14468,12 +14474,12 @@
         <v>1691</v>
       </c>
       <c r="B1058" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="B1059" t="s">
         <v>1693</v>
@@ -14564,20 +14570,20 @@
         <v>1714</v>
       </c>
       <c r="B1070" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B1071" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="B1072" t="s">
         <v>1717</v>
@@ -14588,28 +14594,28 @@
         <v>1718</v>
       </c>
       <c r="B1073" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="B1074" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="B1075" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="B1076" t="s">
         <v>1722</v>
@@ -14620,12 +14626,12 @@
         <v>1723</v>
       </c>
       <c r="B1077" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="B1078" t="s">
         <v>1725</v>
@@ -14644,12 +14650,12 @@
         <v>1728</v>
       </c>
       <c r="B1080" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="B1081" t="s">
         <v>1730</v>
@@ -14676,12 +14682,12 @@
         <v>1735</v>
       </c>
       <c r="B1084" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="B1085" t="s">
         <v>1737</v>
@@ -14716,20 +14722,20 @@
         <v>1744</v>
       </c>
       <c r="B1089" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
       <c r="A1090" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B1090" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="B1091" t="s">
         <v>1747</v>
@@ -14772,12 +14778,12 @@
         <v>1756</v>
       </c>
       <c r="B1096" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="B1097" t="s">
         <v>1758</v>
@@ -14788,20 +14794,20 @@
         <v>1759</v>
       </c>
       <c r="B1098" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="B1099" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B1100" t="s">
         <v>1762</v>
@@ -14812,20 +14818,20 @@
         <v>1763</v>
       </c>
       <c r="B1101" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="B1102" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="B1103" t="s">
         <v>1766</v>
@@ -14860,28 +14866,28 @@
         <v>1773</v>
       </c>
       <c r="B1107" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="B1108" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="B1109" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="B1110" t="s">
         <v>1777</v>
@@ -14932,23 +14938,23 @@
         <v>1788</v>
       </c>
       <c r="B1116" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="B1117" t="s">
-        <v>791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="B1118" t="s">
-        <v>1791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
@@ -14956,12 +14962,12 @@
         <v>1792</v>
       </c>
       <c r="B1119" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
       <c r="A1120" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="B1120" t="s">
         <v>1794</v>
@@ -15036,44 +15042,44 @@
         <v>1811</v>
       </c>
       <c r="B1129" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="B1130" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="B1131" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="B1132" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="B1133" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="B1134" t="s">
         <v>1817</v>
@@ -15092,28 +15098,28 @@
         <v>1820</v>
       </c>
       <c r="B1136" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="B1137" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="B1138" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="B1139" t="s">
         <v>1824</v>
@@ -15132,12 +15138,12 @@
         <v>1827</v>
       </c>
       <c r="B1141" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="B1142" t="s">
         <v>1829</v>
@@ -15196,12 +15202,12 @@
         <v>1842</v>
       </c>
       <c r="B1149" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="B1150" t="s">
         <v>1844</v>
@@ -15236,44 +15242,44 @@
         <v>1851</v>
       </c>
       <c r="B1154" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="B1155" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="B1156" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="B1157" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="B1158" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="B1159" t="s">
         <v>1857</v>
@@ -15292,20 +15298,20 @@
         <v>1860</v>
       </c>
       <c r="B1161" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="B1162" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="B1163" t="s">
         <v>1863</v>
@@ -15316,36 +15322,36 @@
         <v>1864</v>
       </c>
       <c r="B1164" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="B1165" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="B1166" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B1167" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="B1168" t="s">
         <v>1869</v>
@@ -15364,12 +15370,12 @@
         <v>1872</v>
       </c>
       <c r="B1170" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="B1171" t="s">
         <v>1874</v>
@@ -15380,19 +15386,27 @@
         <v>1875</v>
       </c>
       <c r="B1172" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="B1173" t="s">
-        <v>1876</v>
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:2">
+      <c r="A1174" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>1878</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1173"/>
+  <autoFilter ref="A1:B1174"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/hu/headTags.xlsx
+++ b/lang/hu/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1174</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1175</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1880">
   <si>
     <t>en</t>
   </si>
@@ -5303,6 +5303,9 @@
   </si>
   <si>
     <t>Twilight Forest</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
   </si>
   <si>
     <t>Ultrakill</t>
@@ -6000,7 +6003,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1174"/>
+  <dimension ref="A1:B1175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -14818,12 +14821,12 @@
         <v>1763</v>
       </c>
       <c r="B1101" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B1102" t="s">
         <v>1765</v>
@@ -14842,36 +14845,36 @@
         <v>1767</v>
       </c>
       <c r="B1104" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B1105" t="s">
         <v>1769</v>
-      </c>
-      <c r="B1105" t="s">
-        <v>1770</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B1106" t="s">
         <v>1771</v>
-      </c>
-      <c r="B1106" t="s">
-        <v>1772</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B1107" t="s">
         <v>1773</v>
-      </c>
-      <c r="B1107" t="s">
-        <v>1774</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="B1108" t="s">
         <v>1775</v>
@@ -14898,52 +14901,52 @@
         <v>1778</v>
       </c>
       <c r="B1111" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B1112" t="s">
         <v>1780</v>
-      </c>
-      <c r="B1112" t="s">
-        <v>1781</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B1113" t="s">
         <v>1782</v>
-      </c>
-      <c r="B1113" t="s">
-        <v>1783</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
       <c r="A1114" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B1114" t="s">
         <v>1784</v>
-      </c>
-      <c r="B1114" t="s">
-        <v>1785</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B1115" t="s">
         <v>1786</v>
-      </c>
-      <c r="B1115" t="s">
-        <v>1787</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B1116" t="s">
         <v>1788</v>
-      </c>
-      <c r="B1116" t="s">
-        <v>1789</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="B1117" t="s">
         <v>1790</v>
@@ -14954,7 +14957,7 @@
         <v>1791</v>
       </c>
       <c r="B1118" t="s">
-        <v>793</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
@@ -14962,12 +14965,12 @@
         <v>1792</v>
       </c>
       <c r="B1119" t="s">
-        <v>1793</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
       <c r="A1120" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="B1120" t="s">
         <v>1794</v>
@@ -14978,76 +14981,76 @@
         <v>1795</v>
       </c>
       <c r="B1121" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
       <c r="A1122" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B1122" t="s">
         <v>1797</v>
-      </c>
-      <c r="B1122" t="s">
-        <v>1798</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
       <c r="A1123" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1123" t="s">
         <v>1799</v>
-      </c>
-      <c r="B1123" t="s">
-        <v>1800</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
       <c r="A1124" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1124" t="s">
         <v>1801</v>
-      </c>
-      <c r="B1124" t="s">
-        <v>1802</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
       <c r="A1125" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B1125" t="s">
         <v>1803</v>
-      </c>
-      <c r="B1125" t="s">
-        <v>1804</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
       <c r="A1126" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B1126" t="s">
         <v>1805</v>
-      </c>
-      <c r="B1126" t="s">
-        <v>1806</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1127" t="s">
         <v>1807</v>
-      </c>
-      <c r="B1127" t="s">
-        <v>1808</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B1128" t="s">
         <v>1809</v>
-      </c>
-      <c r="B1128" t="s">
-        <v>1810</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B1129" t="s">
         <v>1811</v>
-      </c>
-      <c r="B1129" t="s">
-        <v>1812</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B1130" t="s">
         <v>1813</v>
@@ -15090,20 +15093,20 @@
         <v>1818</v>
       </c>
       <c r="B1135" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B1136" t="s">
         <v>1820</v>
-      </c>
-      <c r="B1136" t="s">
-        <v>1821</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="B1137" t="s">
         <v>1822</v>
@@ -15130,20 +15133,20 @@
         <v>1825</v>
       </c>
       <c r="B1140" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B1141" t="s">
         <v>1827</v>
-      </c>
-      <c r="B1141" t="s">
-        <v>1828</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B1142" t="s">
         <v>1829</v>
@@ -15154,60 +15157,60 @@
         <v>1830</v>
       </c>
       <c r="B1143" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B1144" t="s">
         <v>1832</v>
-      </c>
-      <c r="B1144" t="s">
-        <v>1833</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B1145" t="s">
         <v>1834</v>
-      </c>
-      <c r="B1145" t="s">
-        <v>1835</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B1146" t="s">
         <v>1836</v>
-      </c>
-      <c r="B1146" t="s">
-        <v>1837</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B1147" t="s">
         <v>1838</v>
-      </c>
-      <c r="B1147" t="s">
-        <v>1839</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B1148" t="s">
         <v>1840</v>
-      </c>
-      <c r="B1148" t="s">
-        <v>1841</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B1149" t="s">
         <v>1842</v>
-      </c>
-      <c r="B1149" t="s">
-        <v>1843</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B1150" t="s">
         <v>1844</v>
@@ -15218,36 +15221,36 @@
         <v>1845</v>
       </c>
       <c r="B1151" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B1152" t="s">
         <v>1847</v>
-      </c>
-      <c r="B1152" t="s">
-        <v>1848</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B1153" t="s">
         <v>1849</v>
-      </c>
-      <c r="B1153" t="s">
-        <v>1850</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B1154" t="s">
         <v>1851</v>
-      </c>
-      <c r="B1154" t="s">
-        <v>1852</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B1155" t="s">
         <v>1853</v>
@@ -15290,20 +15293,20 @@
         <v>1858</v>
       </c>
       <c r="B1160" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B1161" t="s">
         <v>1860</v>
-      </c>
-      <c r="B1161" t="s">
-        <v>1861</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="B1162" t="s">
         <v>1862</v>
@@ -15322,12 +15325,12 @@
         <v>1864</v>
       </c>
       <c r="B1164" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B1165" t="s">
         <v>1866</v>
@@ -15362,20 +15365,20 @@
         <v>1870</v>
       </c>
       <c r="B1169" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B1170" t="s">
         <v>1872</v>
-      </c>
-      <c r="B1170" t="s">
-        <v>1873</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B1171" t="s">
         <v>1874</v>
@@ -15386,12 +15389,12 @@
         <v>1875</v>
       </c>
       <c r="B1172" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B1173" t="s">
         <v>1877</v>
@@ -15405,8 +15408,16 @@
         <v>1878</v>
       </c>
     </row>
+    <row r="1175" spans="1:2">
+      <c r="A1175" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>1879</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1174"/>
+  <autoFilter ref="A1:B1175"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/hu/headTags.xlsx
+++ b/lang/hu/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1176</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1882">
   <si>
     <t>en</t>
   </si>
@@ -2903,6 +2903,12 @@
   </si>
   <si>
     <t>Hypixel (Minion)</t>
+  </si>
+  <si>
+    <t>Hypixel (Mutations) Tag</t>
+  </si>
+  <si>
+    <t>Hypixel (mutációk) címke</t>
   </si>
   <si>
     <t>Hypixel (NPC)</t>
@@ -6003,7 +6009,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1175"/>
+  <dimension ref="A1:B1176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -10685,12 +10691,12 @@
         <v>962</v>
       </c>
       <c r="B584" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B585" t="s">
         <v>964</v>
@@ -10717,12 +10723,12 @@
         <v>969</v>
       </c>
       <c r="B588" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B589" t="s">
         <v>971</v>
@@ -10749,12 +10755,12 @@
         <v>976</v>
       </c>
       <c r="B592" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B593" t="s">
         <v>978</v>
@@ -10821,20 +10827,20 @@
         <v>993</v>
       </c>
       <c r="B601" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B602" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B603" t="s">
         <v>996</v>
@@ -10845,20 +10851,20 @@
         <v>997</v>
       </c>
       <c r="B604" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B605" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B606" t="s">
         <v>1000</v>
@@ -10893,28 +10899,28 @@
         <v>1007</v>
       </c>
       <c r="B610" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B611" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B612" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B613" t="s">
         <v>1011</v>
@@ -10957,12 +10963,12 @@
         <v>1020</v>
       </c>
       <c r="B618" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B619" t="s">
         <v>1022</v>
@@ -10997,28 +11003,28 @@
         <v>1029</v>
       </c>
       <c r="B623" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B624" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B625" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B626" t="s">
         <v>1033</v>
@@ -11029,20 +11035,20 @@
         <v>1034</v>
       </c>
       <c r="B627" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B628" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B629" t="s">
         <v>1037</v>
@@ -11053,20 +11059,20 @@
         <v>1038</v>
       </c>
       <c r="B630" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B631" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B632" t="s">
         <v>1041</v>
@@ -11077,52 +11083,52 @@
         <v>1042</v>
       </c>
       <c r="B633" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B634" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B635" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B636" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B637" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B638" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B639" t="s">
         <v>1049</v>
@@ -11133,36 +11139,36 @@
         <v>1050</v>
       </c>
       <c r="B640" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B641" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B642" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B643" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B644" t="s">
         <v>1055</v>
@@ -11197,28 +11203,28 @@
         <v>1062</v>
       </c>
       <c r="B648" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B649" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B650" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B651" t="s">
         <v>1066</v>
@@ -11229,12 +11235,12 @@
         <v>1067</v>
       </c>
       <c r="B652" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B653" t="s">
         <v>1069</v>
@@ -11253,20 +11259,20 @@
         <v>1072</v>
       </c>
       <c r="B655" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B656" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B657" t="s">
         <v>1075</v>
@@ -11285,12 +11291,12 @@
         <v>1078</v>
       </c>
       <c r="B659" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B660" t="s">
         <v>1080</v>
@@ -11341,12 +11347,12 @@
         <v>1091</v>
       </c>
       <c r="B666" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B667" t="s">
         <v>1093</v>
@@ -11357,36 +11363,36 @@
         <v>1094</v>
       </c>
       <c r="B668" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B669" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B670" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B671" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B672" t="s">
         <v>1099</v>
@@ -11397,44 +11403,44 @@
         <v>1100</v>
       </c>
       <c r="B673" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B674" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B675" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B676" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B677" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B678" t="s">
         <v>1106</v>
@@ -11461,20 +11467,20 @@
         <v>1111</v>
       </c>
       <c r="B681" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B682" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B683" t="s">
         <v>1114</v>
@@ -11525,20 +11531,20 @@
         <v>1125</v>
       </c>
       <c r="B689" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="B690" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B691" t="s">
         <v>1128</v>
@@ -11557,12 +11563,12 @@
         <v>1131</v>
       </c>
       <c r="B693" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B694" t="s">
         <v>1133</v>
@@ -11605,12 +11611,12 @@
         <v>1142</v>
       </c>
       <c r="B699" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B700" t="s">
         <v>1144</v>
@@ -11621,20 +11627,20 @@
         <v>1145</v>
       </c>
       <c r="B701" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B702" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B703" t="s">
         <v>1148</v>
@@ -11645,28 +11651,28 @@
         <v>1149</v>
       </c>
       <c r="B704" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B705" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B706" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B707" t="s">
         <v>1153</v>
@@ -11677,28 +11683,28 @@
         <v>1154</v>
       </c>
       <c r="B708" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B709" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B710" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B711" t="s">
         <v>1158</v>
@@ -11773,12 +11779,12 @@
         <v>1175</v>
       </c>
       <c r="B720" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="721" spans="1:2">
       <c r="A721" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B721" t="s">
         <v>1177</v>
@@ -11805,12 +11811,12 @@
         <v>1182</v>
       </c>
       <c r="B724" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="725" spans="1:2">
       <c r="A725" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B725" t="s">
         <v>1184</v>
@@ -11829,20 +11835,20 @@
         <v>1187</v>
       </c>
       <c r="B727" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B728" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="729" spans="1:2">
       <c r="A729" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B729" t="s">
         <v>1190</v>
@@ -11853,12 +11859,12 @@
         <v>1191</v>
       </c>
       <c r="B730" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B731" t="s">
         <v>1193</v>
@@ -11869,36 +11875,36 @@
         <v>1194</v>
       </c>
       <c r="B732" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="733" spans="1:2">
       <c r="A733" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B733" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B734" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B735" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B736" t="s">
         <v>1199</v>
@@ -11909,52 +11915,52 @@
         <v>1200</v>
       </c>
       <c r="B737" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B738" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B739" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B740" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B741" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B742" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B743" t="s">
         <v>1207</v>
@@ -11965,36 +11971,36 @@
         <v>1208</v>
       </c>
       <c r="B744" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B745" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="B746" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B747" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B748" t="s">
         <v>1213</v>
@@ -12053,20 +12059,20 @@
         <v>1226</v>
       </c>
       <c r="B755" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B756" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B757" t="s">
         <v>1229</v>
@@ -12085,12 +12091,12 @@
         <v>1232</v>
       </c>
       <c r="B759" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="B760" t="s">
         <v>1234</v>
@@ -12101,20 +12107,20 @@
         <v>1235</v>
       </c>
       <c r="B761" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B762" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B763" t="s">
         <v>1238</v>
@@ -12157,12 +12163,12 @@
         <v>1247</v>
       </c>
       <c r="B768" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B769" t="s">
         <v>1249</v>
@@ -12181,12 +12187,12 @@
         <v>1252</v>
       </c>
       <c r="B771" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B772" t="s">
         <v>1254</v>
@@ -12197,12 +12203,12 @@
         <v>1255</v>
       </c>
       <c r="B773" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="B774" t="s">
         <v>1257</v>
@@ -12269,28 +12275,28 @@
         <v>1272</v>
       </c>
       <c r="B782" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B783" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B784" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B785" t="s">
         <v>1276</v>
@@ -12309,12 +12315,12 @@
         <v>1279</v>
       </c>
       <c r="B787" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B788" t="s">
         <v>1281</v>
@@ -12325,60 +12331,60 @@
         <v>1282</v>
       </c>
       <c r="B789" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="B790" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B791" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="B792" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B793" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="B794" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="B795" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B796" t="s">
         <v>1290</v>
@@ -12389,12 +12395,12 @@
         <v>1291</v>
       </c>
       <c r="B797" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="B798" t="s">
         <v>1293</v>
@@ -12453,28 +12459,28 @@
         <v>1306</v>
       </c>
       <c r="B805" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B806" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B807" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B808" t="s">
         <v>1310</v>
@@ -12541,12 +12547,12 @@
         <v>1325</v>
       </c>
       <c r="B816" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="817" spans="1:2">
       <c r="A817" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B817" t="s">
         <v>1327</v>
@@ -12573,12 +12579,12 @@
         <v>1332</v>
       </c>
       <c r="B820" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B821" t="s">
         <v>1334</v>
@@ -12605,12 +12611,12 @@
         <v>1339</v>
       </c>
       <c r="B824" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B825" t="s">
         <v>1341</v>
@@ -12637,12 +12643,12 @@
         <v>1346</v>
       </c>
       <c r="B828" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B829" t="s">
         <v>1348</v>
@@ -12653,36 +12659,36 @@
         <v>1349</v>
       </c>
       <c r="B830" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B831" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B832" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B833" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B834" t="s">
         <v>1354</v>
@@ -12725,12 +12731,12 @@
         <v>1363</v>
       </c>
       <c r="B839" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="B840" t="s">
         <v>1365</v>
@@ -12741,108 +12747,108 @@
         <v>1366</v>
       </c>
       <c r="B841" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B842" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="B843" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B844" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B845" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="846" spans="1:2">
       <c r="A846" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B846" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="847" spans="1:2">
       <c r="A847" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B847" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="848" spans="1:2">
       <c r="A848" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B848" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="849" spans="1:2">
       <c r="A849" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B849" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="850" spans="1:2">
       <c r="A850" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="B850" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="851" spans="1:2">
       <c r="A851" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B851" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="852" spans="1:2">
       <c r="A852" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B852" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="853" spans="1:2">
       <c r="A853" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B853" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="854" spans="1:2">
       <c r="A854" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="B854" t="s">
         <v>1380</v>
@@ -12877,52 +12883,52 @@
         <v>1387</v>
       </c>
       <c r="B858" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="B859" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="B860" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="B861" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="B862" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="B863" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="B864" t="s">
         <v>1394</v>
@@ -12941,28 +12947,28 @@
         <v>1397</v>
       </c>
       <c r="B866" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="B867" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="868" spans="1:2">
       <c r="A868" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="B868" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="869" spans="1:2">
       <c r="A869" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="B869" t="s">
         <v>1401</v>
@@ -13029,20 +13035,20 @@
         <v>1416</v>
       </c>
       <c r="B877" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="B878" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="879" spans="1:2">
       <c r="A879" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B879" t="s">
         <v>1419</v>
@@ -13061,28 +13067,28 @@
         <v>1422</v>
       </c>
       <c r="B881" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B882" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="B883" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="B884" t="s">
         <v>1426</v>
@@ -13093,12 +13099,12 @@
         <v>1427</v>
       </c>
       <c r="B885" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="B886" t="s">
         <v>1429</v>
@@ -13109,12 +13115,12 @@
         <v>1430</v>
       </c>
       <c r="B887" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="B888" t="s">
         <v>1432</v>
@@ -13125,12 +13131,12 @@
         <v>1433</v>
       </c>
       <c r="B889" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="B890" t="s">
         <v>1435</v>
@@ -13141,20 +13147,20 @@
         <v>1436</v>
       </c>
       <c r="B891" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="B892" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="893" spans="1:2">
       <c r="A893" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="B893" t="s">
         <v>1439</v>
@@ -13173,20 +13179,20 @@
         <v>1442</v>
       </c>
       <c r="B895" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B896" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="897" spans="1:2">
       <c r="A897" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B897" t="s">
         <v>1445</v>
@@ -13237,60 +13243,60 @@
         <v>1456</v>
       </c>
       <c r="B903" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="B904" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B905" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B906" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="B907" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B908" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B909" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="910" spans="1:2">
       <c r="A910" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B910" t="s">
         <v>1464</v>
@@ -13317,28 +13323,28 @@
         <v>1469</v>
       </c>
       <c r="B913" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B914" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="B915" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="916" spans="1:2">
       <c r="A916" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B916" t="s">
         <v>1473</v>
@@ -13357,12 +13363,12 @@
         <v>1476</v>
       </c>
       <c r="B918" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="919" spans="1:2">
       <c r="A919" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B919" t="s">
         <v>1478</v>
@@ -13381,20 +13387,20 @@
         <v>1481</v>
       </c>
       <c r="B921" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B922" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="923" spans="1:2">
       <c r="A923" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="B923" t="s">
         <v>1484</v>
@@ -13429,44 +13435,44 @@
         <v>1491</v>
       </c>
       <c r="B927" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B928" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B929" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B930" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="B931" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="932" spans="1:2">
       <c r="A932" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B932" t="s">
         <v>1497</v>
@@ -13533,28 +13539,28 @@
         <v>1512</v>
       </c>
       <c r="B940" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B941" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="B942" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="B943" t="s">
         <v>1516</v>
@@ -13573,60 +13579,60 @@
         <v>1519</v>
       </c>
       <c r="B945" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B946" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B947" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="B948" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B949" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="B950" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="951" spans="1:2">
       <c r="A951" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B951" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="952" spans="1:2">
       <c r="A952" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="B952" t="s">
         <v>1527</v>
@@ -13653,20 +13659,20 @@
         <v>1532</v>
       </c>
       <c r="B955" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B956" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="957" spans="1:2">
       <c r="A957" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="B957" t="s">
         <v>1535</v>
@@ -13701,12 +13707,12 @@
         <v>1542</v>
       </c>
       <c r="B961" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="B962" t="s">
         <v>1544</v>
@@ -13717,28 +13723,28 @@
         <v>1545</v>
       </c>
       <c r="B963" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="B964" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="B965" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="B966" t="s">
         <v>1549</v>
@@ -13797,12 +13803,12 @@
         <v>1562</v>
       </c>
       <c r="B973" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="974" spans="1:2">
       <c r="A974" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="B974" t="s">
         <v>1564</v>
@@ -13813,12 +13819,12 @@
         <v>1565</v>
       </c>
       <c r="B975" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="B976" t="s">
         <v>1567</v>
@@ -13837,20 +13843,20 @@
         <v>1570</v>
       </c>
       <c r="B978" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="B979" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="B980" t="s">
         <v>1573</v>
@@ -13877,20 +13883,20 @@
         <v>1578</v>
       </c>
       <c r="B983" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="B984" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="B985" t="s">
         <v>1581</v>
@@ -13901,28 +13907,28 @@
         <v>1582</v>
       </c>
       <c r="B986" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B987" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="B988" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="989" spans="1:2">
       <c r="A989" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="B989" t="s">
         <v>1586</v>
@@ -13949,12 +13955,12 @@
         <v>1591</v>
       </c>
       <c r="B992" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="B993" t="s">
         <v>1593</v>
@@ -13973,28 +13979,28 @@
         <v>1596</v>
       </c>
       <c r="B995" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B996" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="B997" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="998" spans="1:2">
       <c r="A998" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="B998" t="s">
         <v>1600</v>
@@ -14005,12 +14011,12 @@
         <v>1601</v>
       </c>
       <c r="B999" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B1000" t="s">
         <v>1603</v>
@@ -14029,36 +14035,36 @@
         <v>1606</v>
       </c>
       <c r="B1002" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B1003" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B1004" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B1005" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B1006" t="s">
         <v>1611</v>
@@ -14069,36 +14075,36 @@
         <v>1612</v>
       </c>
       <c r="B1007" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B1008" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B1009" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B1010" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="B1011" t="s">
         <v>1617</v>
@@ -14117,36 +14123,36 @@
         <v>1620</v>
       </c>
       <c r="B1013" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="B1014" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="B1015" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="B1016" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="B1017" t="s">
         <v>1625</v>
@@ -14165,12 +14171,12 @@
         <v>1628</v>
       </c>
       <c r="B1019" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B1020" t="s">
         <v>1630</v>
@@ -14197,92 +14203,92 @@
         <v>1635</v>
       </c>
       <c r="B1023" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B1024" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="B1025" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="B1026" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="B1027" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="B1028" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="B1029" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="B1030" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="B1031" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="B1032" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="B1033" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="B1034" t="s">
         <v>1647</v>
@@ -14301,12 +14307,12 @@
         <v>1650</v>
       </c>
       <c r="B1036" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="B1037" t="s">
         <v>1652</v>
@@ -14389,12 +14395,12 @@
         <v>1671</v>
       </c>
       <c r="B1047" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="B1048" t="s">
         <v>1673</v>
@@ -14405,12 +14411,12 @@
         <v>1674</v>
       </c>
       <c r="B1049" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
       <c r="A1050" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="B1050" t="s">
         <v>1676</v>
@@ -14485,12 +14491,12 @@
         <v>1693</v>
       </c>
       <c r="B1059" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="B1060" t="s">
         <v>1695</v>
@@ -14581,20 +14587,20 @@
         <v>1716</v>
       </c>
       <c r="B1071" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="B1072" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="B1073" t="s">
         <v>1719</v>
@@ -14605,28 +14611,28 @@
         <v>1720</v>
       </c>
       <c r="B1074" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="B1075" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="B1076" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="B1077" t="s">
         <v>1724</v>
@@ -14637,12 +14643,12 @@
         <v>1725</v>
       </c>
       <c r="B1078" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B1079" t="s">
         <v>1727</v>
@@ -14661,12 +14667,12 @@
         <v>1730</v>
       </c>
       <c r="B1081" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="B1082" t="s">
         <v>1732</v>
@@ -14693,12 +14699,12 @@
         <v>1737</v>
       </c>
       <c r="B1085" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="B1086" t="s">
         <v>1739</v>
@@ -14733,20 +14739,20 @@
         <v>1746</v>
       </c>
       <c r="B1090" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B1091" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="B1092" t="s">
         <v>1749</v>
@@ -14789,12 +14795,12 @@
         <v>1758</v>
       </c>
       <c r="B1097" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B1098" t="s">
         <v>1760</v>
@@ -14805,28 +14811,28 @@
         <v>1761</v>
       </c>
       <c r="B1099" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="B1100" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="B1101" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="B1102" t="s">
         <v>1765</v>
@@ -14837,20 +14843,20 @@
         <v>1766</v>
       </c>
       <c r="B1103" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="B1104" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="B1105" t="s">
         <v>1769</v>
@@ -14885,28 +14891,28 @@
         <v>1776</v>
       </c>
       <c r="B1109" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="B1110" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
       <c r="A1111" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="B1111" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="B1112" t="s">
         <v>1780</v>
@@ -14957,23 +14963,23 @@
         <v>1791</v>
       </c>
       <c r="B1118" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
       <c r="A1119" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="B1119" t="s">
-        <v>793</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
       <c r="A1120" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="B1120" t="s">
-        <v>1794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
@@ -14981,12 +14987,12 @@
         <v>1795</v>
       </c>
       <c r="B1121" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
       <c r="A1122" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="B1122" t="s">
         <v>1797</v>
@@ -15061,44 +15067,44 @@
         <v>1814</v>
       </c>
       <c r="B1131" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="B1132" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="B1133" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="B1134" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B1135" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="B1136" t="s">
         <v>1820</v>
@@ -15117,28 +15123,28 @@
         <v>1823</v>
       </c>
       <c r="B1138" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="B1139" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="B1140" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B1141" t="s">
         <v>1827</v>
@@ -15157,12 +15163,12 @@
         <v>1830</v>
       </c>
       <c r="B1143" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="B1144" t="s">
         <v>1832</v>
@@ -15221,12 +15227,12 @@
         <v>1845</v>
       </c>
       <c r="B1151" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="B1152" t="s">
         <v>1847</v>
@@ -15261,44 +15267,44 @@
         <v>1854</v>
       </c>
       <c r="B1156" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="B1157" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="B1158" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="B1159" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="B1160" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="B1161" t="s">
         <v>1860</v>
@@ -15317,20 +15323,20 @@
         <v>1863</v>
       </c>
       <c r="B1163" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="B1164" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="B1165" t="s">
         <v>1866</v>
@@ -15341,36 +15347,36 @@
         <v>1867</v>
       </c>
       <c r="B1166" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="B1167" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="B1168" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="B1169" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="B1170" t="s">
         <v>1872</v>
@@ -15389,12 +15395,12 @@
         <v>1875</v>
       </c>
       <c r="B1172" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="B1173" t="s">
         <v>1877</v>
@@ -15405,19 +15411,27 @@
         <v>1878</v>
       </c>
       <c r="B1174" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
       <c r="A1175" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="B1175" t="s">
-        <v>1879</v>
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:2">
+      <c r="A1176" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>1881</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1175"/>
+  <autoFilter ref="A1:B1176"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/hu/headTags.xlsx
+++ b/lang/hu/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1177</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1884">
   <si>
     <t>en</t>
   </si>
@@ -2905,2761 +2905,2767 @@
     <t>Hypixel (Minion)</t>
   </si>
   <si>
+    <t>Hypixel (Mutations)</t>
+  </si>
+  <si>
+    <t>Hypixel (mutációk)</t>
+  </si>
+  <si>
+    <t>Hypixel (NPC)</t>
+  </si>
+  <si>
+    <t>Hypixel (Pets)</t>
+  </si>
+  <si>
+    <t>Hypixel (Háziállatok)</t>
+  </si>
+  <si>
+    <t>Hypixel (Reforge Stone)</t>
+  </si>
+  <si>
+    <t>Hypixel (Kovácsoló kő)</t>
+  </si>
+  <si>
+    <t>Hypixel (Sacks)</t>
+  </si>
+  <si>
+    <t>Hypixel (zsákok)</t>
+  </si>
+  <si>
+    <t>Hypixel (Skins)</t>
+  </si>
+  <si>
+    <t>Hypixel (Talismans)</t>
+  </si>
+  <si>
+    <t>Hypixel (talizmánok)</t>
+  </si>
+  <si>
+    <t>Hypixel (Trophy Fish)</t>
+  </si>
+  <si>
+    <t>Hypixel (Trófea hal)</t>
+  </si>
+  <si>
+    <t>Hōseki no Kuni (Land of the Lustrous)</t>
+  </si>
+  <si>
+    <t>Hōseki no Kuni (A buja föld)</t>
+  </si>
+  <si>
+    <t>Ib</t>
+  </si>
+  <si>
+    <t>Ice Age</t>
+  </si>
+  <si>
+    <t>Jégkorszak</t>
+  </si>
+  <si>
+    <t>Ice Climber</t>
+  </si>
+  <si>
+    <t>Jégmászó</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
+  </si>
+  <si>
+    <t>Jégkrém</t>
+  </si>
+  <si>
+    <t>Icons (GUI)</t>
+  </si>
+  <si>
+    <t>Ikonok (GUI)</t>
+  </si>
+  <si>
+    <t>Icons (Ironblock)</t>
+  </si>
+  <si>
+    <t>Ikonok (Ironblock)</t>
+  </si>
+  <si>
+    <t>Icons (Other)</t>
+  </si>
+  <si>
+    <t>Ikonok (Egyéb)</t>
+  </si>
+  <si>
+    <t>Icons (white background)</t>
+  </si>
+  <si>
+    <t>Ikonok (fehér háttér)</t>
+  </si>
+  <si>
+    <t>Identity V</t>
+  </si>
+  <si>
+    <t>Identitás V</t>
+  </si>
+  <si>
+    <t>Illager</t>
+  </si>
+  <si>
+    <t>Inazuma Eleven</t>
+  </si>
+  <si>
+    <t>Incredibles</t>
+  </si>
+  <si>
+    <t>Hihetetlenek</t>
+  </si>
+  <si>
+    <t>Indiana Jones</t>
+  </si>
+  <si>
+    <t>Indigo Park</t>
+  </si>
+  <si>
+    <t>Injuries</t>
+  </si>
+  <si>
+    <t>Sérülések</t>
+  </si>
+  <si>
+    <t>Inner Layer Block</t>
+  </si>
+  <si>
+    <t>Belső réteg blokk</t>
+  </si>
+  <si>
+    <t>Inscryption</t>
+  </si>
+  <si>
+    <t>Titkosítás</t>
+  </si>
+  <si>
+    <t>Insect</t>
+  </si>
+  <si>
+    <t>Rovarok</t>
+  </si>
+  <si>
+    <t>Inside Out</t>
+  </si>
+  <si>
+    <t>Inu Yasha</t>
+  </si>
+  <si>
+    <t>Invader Zim</t>
+  </si>
+  <si>
+    <t>Invincible</t>
+  </si>
+  <si>
+    <t>Legyőzhetetlen</t>
+  </si>
+  <si>
+    <t>Iron Man</t>
+  </si>
+  <si>
+    <t>Vasember</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>Ez</t>
+  </si>
+  <si>
+    <t>Jak and Daxter</t>
+  </si>
+  <si>
+    <t>Jak és Daxter</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Japán</t>
+  </si>
+  <si>
+    <t>Jar</t>
+  </si>
+  <si>
+    <t>Jewelry</t>
+  </si>
+  <si>
+    <t>Ékszerek</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure</t>
+  </si>
+  <si>
+    <t>JoJo bizarr kalandja</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure (Stand)</t>
+  </si>
+  <si>
+    <t>JoJo bizarr kalandja (Stand)</t>
+  </si>
+  <si>
+    <t>Journey</t>
+  </si>
+  <si>
+    <t>Utazás</t>
+  </si>
+  <si>
+    <t>Jujutsu Kaisen</t>
+  </si>
+  <si>
+    <t>Jump King</t>
+  </si>
+  <si>
+    <t>Jurassic Park</t>
+  </si>
+  <si>
+    <t>Justice League</t>
+  </si>
+  <si>
+    <t>Igazság Ligája</t>
+  </si>
+  <si>
+    <t>Kaiju Paradise</t>
+  </si>
+  <si>
+    <t>Kakegurui</t>
+  </si>
+  <si>
+    <t>Karate Kid</t>
+  </si>
+  <si>
+    <t>Karate kölyök</t>
+  </si>
+  <si>
+    <t>Katamari Damacy</t>
+  </si>
+  <si>
+    <t>Kid Icarus</t>
+  </si>
+  <si>
+    <t>Kiki's Delivery Service</t>
+  </si>
+  <si>
+    <t>Kiki futárszolgálat</t>
+  </si>
+  <si>
+    <t>Kill la Kill</t>
+  </si>
+  <si>
+    <t>Killzone</t>
+  </si>
+  <si>
+    <t>Kim Possible</t>
+  </si>
+  <si>
+    <t>Kimetsu no Yaiba</t>
+  </si>
+  <si>
+    <t>Kingdom Hearts</t>
+  </si>
+  <si>
+    <t>Kirby</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>Konyha</t>
+  </si>
+  <si>
+    <t>KonoSuba</t>
+  </si>
+  <si>
+    <t>Koopalings</t>
+  </si>
+  <si>
+    <t>Kung Fu Panda</t>
+  </si>
+  <si>
+    <t>Kuroko no Basuke</t>
+  </si>
+  <si>
+    <t>Lamp Shade</t>
+  </si>
+  <si>
+    <t>Lámpaernyő</t>
+  </si>
+  <si>
+    <t>Landscape</t>
+  </si>
+  <si>
+    <t>Tájkép</t>
+  </si>
+  <si>
+    <t>Lantern</t>
+  </si>
+  <si>
+    <t>Lámpás</t>
+  </si>
+  <si>
+    <t>Laputa: Castle in the Sky</t>
+  </si>
+  <si>
+    <t>Laputa: Égi kastély</t>
+  </si>
+  <si>
+    <t>LazyTown</t>
+  </si>
+  <si>
+    <t>League of Legends</t>
+  </si>
+  <si>
+    <t>Left 4 Dead</t>
+  </si>
+  <si>
+    <t>Legendary Pokemon</t>
+  </si>
+  <si>
+    <t>Legendás Pokemon</t>
+  </si>
+  <si>
+    <t>Lego</t>
+  </si>
+  <si>
+    <t>Lethal League</t>
+  </si>
+  <si>
+    <t>Halálos Liga</t>
+  </si>
+  <si>
+    <t>Library of Ruina</t>
+  </si>
+  <si>
+    <t>Ruina könyvtára</t>
+  </si>
+  <si>
+    <t>Life is Strange</t>
+  </si>
+  <si>
+    <t>Lilo &amp; Stitch</t>
+  </si>
+  <si>
+    <t>Limbus Company</t>
+  </si>
+  <si>
+    <t>Limbus vállalat</t>
+  </si>
+  <si>
+    <t>Lion King</t>
+  </si>
+  <si>
+    <t>Oroszlánkirály</t>
+  </si>
+  <si>
+    <t>Little Big Planet</t>
+  </si>
+  <si>
+    <t>Little Mermaid</t>
+  </si>
+  <si>
+    <t>Kis hableány</t>
+  </si>
+  <si>
+    <t>Little Nightmares</t>
+  </si>
+  <si>
+    <t>Kis rémálmok</t>
+  </si>
+  <si>
+    <t>Little Shop of Horrors</t>
+  </si>
+  <si>
+    <t>A borzalmak kis boltja</t>
+  </si>
+  <si>
+    <t>Little Witch Academia</t>
+  </si>
+  <si>
+    <t>Kis boszorkány Akadémia</t>
+  </si>
+  <si>
+    <t>Llama</t>
+  </si>
+  <si>
+    <t>Láma</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Logó</t>
+  </si>
+  <si>
+    <t>Looney Tunes</t>
+  </si>
+  <si>
+    <t>Lord of the Rings</t>
+  </si>
+  <si>
+    <t>A Gyűrűk Ura</t>
+  </si>
+  <si>
+    <t>Love Live!</t>
+  </si>
+  <si>
+    <t>Lovestruck Creature</t>
+  </si>
+  <si>
+    <t>Lovestruck Person</t>
+  </si>
+  <si>
+    <t>Lucky Luke</t>
+  </si>
+  <si>
+    <t>Machine Part</t>
+  </si>
+  <si>
+    <t>Gépalkatrész</t>
+  </si>
+  <si>
+    <t>Mad Father</t>
+  </si>
+  <si>
+    <t>Mad Max</t>
+  </si>
+  <si>
+    <t>Made in Abyss</t>
+  </si>
+  <si>
+    <t>Madness Combat</t>
+  </si>
+  <si>
+    <t>Madoka Magica</t>
+  </si>
+  <si>
+    <t>Makeup</t>
+  </si>
+  <si>
+    <t>Smink</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Férfi</t>
+  </si>
+  <si>
+    <t>Mao Mao Heroes of Pure Heart</t>
+  </si>
+  <si>
+    <t>Mao Mao A tiszta szív hősei</t>
+  </si>
+  <si>
+    <t>MapleStory</t>
+  </si>
+  <si>
+    <t>Marvel</t>
+  </si>
+  <si>
+    <t>Mary and the Witch's Flower</t>
+  </si>
+  <si>
+    <t>Mária és a boszorkány virága</t>
+  </si>
+  <si>
+    <t>Mascot</t>
+  </si>
+  <si>
+    <t>Kabala</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>Maszk</t>
+  </si>
+  <si>
+    <t>Mask (full)</t>
+  </si>
+  <si>
+    <t>Maszk (teljes)</t>
+  </si>
+  <si>
+    <t>Mask (functional)</t>
+  </si>
+  <si>
+    <t>Maszk (funkcionális)</t>
+  </si>
+  <si>
+    <t>Mask (health)</t>
+  </si>
+  <si>
+    <t>Maszk (egészség)</t>
+  </si>
+  <si>
+    <t>Mask (Minecraft mob)</t>
+  </si>
+  <si>
+    <t>Mass Effect</t>
+  </si>
+  <si>
+    <t>Masters of the Universe</t>
+  </si>
+  <si>
+    <t>Az univerzum mesterei</t>
+  </si>
+  <si>
+    <t>Mathematical Symbol</t>
+  </si>
+  <si>
+    <t>Matematikai szimbólum</t>
+  </si>
+  <si>
+    <t>Mc Donalds</t>
+  </si>
+  <si>
+    <t>Meal</t>
+  </si>
+  <si>
+    <t>Étkezés</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Hús</t>
+  </si>
+  <si>
+    <t>Medieval</t>
+  </si>
+  <si>
+    <t>Középkori</t>
+  </si>
+  <si>
+    <t>Medieval Tavern</t>
+  </si>
+  <si>
+    <t>Középkori kocsma</t>
+  </si>
+  <si>
+    <t>Medieval Warfare Helmet</t>
+  </si>
+  <si>
+    <t>Középkori harci sisak</t>
+  </si>
+  <si>
+    <t>MediEvil</t>
+  </si>
+  <si>
+    <t>Mega Evolution</t>
+  </si>
+  <si>
+    <t>Mega evolúció</t>
+  </si>
+  <si>
+    <t>Megaman</t>
+  </si>
+  <si>
+    <t>Megami Tensei</t>
+  </si>
+  <si>
+    <t>Mekakucity Actors</t>
+  </si>
+  <si>
+    <t>Mekakucity Színészek</t>
+  </si>
+  <si>
+    <t>Meme</t>
+  </si>
+  <si>
+    <t>Meme (Doge)</t>
+  </si>
+  <si>
+    <t>Meme (Pepe)</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Fém</t>
+  </si>
+  <si>
+    <t>Metal Gear</t>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
+    <t>Metroid</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Mexikó</t>
+  </si>
+  <si>
+    <t>Mickey Mouse</t>
+  </si>
+  <si>
+    <t>Mickey egér</t>
+  </si>
+  <si>
+    <t>Military Equipment</t>
+  </si>
+  <si>
+    <t>Katonai felszerelés</t>
+  </si>
+  <si>
+    <t>Minecraft April Fools</t>
+  </si>
+  <si>
+    <t>Minecraft áprilisi bolondok</t>
+  </si>
+  <si>
+    <t>Minecraft Bedrock Edition</t>
+  </si>
+  <si>
+    <t>Minecraft Bedrock kiadás</t>
+  </si>
+  <si>
+    <t>Minecraft Dungeons</t>
+  </si>
+  <si>
+    <t>Minecraft börtönök</t>
+  </si>
+  <si>
+    <t>Minecraft Earth</t>
+  </si>
+  <si>
+    <t>Minecraft Föld</t>
+  </si>
+  <si>
+    <t>Minecraft Education Edition</t>
+  </si>
+  <si>
+    <t>Minecraft oktatási kiadás</t>
+  </si>
+  <si>
+    <t>Minecraft Legends</t>
+  </si>
+  <si>
+    <t>Minecraft legendák</t>
+  </si>
+  <si>
+    <t>Minecraft Live</t>
+  </si>
+  <si>
+    <t>Minecraft Movie</t>
+  </si>
+  <si>
+    <t>Minecraft film</t>
+  </si>
+  <si>
+    <t>Minecraft Story Mode</t>
+  </si>
+  <si>
+    <t>Minecraft történet mód</t>
+  </si>
+  <si>
+    <t>Miner</t>
+  </si>
+  <si>
+    <t>Bányász</t>
+  </si>
+  <si>
+    <t>Minesweeper</t>
+  </si>
+  <si>
+    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
+  </si>
+  <si>
+    <t>Csodálatos: A Katicabogár és a Macska Noir történetei</t>
+  </si>
+  <si>
+    <t>Mirai Nikki (Future Diary)</t>
+  </si>
+  <si>
+    <t>Mirai Nikki (Jövőbeli napló)</t>
+  </si>
+  <si>
+    <t>Mirror's Edge</t>
+  </si>
+  <si>
+    <t>Miss Kobayashi's Dragon Maid</t>
+  </si>
+  <si>
+    <t>Mizuno's Resource Pack</t>
+  </si>
+  <si>
+    <t>Mizuno erőforrás csomagja</t>
+  </si>
+  <si>
+    <t>Moana</t>
+  </si>
+  <si>
+    <t>Modern Warfare Helmet</t>
+  </si>
+  <si>
+    <t>Modern Warfare sisak</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Money Heist</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Monkey Island</t>
+  </si>
+  <si>
+    <t>Monocle</t>
+  </si>
+  <si>
+    <t>Monokli</t>
+  </si>
+  <si>
+    <t>Monster High</t>
+  </si>
+  <si>
+    <t>Monster Hunter</t>
+  </si>
+  <si>
+    <t>Monsters Inc</t>
+  </si>
+  <si>
+    <t>Moomin</t>
+  </si>
+  <si>
+    <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
+  </si>
+  <si>
+    <t>Mouthwashing</t>
+  </si>
+  <si>
+    <t>Szájvíz</t>
+  </si>
+  <si>
+    <t>Mr. Bean</t>
+  </si>
+  <si>
+    <t>Mulan</t>
+  </si>
+  <si>
+    <t>Mundo Gaturro</t>
+  </si>
+  <si>
+    <t>Muppets</t>
+  </si>
+  <si>
+    <t>Murder Drones</t>
+  </si>
+  <si>
+    <t>Gyilkos drónok</t>
+  </si>
+  <si>
+    <t>Mushroom</t>
+  </si>
+  <si>
+    <t>Gomba</t>
+  </si>
+  <si>
+    <t>Mushroom (Biome)</t>
+  </si>
+  <si>
+    <t>Gomba (Biom)</t>
+  </si>
+  <si>
+    <t>Mushroom (Headwear)</t>
+  </si>
+  <si>
+    <t>Gomba (fejfedő)</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Zene</t>
+  </si>
+  <si>
+    <t>Mustache</t>
+  </si>
+  <si>
+    <t>Bajusz</t>
+  </si>
+  <si>
+    <t>My Deer Friend Nokotan</t>
+  </si>
+  <si>
+    <t>Szarvas barátom Nokotan</t>
+  </si>
+  <si>
+    <t>My Hero Academia</t>
+  </si>
+  <si>
+    <t>My Little Pony</t>
+  </si>
+  <si>
+    <t>My Neighbor Totoro</t>
+  </si>
+  <si>
+    <t>Totoro, a szomszédom</t>
+  </si>
+  <si>
+    <t>My Singing Monsters</t>
+  </si>
+  <si>
+    <t>Éneklő szörnyeim</t>
+  </si>
+  <si>
+    <t>Naruto</t>
+  </si>
+  <si>
+    <t>Nausicaä of the Valley of the Wind</t>
+  </si>
+  <si>
+    <t>Nausicaä of the Valley of the Wind (A szél völgye Nausicaä)</t>
+  </si>
+  <si>
+    <t>Nekopara</t>
+  </si>
+  <si>
+    <t>Neon Genesis Evangelion</t>
+  </si>
+  <si>
+    <t>Nether (inspired)</t>
+  </si>
+  <si>
+    <t>Nether (ihletett)</t>
+  </si>
+  <si>
+    <t>Nether (vanilla)</t>
+  </si>
+  <si>
+    <t>Nether (vanília)</t>
+  </si>
+  <si>
+    <t>Neutral Creature</t>
+  </si>
+  <si>
+    <t>Semleges lény</t>
+  </si>
+  <si>
+    <t>Neutral Person</t>
+  </si>
+  <si>
+    <t>Semleges személy</t>
+  </si>
+  <si>
+    <t>New Year's Eve</t>
+  </si>
+  <si>
+    <t>Szilveszter</t>
+  </si>
+  <si>
+    <t>NieR: Automata</t>
+  </si>
+  <si>
+    <t>Night in the Woods</t>
+  </si>
+  <si>
+    <t>Éjszaka az erdőben</t>
+  </si>
+  <si>
+    <t>Nightmare Before Christmas</t>
+  </si>
+  <si>
+    <t>Karácsony előtti rémálom</t>
+  </si>
+  <si>
+    <t>Ninja Turtles</t>
+  </si>
+  <si>
+    <t>No Game No Life</t>
+  </si>
+  <si>
+    <t>Nincs játék nincs élet</t>
+  </si>
+  <si>
+    <t>No Man's Sky</t>
+  </si>
+  <si>
+    <t>Noel's House Party</t>
+  </si>
+  <si>
+    <t>Noel házibulija</t>
+  </si>
+  <si>
+    <t>Norse Mythology</t>
+  </si>
+  <si>
+    <t>Norvég mitológia</t>
+  </si>
+  <si>
+    <t>NPC (Education Edition)</t>
+  </si>
+  <si>
+    <t>NPC (oktatási kiadás)</t>
+  </si>
+  <si>
+    <t>Nuclear Fallout</t>
+  </si>
+  <si>
+    <t>Nukleáris csapadék</t>
+  </si>
+  <si>
+    <t>Nuclear Throne</t>
+  </si>
+  <si>
+    <t>Nukleáris trón</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Szám</t>
+  </si>
+  <si>
+    <t>Nut</t>
+  </si>
+  <si>
+    <t>Dió</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Óceán</t>
+  </si>
+  <si>
+    <t>Octodad</t>
+  </si>
+  <si>
+    <t>Oddworld</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>Officer Cap</t>
+  </si>
+  <si>
+    <t>Tiszti sapka</t>
+  </si>
+  <si>
+    <t>Oggy and the Cockroaches</t>
+  </si>
+  <si>
+    <t>Oggy és a csótányok</t>
+  </si>
+  <si>
+    <t>Okegom</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>Régi</t>
+  </si>
+  <si>
+    <t>Oliver &amp; Co</t>
+  </si>
+  <si>
+    <t>Omori</t>
+  </si>
+  <si>
+    <t>One Piece</t>
+  </si>
+  <si>
+    <t>One Punch Man</t>
+  </si>
+  <si>
+    <t>OneShot</t>
+  </si>
+  <si>
+    <t>Ongezellig</t>
+  </si>
+  <si>
+    <t>Onii-chan wa Oshimai</t>
+  </si>
+  <si>
+    <t>Open Source Objects</t>
+  </si>
+  <si>
+    <t>Nyílt forráskódú objektumok</t>
+  </si>
+  <si>
+    <t>Orb</t>
+  </si>
+  <si>
+    <t>Orc</t>
+  </si>
+  <si>
+    <t>Ork</t>
+  </si>
+  <si>
+    <t>Ore</t>
+  </si>
+  <si>
+    <t>Érc</t>
+  </si>
+  <si>
+    <t>Organs and Bodyparts</t>
+  </si>
+  <si>
+    <t>Szervek és testrészek</t>
+  </si>
+  <si>
+    <t>Other Headgear</t>
+  </si>
+  <si>
+    <t>Egyéb fejfedők</t>
+  </si>
+  <si>
+    <t>Other Illumination</t>
+  </si>
+  <si>
+    <t>Egyéb megvilágítás</t>
+  </si>
+  <si>
+    <t>Other Mystic Creature</t>
+  </si>
+  <si>
+    <t>Más misztikus lény</t>
+  </si>
+  <si>
+    <t>Outer Layer Block</t>
+  </si>
+  <si>
+    <t>Külső réteg blokk</t>
+  </si>
+  <si>
+    <t>Overlord</t>
+  </si>
+  <si>
+    <t>Overwatch</t>
+  </si>
+  <si>
+    <t>Pac-Man</t>
+  </si>
+  <si>
+    <t>Pacific Rim</t>
+  </si>
+  <si>
+    <t>Csendes-óceáni peremvidék</t>
+  </si>
+  <si>
+    <t>Pacifier</t>
+  </si>
+  <si>
+    <t>Cumi</t>
+  </si>
+  <si>
+    <t>Painted Face</t>
+  </si>
+  <si>
+    <t>Festett arc</t>
+  </si>
+  <si>
+    <t>Pale Garden (inspired)</t>
+  </si>
+  <si>
+    <t>Pale Garden (ihletett)</t>
+  </si>
+  <si>
+    <t>Panda Bear</t>
+  </si>
+  <si>
+    <t>Panda medve</t>
+  </si>
+  <si>
+    <t>Pans Labyrinth</t>
+  </si>
+  <si>
+    <t>Pans Labirintus</t>
+  </si>
+  <si>
+    <t>Papers Please</t>
+  </si>
+  <si>
+    <t>Papírokat kérek</t>
+  </si>
+  <si>
+    <t>PaRappa the Rapper</t>
+  </si>
+  <si>
+    <t>PaRappa a rapper</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>Pastries and Sweets</t>
+  </si>
+  <si>
+    <t>Sütemények és édességek</t>
+  </si>
+  <si>
+    <t>Paw Patrol</t>
+  </si>
+  <si>
+    <t>Mancs őrjárat</t>
+  </si>
+  <si>
+    <t>Payday</t>
+  </si>
+  <si>
+    <t>Fizetési nap</t>
+  </si>
+  <si>
+    <t>Peanuts (Snoopy)</t>
+  </si>
+  <si>
+    <t>Penguin</t>
+  </si>
+  <si>
+    <t>Pingvin</t>
+  </si>
+  <si>
+    <t>Peppa Pig</t>
+  </si>
+  <si>
+    <t>Peppa Malac</t>
+  </si>
+  <si>
+    <t>Periodic Table of Elements</t>
+  </si>
+  <si>
+    <t>Az elemek periódusos rendszere</t>
+  </si>
+  <si>
+    <t>Persona</t>
+  </si>
+  <si>
+    <t>Pet Equipment</t>
+  </si>
+  <si>
+    <t>Kisállat felszerelés</t>
+  </si>
+  <si>
+    <t>Peter Pan</t>
+  </si>
+  <si>
+    <t>Pán Péter</t>
+  </si>
+  <si>
+    <t>Phantom</t>
+  </si>
+  <si>
+    <t>Fantom</t>
+  </si>
+  <si>
+    <t>Phineas &amp; Ferb</t>
+  </si>
+  <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>Disznó</t>
+  </si>
+  <si>
+    <t>Piglin</t>
+  </si>
+  <si>
+    <t>Pigman</t>
+  </si>
+  <si>
+    <t>Pikmin</t>
+  </si>
+  <si>
+    <t>Pingu</t>
+  </si>
+  <si>
+    <t>Pink Panther</t>
+  </si>
+  <si>
+    <t>Rózsaszín párduc</t>
+  </si>
+  <si>
+    <t>Pinky and the Brain</t>
+  </si>
+  <si>
+    <t>Pinky és az agy</t>
+  </si>
+  <si>
+    <t>Pinocchio</t>
+  </si>
+  <si>
+    <t>Pinokkió</t>
+  </si>
+  <si>
+    <t>Pirates of the Caribbean</t>
+  </si>
+  <si>
+    <t>A Karib-tenger kalózai</t>
+  </si>
+  <si>
+    <t>Pizza Tower</t>
+  </si>
+  <si>
+    <t>Pizza torony</t>
+  </si>
+  <si>
+    <t>Planet</t>
+  </si>
+  <si>
+    <t>Plants vs. Zombies</t>
+  </si>
+  <si>
+    <t>Növények vs. Zombik</t>
+  </si>
+  <si>
+    <t>Playerunknown's Battlegrounds</t>
+  </si>
+  <si>
+    <t>Pocahontas</t>
+  </si>
+  <si>
+    <t>Pokeball</t>
+  </si>
+  <si>
+    <t>Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 1</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 2</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 3</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 4</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 5</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 6</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 7</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 8</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 9</t>
+  </si>
+  <si>
+    <t>Pokemon Items</t>
+  </si>
+  <si>
+    <t>Pokemon elemek</t>
+  </si>
+  <si>
+    <t>Pokemon Trainer</t>
+  </si>
+  <si>
+    <t>Pokemon edző</t>
+  </si>
+  <si>
+    <t>Polar Bear</t>
+  </si>
+  <si>
+    <t>Jegesmedve</t>
+  </si>
+  <si>
+    <t>Police</t>
+  </si>
+  <si>
+    <t>Rendőrség</t>
+  </si>
+  <si>
+    <t>Pom Poko</t>
+  </si>
+  <si>
+    <t>Ponyo</t>
+  </si>
+  <si>
+    <t>Pop Team Epic</t>
+  </si>
+  <si>
+    <t>POPGOES</t>
+  </si>
+  <si>
+    <t>Poppy Playtime</t>
+  </si>
+  <si>
+    <t>Porco Rosso</t>
+  </si>
+  <si>
+    <t>Portal</t>
+  </si>
+  <si>
+    <t>Portál</t>
+  </si>
+  <si>
+    <t>Postman Pat</t>
+  </si>
+  <si>
+    <t>Postás Pat</t>
+  </si>
+  <si>
+    <t>Power Rangers</t>
+  </si>
+  <si>
+    <t>Powerpuff Girls</t>
+  </si>
+  <si>
+    <t>Predator</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Jelen van</t>
+  </si>
+  <si>
+    <t>Pride</t>
+  </si>
+  <si>
+    <t>Büszkeség</t>
+  </si>
+  <si>
+    <t>Primate</t>
+  </si>
+  <si>
+    <t>Prímás</t>
+  </si>
+  <si>
+    <t>Princess Mononoke</t>
+  </si>
+  <si>
+    <t>Mononoke hercegnő</t>
+  </si>
+  <si>
+    <t>Prof Layton</t>
+  </si>
+  <si>
+    <t>Layton professzor</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+  </si>
+  <si>
+    <t>Tök</t>
+  </si>
+  <si>
+    <t>Pumpkin (Lit)</t>
+  </si>
+  <si>
+    <t>Tök (Lit)</t>
+  </si>
+  <si>
+    <t>Punctuation Mark</t>
+  </si>
+  <si>
+    <t>Interpunkciós jel</t>
+  </si>
+  <si>
+    <t>Quake</t>
+  </si>
+  <si>
+    <t>R.E.P.O.</t>
+  </si>
+  <si>
+    <t>Rabbit</t>
+  </si>
+  <si>
+    <t>Nyúl</t>
+  </si>
+  <si>
+    <t>Railway</t>
+  </si>
+  <si>
+    <t>Vasút</t>
+  </si>
+  <si>
+    <t>Rain World</t>
+  </si>
+  <si>
+    <t>Ratatouille</t>
+  </si>
+  <si>
+    <t>Ratchet &amp; Clank</t>
+  </si>
+  <si>
+    <t>Re:Creators</t>
+  </si>
+  <si>
+    <t>Re:Alkotók</t>
+  </si>
+  <si>
+    <t>Re:Zero</t>
+  </si>
+  <si>
+    <t>Realm of the Mad God</t>
+  </si>
+  <si>
+    <t>Az őrült isten birodalma</t>
+  </si>
+  <si>
+    <t>Red Dead Redemption</t>
+  </si>
+  <si>
+    <t>Red Riding Hood</t>
+  </si>
+  <si>
+    <t>Piroska</t>
+  </si>
+  <si>
+    <t>Redstone</t>
+  </si>
+  <si>
+    <t>Regional Form Pokemon</t>
+  </si>
+  <si>
+    <t>Regionális forma Pokemon</t>
+  </si>
+  <si>
+    <t>Regretavator</t>
+  </si>
+  <si>
+    <t>Regular Show</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Vallás</t>
+  </si>
+  <si>
+    <t>Reptile</t>
+  </si>
+  <si>
+    <t>Hüllő</t>
+  </si>
+  <si>
+    <t>Rescue Rangers</t>
+  </si>
+  <si>
+    <t>Resident Evil</t>
+  </si>
+  <si>
+    <t>Rhythm Heaven</t>
+  </si>
+  <si>
+    <t>Ritmus mennyország</t>
+  </si>
+  <si>
+    <t>Ribbon</t>
+  </si>
+  <si>
+    <t>Szalag</t>
+  </si>
+  <si>
+    <t>Rick and Morty</t>
+  </si>
+  <si>
+    <t>Rick és Morty</t>
+  </si>
+  <si>
+    <t>Risk of Rain</t>
+  </si>
+  <si>
+    <t>Eső veszélye</t>
+  </si>
+  <si>
+    <t>Rival of Aether</t>
+  </si>
+  <si>
+    <t>Aether riválisa</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>Folyó</t>
+  </si>
+  <si>
+    <t>Riverdale</t>
+  </si>
+  <si>
+    <t>Robin Hood</t>
+  </si>
+  <si>
+    <t>Roblox</t>
+  </si>
+  <si>
+    <t>RoboCop</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Rocky</t>
+  </si>
+  <si>
+    <t>Rocky Horror Picture Show</t>
+  </si>
+  <si>
+    <t>Rodent</t>
+  </si>
+  <si>
+    <t>Rágcsáló</t>
+  </si>
+  <si>
+    <t>Rotated Entity</t>
+  </si>
+  <si>
+    <t>Forgatott entitás</t>
+  </si>
+  <si>
+    <t>Royal Headgear</t>
+  </si>
+  <si>
+    <t>Királyi fejfedő</t>
+  </si>
+  <si>
+    <t>Rune</t>
+  </si>
+  <si>
+    <t>Runescape</t>
+  </si>
+  <si>
+    <t>RWBY</t>
+  </si>
+  <si>
+    <t>Sackboy: A Big Adventure</t>
+  </si>
+  <si>
+    <t>Sackboy: Sackackack: Egy nagy kaland</t>
+  </si>
+  <si>
+    <t>Sad Creature</t>
+  </si>
+  <si>
+    <t>Szomorú teremtmény</t>
+  </si>
+  <si>
+    <t>Sad Person</t>
+  </si>
+  <si>
+    <t>Safari (Other)</t>
+  </si>
+  <si>
+    <t>Szafari (egyéb)</t>
+  </si>
+  <si>
+    <t>Saga of Tanya the Evil</t>
+  </si>
+  <si>
+    <t>Saga of Tanya a gonosz</t>
+  </si>
+  <si>
+    <t>Sailor Moon</t>
+  </si>
+  <si>
+    <t>Sakurasou no Pet na Kanojo</t>
+  </si>
+  <si>
+    <t>Samurai Helmet</t>
+  </si>
+  <si>
+    <t>Szamuráj sisak</t>
+  </si>
+  <si>
+    <t>Satisfactory</t>
+  </si>
+  <si>
+    <t>Elégséges</t>
+  </si>
+  <si>
+    <t>Saw</t>
+  </si>
+  <si>
+    <t>Fűrész</t>
+  </si>
+  <si>
+    <t>Scarf</t>
+  </si>
+  <si>
+    <t>Sál</t>
+  </si>
+  <si>
+    <t>Scooby-Doo</t>
+  </si>
+  <si>
+    <t>SCP Containment Breach</t>
+  </si>
+  <si>
+    <t>Scream</t>
+  </si>
+  <si>
+    <t>Scribblenauts</t>
+  </si>
+  <si>
+    <t>Sea of Thieves</t>
+  </si>
+  <si>
+    <t>Seafarer</t>
+  </si>
+  <si>
+    <t>Tengerész</t>
+  </si>
+  <si>
+    <t>Seraph of the End</t>
+  </si>
+  <si>
+    <t>A vég szeráfja</t>
+  </si>
+  <si>
+    <t>Serial Experiments Lain</t>
+  </si>
+  <si>
+    <t>Sorozatos kísérletek Lain</t>
+  </si>
+  <si>
+    <t>Sesame Street</t>
+  </si>
+  <si>
+    <t>Szezám utca</t>
+  </si>
+  <si>
+    <t>Seven Deadly Sins</t>
+  </si>
+  <si>
+    <t>Hét halálos bűn</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
+  </si>
+  <si>
+    <t>A kolosszus árnyéka</t>
+  </si>
+  <si>
+    <t>Shadows of Mordor</t>
+  </si>
+  <si>
+    <t>Mordor árnyai</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>Juhok</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes</t>
+  </si>
+  <si>
+    <t>Shigatsu wa Kimi no Uso</t>
+  </si>
+  <si>
+    <t>Shimoneta</t>
+  </si>
+  <si>
+    <t>Shiny Pokemon</t>
+  </si>
+  <si>
+    <t>Fényes Pokemon</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Szállítás</t>
+  </si>
+  <si>
+    <t>Shovel Knight</t>
+  </si>
+  <si>
+    <t>Shrek</t>
+  </si>
+  <si>
+    <t>Shulker</t>
+  </si>
+  <si>
+    <t>Silent Hill</t>
+  </si>
+  <si>
+    <t>SilvaGunner</t>
+  </si>
+  <si>
+    <t>Simpsons</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>Skeleton (Vanilla)</t>
+  </si>
+  <si>
+    <t>Csontváz (Vanília)</t>
+  </si>
+  <si>
+    <t>Skeptical Creature</t>
+  </si>
+  <si>
+    <t>Szkeptikus teremtmény</t>
+  </si>
+  <si>
+    <t>Skeptical Person</t>
+  </si>
+  <si>
+    <t>Szkeptikus személy</t>
+  </si>
+  <si>
+    <t>Skullgirls</t>
+  </si>
+  <si>
+    <t>Skyrim</t>
+  </si>
+  <si>
+    <t>Sleeping Beauty</t>
+  </si>
+  <si>
+    <t>Csipkerózsika</t>
+  </si>
+  <si>
+    <t>Sleeping Creature</t>
+  </si>
+  <si>
+    <t>Alvó lény</t>
+  </si>
+  <si>
+    <t>Sleeping Person</t>
+  </si>
+  <si>
+    <t>Alvó személy</t>
+  </si>
+  <si>
+    <t>Sliced</t>
+  </si>
+  <si>
+    <t>Szeletelt</t>
+  </si>
+  <si>
+    <t>Slime</t>
+  </si>
+  <si>
+    <t>Slime (Vanilla)</t>
+  </si>
+  <si>
+    <t>Slime (Vanília)</t>
+  </si>
+  <si>
+    <t>Slime Rancher</t>
+  </si>
+  <si>
+    <t>Slimefun</t>
+  </si>
+  <si>
+    <t>Sly Cooper</t>
+  </si>
+  <si>
+    <t>Smite Gods</t>
+  </si>
+  <si>
+    <t>Smite istenek</t>
+  </si>
+  <si>
+    <t>Smoking</t>
+  </si>
+  <si>
+    <t>Dohányzás</t>
+  </si>
+  <si>
+    <t>Smurfs</t>
+  </si>
+  <si>
+    <t>Törpök</t>
+  </si>
+  <si>
+    <t>Snow Fight</t>
+  </si>
+  <si>
+    <t>Hó harc</t>
+  </si>
+  <si>
+    <t>Snow Sculpture</t>
+  </si>
+  <si>
+    <t>Hó szobor</t>
+  </si>
+  <si>
+    <t>Snow White and the Seven Dwarfs</t>
+  </si>
+  <si>
+    <t>Hófehérke és a hét törpe</t>
+  </si>
+  <si>
+    <t>Songs of War</t>
+  </si>
+  <si>
+    <t>A háború dalai</t>
+  </si>
+  <si>
+    <t>Sonic the Hedgehog</t>
+  </si>
+  <si>
+    <t>Soul Knight</t>
+  </si>
+  <si>
+    <t>Lélek lovag</t>
+  </si>
+  <si>
+    <t>South Park</t>
+  </si>
+  <si>
+    <t>Space Travel</t>
+  </si>
+  <si>
+    <t>Űrutazás</t>
+  </si>
+  <si>
+    <t>Spawn Egg</t>
+  </si>
+  <si>
+    <t>Spawn tojás</t>
+  </si>
+  <si>
+    <t>Spawner</t>
+  </si>
+  <si>
+    <t>Spelunky</t>
+  </si>
+  <si>
+    <t>Spider</t>
+  </si>
+  <si>
+    <t>Pók</t>
+  </si>
+  <si>
+    <t>Spider (Vanilla)</t>
+  </si>
+  <si>
+    <t>Pók (Vanília)</t>
+  </si>
+  <si>
+    <t>Spiderman</t>
+  </si>
+  <si>
+    <t>Pókember</t>
+  </si>
+  <si>
+    <t>Spirited Away</t>
+  </si>
+  <si>
+    <t>Splatoon</t>
+  </si>
+  <si>
+    <t>Spongebob Squarepants</t>
+  </si>
+  <si>
+    <t>Spongyabob négyzetnadrág</t>
+  </si>
+  <si>
+    <t>Spooky's Jump Scare Mansion</t>
+  </si>
+  <si>
+    <t>Spore</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Spreads</t>
+  </si>
+  <si>
+    <t>Terjed</t>
+  </si>
+  <si>
+    <t>Spring to Life</t>
+  </si>
+  <si>
+    <t>Tavasz az életre</t>
+  </si>
+  <si>
+    <t>Spy x Family</t>
+  </si>
+  <si>
+    <t>Kém x család</t>
+  </si>
+  <si>
+    <t>Spyro</t>
+  </si>
+  <si>
+    <t>Squid Game</t>
+  </si>
+  <si>
+    <t>Tintahal játék</t>
+  </si>
+  <si>
+    <t>St. Patrick's Day</t>
+  </si>
+  <si>
+    <t>Szent Patrik napja</t>
+  </si>
+  <si>
+    <t>StackUp</t>
+  </si>
+  <si>
+    <t>Star Fox</t>
+  </si>
+  <si>
+    <t>Star Trek</t>
+  </si>
+  <si>
+    <t>Star vs the Forces of Evil</t>
+  </si>
+  <si>
+    <t>Csillag a gonosz erői ellen</t>
+  </si>
+  <si>
+    <t>Star Wars</t>
+  </si>
+  <si>
+    <t>Star Wars Helmet</t>
+  </si>
+  <si>
+    <t>Star Wars sisak</t>
+  </si>
+  <si>
+    <t>Star Wars Trooper Helmet</t>
+  </si>
+  <si>
+    <t>Star Wars katona sisak</t>
+  </si>
+  <si>
+    <t>Starbucks</t>
+  </si>
+  <si>
+    <t>StarCraft</t>
+  </si>
+  <si>
+    <t>Stardew Valley</t>
+  </si>
+  <si>
+    <t>Starter Pokemon</t>
+  </si>
+  <si>
+    <t>Stationery</t>
+  </si>
+  <si>
+    <t>Papíráru</t>
+  </si>
+  <si>
+    <t>Steampunk</t>
+  </si>
+  <si>
+    <t>Steins;Gate</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Steven Universe</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Kő</t>
+  </si>
+  <si>
+    <t>Storage (other)</t>
+  </si>
+  <si>
+    <t>Tárolás (egyéb)</t>
+  </si>
+  <si>
+    <t>Stranger Things</t>
+  </si>
+  <si>
+    <t>Street Fighter</t>
+  </si>
+  <si>
+    <t>Strider</t>
+  </si>
+  <si>
+    <t>Subnautica</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Nyár</t>
+  </si>
+  <si>
+    <t>Sunglasses</t>
+  </si>
+  <si>
+    <t>Napszemüveg</t>
+  </si>
+  <si>
+    <t>Super Mario</t>
+  </si>
+  <si>
+    <t>Supernatural</t>
+  </si>
+  <si>
+    <t>Természetfeletti</t>
+  </si>
+  <si>
+    <t>Surprised Creature</t>
+  </si>
+  <si>
+    <t>Meglepett teremtmény</t>
+  </si>
+  <si>
+    <t>Surprised Person</t>
+  </si>
+  <si>
+    <t>Meglepett személy</t>
+  </si>
+  <si>
+    <t>Sushi</t>
+  </si>
+  <si>
+    <t>Swamp</t>
+  </si>
+  <si>
+    <t>Sword Art Online</t>
+  </si>
+  <si>
+    <t>TaleSpin</t>
+  </si>
+  <si>
+    <t>Tangled</t>
+  </si>
+  <si>
+    <t>Tattletail</t>
+  </si>
+  <si>
+    <t>Team Fortress 2</t>
+  </si>
+  <si>
+    <t>Teletubbies</t>
+  </si>
+  <si>
+    <t>Terraria</t>
+  </si>
+  <si>
+    <t>Terraria (Calamity)</t>
+  </si>
+  <si>
+    <t>Tetris</t>
+  </si>
+  <si>
+    <t>Thanksgiving</t>
+  </si>
+  <si>
+    <t>Hálaadás</t>
+  </si>
+  <si>
+    <t>That Time I Got Reincarnated as a Slime</t>
+  </si>
+  <si>
+    <t>Amikor nyálkaként reinkarnálódtam</t>
+  </si>
+  <si>
+    <t>Thaumcraft</t>
+  </si>
+  <si>
+    <t>The Adventures of Tintin</t>
+  </si>
+  <si>
+    <t>Tintin kalandjai</t>
+  </si>
+  <si>
+    <t>The Amazing Digital Circus</t>
+  </si>
+  <si>
+    <t>A csodálatos digitális cirkusz</t>
+  </si>
+  <si>
+    <t>The Amazing World of Gumball</t>
+  </si>
+  <si>
+    <t>Gumball csodálatos világa</t>
+  </si>
+  <si>
+    <t>The Binding of Isaac</t>
+  </si>
+  <si>
+    <t>Az Isaac kötése</t>
+  </si>
+  <si>
+    <t>The Boys</t>
+  </si>
+  <si>
+    <t>A fiúk</t>
+  </si>
+  <si>
+    <t>The Cat Returns</t>
+  </si>
+  <si>
+    <t>A macska visszatér</t>
+  </si>
+  <si>
+    <t>The Conjuring</t>
+  </si>
+  <si>
+    <t>Az igéző</t>
+  </si>
+  <si>
+    <t>The Copper Age</t>
+  </si>
+  <si>
+    <t>A rézkorszak</t>
+  </si>
+  <si>
+    <t>The Emperor's New Groove</t>
+  </si>
+  <si>
+    <t>A császár új groove-ja</t>
+  </si>
+  <si>
+    <t>The English Ensemble Stars</t>
+  </si>
+  <si>
+    <t>Az angol együttes sztárjai</t>
+  </si>
+  <si>
+    <t>The Fairly OddParents</t>
+  </si>
+  <si>
+    <t>The Finals</t>
+  </si>
+  <si>
+    <t>A döntő</t>
+  </si>
+  <si>
+    <t>The Flash</t>
+  </si>
+  <si>
+    <t>The Flintstones</t>
+  </si>
+  <si>
+    <t>A Flintstones</t>
+  </si>
+  <si>
+    <t>The Fly</t>
+  </si>
+  <si>
+    <t>A légy</t>
+  </si>
+  <si>
+    <t>The Garden Awakens</t>
+  </si>
+  <si>
+    <t>A kert ébredezik</t>
+  </si>
+  <si>
+    <t>The Good Dinosaur</t>
+  </si>
+  <si>
+    <t>A jó dinoszaurusz</t>
+  </si>
+  <si>
+    <t>The Great Mouse Detective</t>
+  </si>
+  <si>
+    <t>A nagy egérdetektív</t>
+  </si>
+  <si>
+    <t>The Grim Adventures of Billy &amp; Mandy</t>
+  </si>
+  <si>
+    <t>Billy és Mandy komor kalandjai</t>
+  </si>
+  <si>
+    <t>The Hunchback of Notre Dame</t>
+  </si>
+  <si>
+    <t>A Notre Dame-i púpos</t>
+  </si>
+  <si>
+    <t>The Iron Giant</t>
+  </si>
+  <si>
+    <t>A Vasóriás</t>
+  </si>
+  <si>
+    <t>The Last Guardian</t>
+  </si>
+  <si>
+    <t>Az utolsó őrző</t>
+  </si>
+  <si>
+    <t>The Last of Us</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda</t>
+  </si>
+  <si>
+    <t>A Zelda legendája</t>
+  </si>
+  <si>
+    <t>The Lorax</t>
+  </si>
+  <si>
+    <t>A Lorax</t>
+  </si>
+  <si>
+    <t>The Neverhood</t>
+  </si>
+  <si>
+    <t>A Sohasemlét</t>
+  </si>
+  <si>
+    <t>The Owl House</t>
+  </si>
+  <si>
+    <t>A bagolyház</t>
+  </si>
+  <si>
+    <t>The Princess and the Frog</t>
+  </si>
+  <si>
+    <t>A hercegnő és a béka</t>
+  </si>
+  <si>
+    <t>The Ren &amp; Stimpy Show</t>
+  </si>
+  <si>
+    <t>A Ren &amp; Stimpy Show</t>
+  </si>
+  <si>
+    <t>The Road to El Dorado</t>
+  </si>
+  <si>
+    <t>Az El Dorado felé vezető út</t>
+  </si>
+  <si>
+    <t>The Texas Chainsaw Massacre</t>
+  </si>
+  <si>
+    <t>A texasi láncfűrészes mészárlás</t>
+  </si>
+  <si>
+    <t>The Three Caballeros</t>
+  </si>
+  <si>
+    <t>A három caballeros</t>
+  </si>
+  <si>
+    <t>The Walten Files</t>
+  </si>
+  <si>
+    <t>A Walten akták</t>
+  </si>
+  <si>
+    <t>The Woody Woodpecker Show</t>
+  </si>
+  <si>
+    <t>A Woody Woodpecker Show</t>
+  </si>
+  <si>
+    <t>Thomas &amp; Friends</t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>Those Nights at Rachel's</t>
+  </si>
+  <si>
+    <t>Azok az éjszakák Rachelnél</t>
+  </si>
+  <si>
+    <t>Tinker's Construct</t>
+  </si>
+  <si>
+    <t>Titanfall</t>
+  </si>
+  <si>
+    <t>Tokyo Ghoul</t>
+  </si>
+  <si>
+    <t>Tom and Jerry</t>
+  </si>
+  <si>
+    <t>Tom és Jerry</t>
+  </si>
+  <si>
+    <t>Tomb Raider</t>
+  </si>
+  <si>
+    <t>Tomorrow's Pioneers</t>
+  </si>
+  <si>
+    <t>A holnap úttörői</t>
+  </si>
+  <si>
+    <t>Tooth Gap</t>
+  </si>
+  <si>
+    <t>Foghézag</t>
+  </si>
+  <si>
+    <t>Toradora</t>
+  </si>
+  <si>
+    <t>Total Drama Island</t>
+  </si>
+  <si>
+    <t>Teljes dráma sziget</t>
+  </si>
+  <si>
+    <t>Touhou Project</t>
+  </si>
+  <si>
+    <t>Touhou projekt</t>
+  </si>
+  <si>
+    <t>Toy</t>
+  </si>
+  <si>
+    <t>Játék</t>
+  </si>
+  <si>
+    <t>Toy Story</t>
+  </si>
+  <si>
+    <t>Traffic</t>
+  </si>
+  <si>
+    <t>Forgalom</t>
+  </si>
+  <si>
+    <t>Traffic Light</t>
+  </si>
+  <si>
+    <t>Közlekedési lámpa</t>
+  </si>
+  <si>
+    <t>Traffic Sign</t>
+  </si>
+  <si>
+    <t>Forgalmi jel</t>
+  </si>
+  <si>
+    <t>Trails and Tales</t>
+  </si>
+  <si>
+    <t>Utak és mesék</t>
+  </si>
+  <si>
+    <t>Transformers</t>
+  </si>
+  <si>
+    <t>Transformice</t>
+  </si>
+  <si>
+    <t>Transparent Head</t>
+  </si>
+  <si>
+    <t>Átlátszó fej</t>
+  </si>
+  <si>
+    <t>Trash Can</t>
+  </si>
+  <si>
+    <t>Szemetes</t>
+  </si>
+  <si>
+    <t>Treasure</t>
+  </si>
+  <si>
+    <t>Kincs</t>
+  </si>
+  <si>
+    <t>Treasure Planet</t>
+  </si>
+  <si>
+    <t>Kincses bolygó</t>
+  </si>
+  <si>
+    <t>Tricky Trials Update</t>
+  </si>
+  <si>
+    <t>Trükkös próbák frissítése</t>
+  </si>
+  <si>
+    <t>Tron</t>
+  </si>
+  <si>
+    <t>Turtle</t>
+  </si>
+  <si>
+    <t>Teknősbéka</t>
+  </si>
+  <si>
+    <t>Twilight Forest</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
+  </si>
+  <si>
+    <t>Ultrakill</t>
+  </si>
+  <si>
+    <t>Umineko - When They Cry</t>
+  </si>
+  <si>
+    <t>Umineko - Amikor sírnak</t>
+  </si>
+  <si>
+    <t>Undertale</t>
+  </si>
+  <si>
+    <t>Undertale AU</t>
+  </si>
+  <si>
+    <t>Undertale Yellow</t>
+  </si>
+  <si>
+    <t>Undertale sárga</t>
+  </si>
+  <si>
+    <t>Universal Symbol</t>
+  </si>
+  <si>
+    <t>Univerzális szimbólum</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Fel</t>
+  </si>
+  <si>
+    <t>Urban Wildlife</t>
+  </si>
+  <si>
+    <t>Városi vadvilág</t>
+  </si>
+  <si>
+    <t>V for Vendetta</t>
+  </si>
+  <si>
+    <t>Valentines</t>
+  </si>
+  <si>
+    <t>Valorant</t>
+  </si>
+  <si>
+    <t>Vanilla (removed)</t>
+  </si>
+  <si>
+    <t>Vanília (eltávolítva)</t>
+  </si>
+  <si>
+    <t>Vanilla Block</t>
+  </si>
+  <si>
+    <t>Vanília blokk</t>
+  </si>
+  <si>
+    <t>Vanilla Food</t>
+  </si>
+  <si>
+    <t>Vanília ételek</t>
+  </si>
+  <si>
+    <t>Vanilla Helmet</t>
+  </si>
+  <si>
+    <t>Vanília sisak</t>
+  </si>
+  <si>
+    <t>Vanilla Item</t>
+  </si>
+  <si>
+    <t>Vanília tétel</t>
+  </si>
+  <si>
+    <t>Vanilla Mob</t>
+  </si>
+  <si>
+    <t>Vanília Mob</t>
+  </si>
+  <si>
+    <t>Vault Hunters</t>
+  </si>
+  <si>
+    <t>Vegetable</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>Jármű</t>
+  </si>
+  <si>
+    <t>Vikings</t>
+  </si>
+  <si>
+    <t>Villager</t>
+  </si>
+  <si>
+    <t>Falusiak</t>
+  </si>
+  <si>
+    <t>Villager (Desert)</t>
+  </si>
+  <si>
+    <t>Falusi (sivatag)</t>
+  </si>
+  <si>
+    <t>Villager (Jungle)</t>
+  </si>
+  <si>
+    <t>Falusi (dzsungel)</t>
+  </si>
+  <si>
+    <t>Villager (Plains)</t>
+  </si>
+  <si>
+    <t>Falusi (síkság)</t>
+  </si>
+  <si>
+    <t>Villager (Savanna)</t>
+  </si>
+  <si>
+    <t>Falusi (Savanna)</t>
+  </si>
+  <si>
+    <t>Villager (Snowy Tundra)</t>
+  </si>
+  <si>
+    <t>Falusi (Havas Tundra)</t>
+  </si>
+  <si>
+    <t>Villager (Swamp)</t>
+  </si>
+  <si>
+    <t>Falusi (mocsár)</t>
+  </si>
+  <si>
+    <t>Villager (Taiga)</t>
+  </si>
+  <si>
+    <t>Falusi (Taiga)</t>
+  </si>
+  <si>
+    <t>Virtual Youtuber</t>
+  </si>
+  <si>
+    <t>Virtuális Youtuber</t>
+  </si>
+  <si>
+    <t>Vocaloid</t>
+  </si>
+  <si>
+    <t>Voltron</t>
+  </si>
+  <si>
+    <t>Wakfu</t>
+  </si>
+  <si>
+    <t>Walking Dead</t>
+  </si>
+  <si>
+    <t>Wall-E</t>
+  </si>
+  <si>
+    <t>Wallace and Gromit</t>
+  </si>
+  <si>
+    <t>Wallace és Gromit</t>
+  </si>
+  <si>
+    <t>War of the Worlds</t>
+  </si>
+  <si>
+    <t>A világok háborúja</t>
+  </si>
+  <si>
+    <t>Warcraft</t>
+  </si>
+  <si>
+    <t>Warframe</t>
+  </si>
+  <si>
+    <t>Warhammer</t>
+  </si>
+  <si>
+    <t>Warrior Cats</t>
+  </si>
+  <si>
+    <t>Harcos macskák</t>
+  </si>
+  <si>
+    <t>We Bear Bears</t>
+  </si>
+  <si>
+    <t>Mi Bear Bears Bears</t>
+  </si>
+  <si>
+    <t>We Happy Few</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>Időjárás</t>
+  </si>
+  <si>
+    <t>Welcome Home</t>
+  </si>
+  <si>
+    <t>Üdvözöljük otthon</t>
+  </si>
+  <si>
+    <t>Who is this?</t>
+  </si>
+  <si>
+    <t>Ki az?</t>
+  </si>
+  <si>
+    <t>Wild Update</t>
+  </si>
+  <si>
+    <t>Vad frissítés</t>
+  </si>
+  <si>
+    <t>Wings of Fire</t>
+  </si>
+  <si>
+    <t>A tűz szárnyai</t>
+  </si>
+  <si>
+    <t>Winnie the Pooh</t>
+  </si>
+  <si>
+    <t>Micimackó</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Téli</t>
+  </si>
+  <si>
+    <t>Witcher</t>
+  </si>
+  <si>
+    <t>Wonderful Wonder World</t>
+  </si>
+  <si>
+    <t>Csodálatos Csodavilág</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Fa</t>
+  </si>
+  <si>
+    <t>Wool</t>
+  </si>
+  <si>
+    <t>Gyapjú</t>
+  </si>
+  <si>
+    <t>Work Safety Helmet</t>
+  </si>
+  <si>
+    <t>Munkavédelmi sisak</t>
+  </si>
+  <si>
+    <t>Wreck It Ralph</t>
+  </si>
+  <si>
+    <t>Wybel</t>
+  </si>
+  <si>
+    <t>Wynncraft</t>
+  </si>
+  <si>
+    <t>X-Men</t>
+  </si>
+  <si>
+    <t>Xenoblade Chronicles</t>
+  </si>
+  <si>
+    <t>Yandere Simulator</t>
+  </si>
+  <si>
+    <t>Yandere szimulátor</t>
+  </si>
+  <si>
+    <t>Yellow Submarine</t>
+  </si>
+  <si>
+    <t>Sárga tengeralattjáró</t>
+  </si>
+  <si>
+    <t>Yokai</t>
+  </si>
+  <si>
+    <t>Yooka Laylee</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Fiatal</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>Yu-Gi-Oh</t>
+  </si>
+  <si>
+    <t>Yume Nikki</t>
+  </si>
+  <si>
+    <t>Zero no Tsukaima</t>
+  </si>
+  <si>
+    <t>Zero Wing</t>
+  </si>
+  <si>
+    <t>Zéró szárny</t>
+  </si>
+  <si>
+    <t>Zodiac Sign</t>
+  </si>
+  <si>
+    <t>Zodiákus jegy</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>Zombie (Vanilla)</t>
+  </si>
+  <si>
+    <t>Zombie (Vanília)</t>
+  </si>
+  <si>
+    <t>Zootopia</t>
+  </si>
+  <si>
     <t>Hypixel (Mutations) Tag</t>
   </si>
   <si>
     <t>Hypixel (mutációk) címke</t>
-  </si>
-  <si>
-    <t>Hypixel (NPC)</t>
-  </si>
-  <si>
-    <t>Hypixel (Pets)</t>
-  </si>
-  <si>
-    <t>Hypixel (Háziállatok)</t>
-  </si>
-  <si>
-    <t>Hypixel (Reforge Stone)</t>
-  </si>
-  <si>
-    <t>Hypixel (Kovácsoló kő)</t>
-  </si>
-  <si>
-    <t>Hypixel (Sacks)</t>
-  </si>
-  <si>
-    <t>Hypixel (zsákok)</t>
-  </si>
-  <si>
-    <t>Hypixel (Skins)</t>
-  </si>
-  <si>
-    <t>Hypixel (Talismans)</t>
-  </si>
-  <si>
-    <t>Hypixel (talizmánok)</t>
-  </si>
-  <si>
-    <t>Hypixel (Trophy Fish)</t>
-  </si>
-  <si>
-    <t>Hypixel (Trófea hal)</t>
-  </si>
-  <si>
-    <t>Hōseki no Kuni (Land of the Lustrous)</t>
-  </si>
-  <si>
-    <t>Hōseki no Kuni (A buja föld)</t>
-  </si>
-  <si>
-    <t>Ib</t>
-  </si>
-  <si>
-    <t>Ice Age</t>
-  </si>
-  <si>
-    <t>Jégkorszak</t>
-  </si>
-  <si>
-    <t>Ice Climber</t>
-  </si>
-  <si>
-    <t>Jégmászó</t>
-  </si>
-  <si>
-    <t>Ice Cream</t>
-  </si>
-  <si>
-    <t>Jégkrém</t>
-  </si>
-  <si>
-    <t>Icons (GUI)</t>
-  </si>
-  <si>
-    <t>Ikonok (GUI)</t>
-  </si>
-  <si>
-    <t>Icons (Ironblock)</t>
-  </si>
-  <si>
-    <t>Ikonok (Ironblock)</t>
-  </si>
-  <si>
-    <t>Icons (Other)</t>
-  </si>
-  <si>
-    <t>Ikonok (Egyéb)</t>
-  </si>
-  <si>
-    <t>Icons (white background)</t>
-  </si>
-  <si>
-    <t>Ikonok (fehér háttér)</t>
-  </si>
-  <si>
-    <t>Identity V</t>
-  </si>
-  <si>
-    <t>Identitás V</t>
-  </si>
-  <si>
-    <t>Illager</t>
-  </si>
-  <si>
-    <t>Inazuma Eleven</t>
-  </si>
-  <si>
-    <t>Incredibles</t>
-  </si>
-  <si>
-    <t>Hihetetlenek</t>
-  </si>
-  <si>
-    <t>Indiana Jones</t>
-  </si>
-  <si>
-    <t>Indigo Park</t>
-  </si>
-  <si>
-    <t>Injuries</t>
-  </si>
-  <si>
-    <t>Sérülések</t>
-  </si>
-  <si>
-    <t>Inner Layer Block</t>
-  </si>
-  <si>
-    <t>Belső réteg blokk</t>
-  </si>
-  <si>
-    <t>Inscryption</t>
-  </si>
-  <si>
-    <t>Titkosítás</t>
-  </si>
-  <si>
-    <t>Insect</t>
-  </si>
-  <si>
-    <t>Rovarok</t>
-  </si>
-  <si>
-    <t>Inside Out</t>
-  </si>
-  <si>
-    <t>Inu Yasha</t>
-  </si>
-  <si>
-    <t>Invader Zim</t>
-  </si>
-  <si>
-    <t>Invincible</t>
-  </si>
-  <si>
-    <t>Legyőzhetetlen</t>
-  </si>
-  <si>
-    <t>Iron Man</t>
-  </si>
-  <si>
-    <t>Vasember</t>
-  </si>
-  <si>
-    <t>It</t>
-  </si>
-  <si>
-    <t>Ez</t>
-  </si>
-  <si>
-    <t>Jak and Daxter</t>
-  </si>
-  <si>
-    <t>Jak és Daxter</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Japán</t>
-  </si>
-  <si>
-    <t>Jar</t>
-  </si>
-  <si>
-    <t>Jewelry</t>
-  </si>
-  <si>
-    <t>Ékszerek</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure</t>
-  </si>
-  <si>
-    <t>JoJo bizarr kalandja</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure (Stand)</t>
-  </si>
-  <si>
-    <t>JoJo bizarr kalandja (Stand)</t>
-  </si>
-  <si>
-    <t>Journey</t>
-  </si>
-  <si>
-    <t>Utazás</t>
-  </si>
-  <si>
-    <t>Jujutsu Kaisen</t>
-  </si>
-  <si>
-    <t>Jump King</t>
-  </si>
-  <si>
-    <t>Jurassic Park</t>
-  </si>
-  <si>
-    <t>Justice League</t>
-  </si>
-  <si>
-    <t>Igazság Ligája</t>
-  </si>
-  <si>
-    <t>Kaiju Paradise</t>
-  </si>
-  <si>
-    <t>Kakegurui</t>
-  </si>
-  <si>
-    <t>Karate Kid</t>
-  </si>
-  <si>
-    <t>Karate kölyök</t>
-  </si>
-  <si>
-    <t>Katamari Damacy</t>
-  </si>
-  <si>
-    <t>Kid Icarus</t>
-  </si>
-  <si>
-    <t>Kiki's Delivery Service</t>
-  </si>
-  <si>
-    <t>Kiki futárszolgálat</t>
-  </si>
-  <si>
-    <t>Kill la Kill</t>
-  </si>
-  <si>
-    <t>Killzone</t>
-  </si>
-  <si>
-    <t>Kim Possible</t>
-  </si>
-  <si>
-    <t>Kimetsu no Yaiba</t>
-  </si>
-  <si>
-    <t>Kingdom Hearts</t>
-  </si>
-  <si>
-    <t>Kirby</t>
-  </si>
-  <si>
-    <t>Kitchen</t>
-  </si>
-  <si>
-    <t>Konyha</t>
-  </si>
-  <si>
-    <t>KonoSuba</t>
-  </si>
-  <si>
-    <t>Koopalings</t>
-  </si>
-  <si>
-    <t>Kung Fu Panda</t>
-  </si>
-  <si>
-    <t>Kuroko no Basuke</t>
-  </si>
-  <si>
-    <t>Lamp Shade</t>
-  </si>
-  <si>
-    <t>Lámpaernyő</t>
-  </si>
-  <si>
-    <t>Landscape</t>
-  </si>
-  <si>
-    <t>Tájkép</t>
-  </si>
-  <si>
-    <t>Lantern</t>
-  </si>
-  <si>
-    <t>Lámpás</t>
-  </si>
-  <si>
-    <t>Laputa: Castle in the Sky</t>
-  </si>
-  <si>
-    <t>Laputa: Égi kastély</t>
-  </si>
-  <si>
-    <t>LazyTown</t>
-  </si>
-  <si>
-    <t>League of Legends</t>
-  </si>
-  <si>
-    <t>Left 4 Dead</t>
-  </si>
-  <si>
-    <t>Legendary Pokemon</t>
-  </si>
-  <si>
-    <t>Legendás Pokemon</t>
-  </si>
-  <si>
-    <t>Lego</t>
-  </si>
-  <si>
-    <t>Lethal League</t>
-  </si>
-  <si>
-    <t>Halálos Liga</t>
-  </si>
-  <si>
-    <t>Library of Ruina</t>
-  </si>
-  <si>
-    <t>Ruina könyvtára</t>
-  </si>
-  <si>
-    <t>Life is Strange</t>
-  </si>
-  <si>
-    <t>Lilo &amp; Stitch</t>
-  </si>
-  <si>
-    <t>Limbus Company</t>
-  </si>
-  <si>
-    <t>Limbus vállalat</t>
-  </si>
-  <si>
-    <t>Lion King</t>
-  </si>
-  <si>
-    <t>Oroszlánkirály</t>
-  </si>
-  <si>
-    <t>Little Big Planet</t>
-  </si>
-  <si>
-    <t>Little Mermaid</t>
-  </si>
-  <si>
-    <t>Kis hableány</t>
-  </si>
-  <si>
-    <t>Little Nightmares</t>
-  </si>
-  <si>
-    <t>Kis rémálmok</t>
-  </si>
-  <si>
-    <t>Little Shop of Horrors</t>
-  </si>
-  <si>
-    <t>A borzalmak kis boltja</t>
-  </si>
-  <si>
-    <t>Little Witch Academia</t>
-  </si>
-  <si>
-    <t>Kis boszorkány Akadémia</t>
-  </si>
-  <si>
-    <t>Llama</t>
-  </si>
-  <si>
-    <t>Láma</t>
-  </si>
-  <si>
-    <t>Logo</t>
-  </si>
-  <si>
-    <t>Logó</t>
-  </si>
-  <si>
-    <t>Looney Tunes</t>
-  </si>
-  <si>
-    <t>Lord of the Rings</t>
-  </si>
-  <si>
-    <t>A Gyűrűk Ura</t>
-  </si>
-  <si>
-    <t>Love Live!</t>
-  </si>
-  <si>
-    <t>Lovestruck Creature</t>
-  </si>
-  <si>
-    <t>Lovestruck Person</t>
-  </si>
-  <si>
-    <t>Lucky Luke</t>
-  </si>
-  <si>
-    <t>Machine Part</t>
-  </si>
-  <si>
-    <t>Gépalkatrész</t>
-  </si>
-  <si>
-    <t>Mad Father</t>
-  </si>
-  <si>
-    <t>Mad Max</t>
-  </si>
-  <si>
-    <t>Made in Abyss</t>
-  </si>
-  <si>
-    <t>Madness Combat</t>
-  </si>
-  <si>
-    <t>Madoka Magica</t>
-  </si>
-  <si>
-    <t>Makeup</t>
-  </si>
-  <si>
-    <t>Smink</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Férfi</t>
-  </si>
-  <si>
-    <t>Mao Mao Heroes of Pure Heart</t>
-  </si>
-  <si>
-    <t>Mao Mao A tiszta szív hősei</t>
-  </si>
-  <si>
-    <t>MapleStory</t>
-  </si>
-  <si>
-    <t>Marvel</t>
-  </si>
-  <si>
-    <t>Mary and the Witch's Flower</t>
-  </si>
-  <si>
-    <t>Mária és a boszorkány virága</t>
-  </si>
-  <si>
-    <t>Mascot</t>
-  </si>
-  <si>
-    <t>Kabala</t>
-  </si>
-  <si>
-    <t>Mask</t>
-  </si>
-  <si>
-    <t>Maszk</t>
-  </si>
-  <si>
-    <t>Mask (full)</t>
-  </si>
-  <si>
-    <t>Maszk (teljes)</t>
-  </si>
-  <si>
-    <t>Mask (functional)</t>
-  </si>
-  <si>
-    <t>Maszk (funkcionális)</t>
-  </si>
-  <si>
-    <t>Mask (health)</t>
-  </si>
-  <si>
-    <t>Maszk (egészség)</t>
-  </si>
-  <si>
-    <t>Mask (Minecraft mob)</t>
-  </si>
-  <si>
-    <t>Mass Effect</t>
-  </si>
-  <si>
-    <t>Masters of the Universe</t>
-  </si>
-  <si>
-    <t>Az univerzum mesterei</t>
-  </si>
-  <si>
-    <t>Mathematical Symbol</t>
-  </si>
-  <si>
-    <t>Matematikai szimbólum</t>
-  </si>
-  <si>
-    <t>Mc Donalds</t>
-  </si>
-  <si>
-    <t>Meal</t>
-  </si>
-  <si>
-    <t>Étkezés</t>
-  </si>
-  <si>
-    <t>Meat</t>
-  </si>
-  <si>
-    <t>Hús</t>
-  </si>
-  <si>
-    <t>Medieval</t>
-  </si>
-  <si>
-    <t>Középkori</t>
-  </si>
-  <si>
-    <t>Medieval Tavern</t>
-  </si>
-  <si>
-    <t>Középkori kocsma</t>
-  </si>
-  <si>
-    <t>Medieval Warfare Helmet</t>
-  </si>
-  <si>
-    <t>Középkori harci sisak</t>
-  </si>
-  <si>
-    <t>MediEvil</t>
-  </si>
-  <si>
-    <t>Mega Evolution</t>
-  </si>
-  <si>
-    <t>Mega evolúció</t>
-  </si>
-  <si>
-    <t>Megaman</t>
-  </si>
-  <si>
-    <t>Megami Tensei</t>
-  </si>
-  <si>
-    <t>Mekakucity Actors</t>
-  </si>
-  <si>
-    <t>Mekakucity Színészek</t>
-  </si>
-  <si>
-    <t>Meme</t>
-  </si>
-  <si>
-    <t>Meme (Doge)</t>
-  </si>
-  <si>
-    <t>Meme (Pepe)</t>
-  </si>
-  <si>
-    <t>Metal</t>
-  </si>
-  <si>
-    <t>Fém</t>
-  </si>
-  <si>
-    <t>Metal Gear</t>
-  </si>
-  <si>
-    <t>Metro</t>
-  </si>
-  <si>
-    <t>Metroid</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Mexikó</t>
-  </si>
-  <si>
-    <t>Mickey Mouse</t>
-  </si>
-  <si>
-    <t>Mickey egér</t>
-  </si>
-  <si>
-    <t>Military Equipment</t>
-  </si>
-  <si>
-    <t>Katonai felszerelés</t>
-  </si>
-  <si>
-    <t>Minecraft April Fools</t>
-  </si>
-  <si>
-    <t>Minecraft áprilisi bolondok</t>
-  </si>
-  <si>
-    <t>Minecraft Bedrock Edition</t>
-  </si>
-  <si>
-    <t>Minecraft Bedrock kiadás</t>
-  </si>
-  <si>
-    <t>Minecraft Dungeons</t>
-  </si>
-  <si>
-    <t>Minecraft börtönök</t>
-  </si>
-  <si>
-    <t>Minecraft Earth</t>
-  </si>
-  <si>
-    <t>Minecraft Föld</t>
-  </si>
-  <si>
-    <t>Minecraft Education Edition</t>
-  </si>
-  <si>
-    <t>Minecraft oktatási kiadás</t>
-  </si>
-  <si>
-    <t>Minecraft Legends</t>
-  </si>
-  <si>
-    <t>Minecraft legendák</t>
-  </si>
-  <si>
-    <t>Minecraft Live</t>
-  </si>
-  <si>
-    <t>Minecraft Movie</t>
-  </si>
-  <si>
-    <t>Minecraft film</t>
-  </si>
-  <si>
-    <t>Minecraft Story Mode</t>
-  </si>
-  <si>
-    <t>Minecraft történet mód</t>
-  </si>
-  <si>
-    <t>Miner</t>
-  </si>
-  <si>
-    <t>Bányász</t>
-  </si>
-  <si>
-    <t>Minesweeper</t>
-  </si>
-  <si>
-    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
-  </si>
-  <si>
-    <t>Csodálatos: A Katicabogár és a Macska Noir történetei</t>
-  </si>
-  <si>
-    <t>Mirai Nikki (Future Diary)</t>
-  </si>
-  <si>
-    <t>Mirai Nikki (Jövőbeli napló)</t>
-  </si>
-  <si>
-    <t>Mirror's Edge</t>
-  </si>
-  <si>
-    <t>Miss Kobayashi's Dragon Maid</t>
-  </si>
-  <si>
-    <t>Mizuno's Resource Pack</t>
-  </si>
-  <si>
-    <t>Mizuno erőforrás csomagja</t>
-  </si>
-  <si>
-    <t>Moana</t>
-  </si>
-  <si>
-    <t>Modern Warfare Helmet</t>
-  </si>
-  <si>
-    <t>Modern Warfare sisak</t>
-  </si>
-  <si>
-    <t>Money</t>
-  </si>
-  <si>
-    <t>Money Heist</t>
-  </si>
-  <si>
-    <t>Monitor</t>
-  </si>
-  <si>
-    <t>Monkey Island</t>
-  </si>
-  <si>
-    <t>Monocle</t>
-  </si>
-  <si>
-    <t>Monokli</t>
-  </si>
-  <si>
-    <t>Monster High</t>
-  </si>
-  <si>
-    <t>Monster Hunter</t>
-  </si>
-  <si>
-    <t>Monsters Inc</t>
-  </si>
-  <si>
-    <t>Moomin</t>
-  </si>
-  <si>
-    <t>Mortal Kombat</t>
-  </si>
-  <si>
-    <t>Mounts of Mayhem</t>
-  </si>
-  <si>
-    <t>Mouthwashing</t>
-  </si>
-  <si>
-    <t>Szájvíz</t>
-  </si>
-  <si>
-    <t>Mr. Bean</t>
-  </si>
-  <si>
-    <t>Mulan</t>
-  </si>
-  <si>
-    <t>Mundo Gaturro</t>
-  </si>
-  <si>
-    <t>Muppets</t>
-  </si>
-  <si>
-    <t>Murder Drones</t>
-  </si>
-  <si>
-    <t>Gyilkos drónok</t>
-  </si>
-  <si>
-    <t>Mushroom</t>
-  </si>
-  <si>
-    <t>Gomba</t>
-  </si>
-  <si>
-    <t>Mushroom (Biome)</t>
-  </si>
-  <si>
-    <t>Gomba (Biom)</t>
-  </si>
-  <si>
-    <t>Mushroom (Headwear)</t>
-  </si>
-  <si>
-    <t>Gomba (fejfedő)</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>Zene</t>
-  </si>
-  <si>
-    <t>Mustache</t>
-  </si>
-  <si>
-    <t>Bajusz</t>
-  </si>
-  <si>
-    <t>My Deer Friend Nokotan</t>
-  </si>
-  <si>
-    <t>Szarvas barátom Nokotan</t>
-  </si>
-  <si>
-    <t>My Hero Academia</t>
-  </si>
-  <si>
-    <t>My Little Pony</t>
-  </si>
-  <si>
-    <t>My Neighbor Totoro</t>
-  </si>
-  <si>
-    <t>Totoro, a szomszédom</t>
-  </si>
-  <si>
-    <t>My Singing Monsters</t>
-  </si>
-  <si>
-    <t>Éneklő szörnyeim</t>
-  </si>
-  <si>
-    <t>Naruto</t>
-  </si>
-  <si>
-    <t>Nausicaä of the Valley of the Wind</t>
-  </si>
-  <si>
-    <t>Nausicaä of the Valley of the Wind (A szél völgye Nausicaä)</t>
-  </si>
-  <si>
-    <t>Nekopara</t>
-  </si>
-  <si>
-    <t>Neon Genesis Evangelion</t>
-  </si>
-  <si>
-    <t>Nether (inspired)</t>
-  </si>
-  <si>
-    <t>Nether (ihletett)</t>
-  </si>
-  <si>
-    <t>Nether (vanilla)</t>
-  </si>
-  <si>
-    <t>Nether (vanília)</t>
-  </si>
-  <si>
-    <t>Neutral Creature</t>
-  </si>
-  <si>
-    <t>Semleges lény</t>
-  </si>
-  <si>
-    <t>Neutral Person</t>
-  </si>
-  <si>
-    <t>Semleges személy</t>
-  </si>
-  <si>
-    <t>New Year's Eve</t>
-  </si>
-  <si>
-    <t>Szilveszter</t>
-  </si>
-  <si>
-    <t>NieR: Automata</t>
-  </si>
-  <si>
-    <t>Night in the Woods</t>
-  </si>
-  <si>
-    <t>Éjszaka az erdőben</t>
-  </si>
-  <si>
-    <t>Nightmare Before Christmas</t>
-  </si>
-  <si>
-    <t>Karácsony előtti rémálom</t>
-  </si>
-  <si>
-    <t>Ninja Turtles</t>
-  </si>
-  <si>
-    <t>No Game No Life</t>
-  </si>
-  <si>
-    <t>Nincs játék nincs élet</t>
-  </si>
-  <si>
-    <t>No Man's Sky</t>
-  </si>
-  <si>
-    <t>Noel's House Party</t>
-  </si>
-  <si>
-    <t>Noel házibulija</t>
-  </si>
-  <si>
-    <t>Norse Mythology</t>
-  </si>
-  <si>
-    <t>Norvég mitológia</t>
-  </si>
-  <si>
-    <t>NPC (Education Edition)</t>
-  </si>
-  <si>
-    <t>NPC (oktatási kiadás)</t>
-  </si>
-  <si>
-    <t>Nuclear Fallout</t>
-  </si>
-  <si>
-    <t>Nukleáris csapadék</t>
-  </si>
-  <si>
-    <t>Nuclear Throne</t>
-  </si>
-  <si>
-    <t>Nukleáris trón</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Szám</t>
-  </si>
-  <si>
-    <t>Nut</t>
-  </si>
-  <si>
-    <t>Dió</t>
-  </si>
-  <si>
-    <t>Ocean</t>
-  </si>
-  <si>
-    <t>Óceán</t>
-  </si>
-  <si>
-    <t>Octodad</t>
-  </si>
-  <si>
-    <t>Oddworld</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>Officer Cap</t>
-  </si>
-  <si>
-    <t>Tiszti sapka</t>
-  </si>
-  <si>
-    <t>Oggy and the Cockroaches</t>
-  </si>
-  <si>
-    <t>Oggy és a csótányok</t>
-  </si>
-  <si>
-    <t>Okegom</t>
-  </si>
-  <si>
-    <t>Old</t>
-  </si>
-  <si>
-    <t>Régi</t>
-  </si>
-  <si>
-    <t>Oliver &amp; Co</t>
-  </si>
-  <si>
-    <t>Omori</t>
-  </si>
-  <si>
-    <t>One Piece</t>
-  </si>
-  <si>
-    <t>One Punch Man</t>
-  </si>
-  <si>
-    <t>OneShot</t>
-  </si>
-  <si>
-    <t>Ongezellig</t>
-  </si>
-  <si>
-    <t>Onii-chan wa Oshimai</t>
-  </si>
-  <si>
-    <t>Open Source Objects</t>
-  </si>
-  <si>
-    <t>Nyílt forráskódú objektumok</t>
-  </si>
-  <si>
-    <t>Orb</t>
-  </si>
-  <si>
-    <t>Orc</t>
-  </si>
-  <si>
-    <t>Ork</t>
-  </si>
-  <si>
-    <t>Ore</t>
-  </si>
-  <si>
-    <t>Érc</t>
-  </si>
-  <si>
-    <t>Organs and Bodyparts</t>
-  </si>
-  <si>
-    <t>Szervek és testrészek</t>
-  </si>
-  <si>
-    <t>Other Headgear</t>
-  </si>
-  <si>
-    <t>Egyéb fejfedők</t>
-  </si>
-  <si>
-    <t>Other Illumination</t>
-  </si>
-  <si>
-    <t>Egyéb megvilágítás</t>
-  </si>
-  <si>
-    <t>Other Mystic Creature</t>
-  </si>
-  <si>
-    <t>Más misztikus lény</t>
-  </si>
-  <si>
-    <t>Outer Layer Block</t>
-  </si>
-  <si>
-    <t>Külső réteg blokk</t>
-  </si>
-  <si>
-    <t>Overlord</t>
-  </si>
-  <si>
-    <t>Overwatch</t>
-  </si>
-  <si>
-    <t>Pac-Man</t>
-  </si>
-  <si>
-    <t>Pacific Rim</t>
-  </si>
-  <si>
-    <t>Csendes-óceáni peremvidék</t>
-  </si>
-  <si>
-    <t>Pacifier</t>
-  </si>
-  <si>
-    <t>Cumi</t>
-  </si>
-  <si>
-    <t>Painted Face</t>
-  </si>
-  <si>
-    <t>Festett arc</t>
-  </si>
-  <si>
-    <t>Pale Garden (inspired)</t>
-  </si>
-  <si>
-    <t>Pale Garden (ihletett)</t>
-  </si>
-  <si>
-    <t>Panda Bear</t>
-  </si>
-  <si>
-    <t>Panda medve</t>
-  </si>
-  <si>
-    <t>Pans Labyrinth</t>
-  </si>
-  <si>
-    <t>Pans Labirintus</t>
-  </si>
-  <si>
-    <t>Papers Please</t>
-  </si>
-  <si>
-    <t>Papírokat kérek</t>
-  </si>
-  <si>
-    <t>PaRappa the Rapper</t>
-  </si>
-  <si>
-    <t>PaRappa a rapper</t>
-  </si>
-  <si>
-    <t>Party</t>
-  </si>
-  <si>
-    <t>Pastries and Sweets</t>
-  </si>
-  <si>
-    <t>Sütemények és édességek</t>
-  </si>
-  <si>
-    <t>Paw Patrol</t>
-  </si>
-  <si>
-    <t>Mancs őrjárat</t>
-  </si>
-  <si>
-    <t>Payday</t>
-  </si>
-  <si>
-    <t>Fizetési nap</t>
-  </si>
-  <si>
-    <t>Peanuts (Snoopy)</t>
-  </si>
-  <si>
-    <t>Penguin</t>
-  </si>
-  <si>
-    <t>Pingvin</t>
-  </si>
-  <si>
-    <t>Peppa Pig</t>
-  </si>
-  <si>
-    <t>Peppa Malac</t>
-  </si>
-  <si>
-    <t>Periodic Table of Elements</t>
-  </si>
-  <si>
-    <t>Az elemek periódusos rendszere</t>
-  </si>
-  <si>
-    <t>Persona</t>
-  </si>
-  <si>
-    <t>Pet Equipment</t>
-  </si>
-  <si>
-    <t>Kisállat felszerelés</t>
-  </si>
-  <si>
-    <t>Peter Pan</t>
-  </si>
-  <si>
-    <t>Pán Péter</t>
-  </si>
-  <si>
-    <t>Phantom</t>
-  </si>
-  <si>
-    <t>Fantom</t>
-  </si>
-  <si>
-    <t>Phineas &amp; Ferb</t>
-  </si>
-  <si>
-    <t>Pig</t>
-  </si>
-  <si>
-    <t>Disznó</t>
-  </si>
-  <si>
-    <t>Piglin</t>
-  </si>
-  <si>
-    <t>Pigman</t>
-  </si>
-  <si>
-    <t>Pikmin</t>
-  </si>
-  <si>
-    <t>Pingu</t>
-  </si>
-  <si>
-    <t>Pink Panther</t>
-  </si>
-  <si>
-    <t>Rózsaszín párduc</t>
-  </si>
-  <si>
-    <t>Pinky and the Brain</t>
-  </si>
-  <si>
-    <t>Pinky és az agy</t>
-  </si>
-  <si>
-    <t>Pinocchio</t>
-  </si>
-  <si>
-    <t>Pinokkió</t>
-  </si>
-  <si>
-    <t>Pirates of the Caribbean</t>
-  </si>
-  <si>
-    <t>A Karib-tenger kalózai</t>
-  </si>
-  <si>
-    <t>Pizza Tower</t>
-  </si>
-  <si>
-    <t>Pizza torony</t>
-  </si>
-  <si>
-    <t>Planet</t>
-  </si>
-  <si>
-    <t>Plants vs. Zombies</t>
-  </si>
-  <si>
-    <t>Növények vs. Zombik</t>
-  </si>
-  <si>
-    <t>Playerunknown's Battlegrounds</t>
-  </si>
-  <si>
-    <t>Pocahontas</t>
-  </si>
-  <si>
-    <t>Pokeball</t>
-  </si>
-  <si>
-    <t>Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 1</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 2</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 3</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 4</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 5</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 6</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 7</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 8</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 9</t>
-  </si>
-  <si>
-    <t>Pokemon Items</t>
-  </si>
-  <si>
-    <t>Pokemon elemek</t>
-  </si>
-  <si>
-    <t>Pokemon Trainer</t>
-  </si>
-  <si>
-    <t>Pokemon edző</t>
-  </si>
-  <si>
-    <t>Polar Bear</t>
-  </si>
-  <si>
-    <t>Jegesmedve</t>
-  </si>
-  <si>
-    <t>Police</t>
-  </si>
-  <si>
-    <t>Rendőrség</t>
-  </si>
-  <si>
-    <t>Pom Poko</t>
-  </si>
-  <si>
-    <t>Ponyo</t>
-  </si>
-  <si>
-    <t>Pop Team Epic</t>
-  </si>
-  <si>
-    <t>POPGOES</t>
-  </si>
-  <si>
-    <t>Poppy Playtime</t>
-  </si>
-  <si>
-    <t>Porco Rosso</t>
-  </si>
-  <si>
-    <t>Portal</t>
-  </si>
-  <si>
-    <t>Portál</t>
-  </si>
-  <si>
-    <t>Postman Pat</t>
-  </si>
-  <si>
-    <t>Postás Pat</t>
-  </si>
-  <si>
-    <t>Power Rangers</t>
-  </si>
-  <si>
-    <t>Powerpuff Girls</t>
-  </si>
-  <si>
-    <t>Predator</t>
-  </si>
-  <si>
-    <t>Present</t>
-  </si>
-  <si>
-    <t>Jelen van</t>
-  </si>
-  <si>
-    <t>Pride</t>
-  </si>
-  <si>
-    <t>Büszkeség</t>
-  </si>
-  <si>
-    <t>Primate</t>
-  </si>
-  <si>
-    <t>Prímás</t>
-  </si>
-  <si>
-    <t>Princess Mononoke</t>
-  </si>
-  <si>
-    <t>Mononoke hercegnő</t>
-  </si>
-  <si>
-    <t>Prof Layton</t>
-  </si>
-  <si>
-    <t>Layton professzor</t>
-  </si>
-  <si>
-    <t>Pumpkin</t>
-  </si>
-  <si>
-    <t>Tök</t>
-  </si>
-  <si>
-    <t>Pumpkin (Lit)</t>
-  </si>
-  <si>
-    <t>Tök (Lit)</t>
-  </si>
-  <si>
-    <t>Punctuation Mark</t>
-  </si>
-  <si>
-    <t>Interpunkciós jel</t>
-  </si>
-  <si>
-    <t>Quake</t>
-  </si>
-  <si>
-    <t>R.E.P.O.</t>
-  </si>
-  <si>
-    <t>Rabbit</t>
-  </si>
-  <si>
-    <t>Nyúl</t>
-  </si>
-  <si>
-    <t>Railway</t>
-  </si>
-  <si>
-    <t>Vasút</t>
-  </si>
-  <si>
-    <t>Rain World</t>
-  </si>
-  <si>
-    <t>Ratatouille</t>
-  </si>
-  <si>
-    <t>Ratchet &amp; Clank</t>
-  </si>
-  <si>
-    <t>Re:Creators</t>
-  </si>
-  <si>
-    <t>Re:Alkotók</t>
-  </si>
-  <si>
-    <t>Re:Zero</t>
-  </si>
-  <si>
-    <t>Realm of the Mad God</t>
-  </si>
-  <si>
-    <t>Az őrült isten birodalma</t>
-  </si>
-  <si>
-    <t>Red Dead Redemption</t>
-  </si>
-  <si>
-    <t>Red Riding Hood</t>
-  </si>
-  <si>
-    <t>Piroska</t>
-  </si>
-  <si>
-    <t>Redstone</t>
-  </si>
-  <si>
-    <t>Regional Form Pokemon</t>
-  </si>
-  <si>
-    <t>Regionális forma Pokemon</t>
-  </si>
-  <si>
-    <t>Regretavator</t>
-  </si>
-  <si>
-    <t>Regular Show</t>
-  </si>
-  <si>
-    <t>Religion</t>
-  </si>
-  <si>
-    <t>Vallás</t>
-  </si>
-  <si>
-    <t>Reptile</t>
-  </si>
-  <si>
-    <t>Hüllő</t>
-  </si>
-  <si>
-    <t>Rescue Rangers</t>
-  </si>
-  <si>
-    <t>Resident Evil</t>
-  </si>
-  <si>
-    <t>Rhythm Heaven</t>
-  </si>
-  <si>
-    <t>Ritmus mennyország</t>
-  </si>
-  <si>
-    <t>Ribbon</t>
-  </si>
-  <si>
-    <t>Szalag</t>
-  </si>
-  <si>
-    <t>Rick and Morty</t>
-  </si>
-  <si>
-    <t>Rick és Morty</t>
-  </si>
-  <si>
-    <t>Risk of Rain</t>
-  </si>
-  <si>
-    <t>Eső veszélye</t>
-  </si>
-  <si>
-    <t>Rival of Aether</t>
-  </si>
-  <si>
-    <t>Aether riválisa</t>
-  </si>
-  <si>
-    <t>River</t>
-  </si>
-  <si>
-    <t>Folyó</t>
-  </si>
-  <si>
-    <t>Riverdale</t>
-  </si>
-  <si>
-    <t>Robin Hood</t>
-  </si>
-  <si>
-    <t>Roblox</t>
-  </si>
-  <si>
-    <t>RoboCop</t>
-  </si>
-  <si>
-    <t>Robot</t>
-  </si>
-  <si>
-    <t>Rocky</t>
-  </si>
-  <si>
-    <t>Rocky Horror Picture Show</t>
-  </si>
-  <si>
-    <t>Rodent</t>
-  </si>
-  <si>
-    <t>Rágcsáló</t>
-  </si>
-  <si>
-    <t>Rotated Entity</t>
-  </si>
-  <si>
-    <t>Forgatott entitás</t>
-  </si>
-  <si>
-    <t>Royal Headgear</t>
-  </si>
-  <si>
-    <t>Királyi fejfedő</t>
-  </si>
-  <si>
-    <t>Rune</t>
-  </si>
-  <si>
-    <t>Runescape</t>
-  </si>
-  <si>
-    <t>RWBY</t>
-  </si>
-  <si>
-    <t>Sackboy: A Big Adventure</t>
-  </si>
-  <si>
-    <t>Sackboy: Sackackack: Egy nagy kaland</t>
-  </si>
-  <si>
-    <t>Sad Creature</t>
-  </si>
-  <si>
-    <t>Szomorú teremtmény</t>
-  </si>
-  <si>
-    <t>Sad Person</t>
-  </si>
-  <si>
-    <t>Safari (Other)</t>
-  </si>
-  <si>
-    <t>Szafari (egyéb)</t>
-  </si>
-  <si>
-    <t>Saga of Tanya the Evil</t>
-  </si>
-  <si>
-    <t>Saga of Tanya a gonosz</t>
-  </si>
-  <si>
-    <t>Sailor Moon</t>
-  </si>
-  <si>
-    <t>Sakurasou no Pet na Kanojo</t>
-  </si>
-  <si>
-    <t>Samurai Helmet</t>
-  </si>
-  <si>
-    <t>Szamuráj sisak</t>
-  </si>
-  <si>
-    <t>Satisfactory</t>
-  </si>
-  <si>
-    <t>Elégséges</t>
-  </si>
-  <si>
-    <t>Saw</t>
-  </si>
-  <si>
-    <t>Fűrész</t>
-  </si>
-  <si>
-    <t>Scarf</t>
-  </si>
-  <si>
-    <t>Sál</t>
-  </si>
-  <si>
-    <t>Scooby-Doo</t>
-  </si>
-  <si>
-    <t>SCP Containment Breach</t>
-  </si>
-  <si>
-    <t>Scream</t>
-  </si>
-  <si>
-    <t>Scribblenauts</t>
-  </si>
-  <si>
-    <t>Sea of Thieves</t>
-  </si>
-  <si>
-    <t>Seafarer</t>
-  </si>
-  <si>
-    <t>Tengerész</t>
-  </si>
-  <si>
-    <t>Seraph of the End</t>
-  </si>
-  <si>
-    <t>A vég szeráfja</t>
-  </si>
-  <si>
-    <t>Serial Experiments Lain</t>
-  </si>
-  <si>
-    <t>Sorozatos kísérletek Lain</t>
-  </si>
-  <si>
-    <t>Sesame Street</t>
-  </si>
-  <si>
-    <t>Szezám utca</t>
-  </si>
-  <si>
-    <t>Seven Deadly Sins</t>
-  </si>
-  <si>
-    <t>Hét halálos bűn</t>
-  </si>
-  <si>
-    <t>Shadow of the Colossus</t>
-  </si>
-  <si>
-    <t>A kolosszus árnyéka</t>
-  </si>
-  <si>
-    <t>Shadows of Mordor</t>
-  </si>
-  <si>
-    <t>Mordor árnyai</t>
-  </si>
-  <si>
-    <t>Sheep</t>
-  </si>
-  <si>
-    <t>Juhok</t>
-  </si>
-  <si>
-    <t>Sherlock Holmes</t>
-  </si>
-  <si>
-    <t>Shigatsu wa Kimi no Uso</t>
-  </si>
-  <si>
-    <t>Shimoneta</t>
-  </si>
-  <si>
-    <t>Shiny Pokemon</t>
-  </si>
-  <si>
-    <t>Fényes Pokemon</t>
-  </si>
-  <si>
-    <t>Shipping</t>
-  </si>
-  <si>
-    <t>Szállítás</t>
-  </si>
-  <si>
-    <t>Shovel Knight</t>
-  </si>
-  <si>
-    <t>Shrek</t>
-  </si>
-  <si>
-    <t>Shulker</t>
-  </si>
-  <si>
-    <t>Silent Hill</t>
-  </si>
-  <si>
-    <t>SilvaGunner</t>
-  </si>
-  <si>
-    <t>Simpsons</t>
-  </si>
-  <si>
-    <t>Skeleton</t>
-  </si>
-  <si>
-    <t>Skeleton (Vanilla)</t>
-  </si>
-  <si>
-    <t>Csontváz (Vanília)</t>
-  </si>
-  <si>
-    <t>Skeptical Creature</t>
-  </si>
-  <si>
-    <t>Szkeptikus teremtmény</t>
-  </si>
-  <si>
-    <t>Skeptical Person</t>
-  </si>
-  <si>
-    <t>Szkeptikus személy</t>
-  </si>
-  <si>
-    <t>Skullgirls</t>
-  </si>
-  <si>
-    <t>Skyrim</t>
-  </si>
-  <si>
-    <t>Sleeping Beauty</t>
-  </si>
-  <si>
-    <t>Csipkerózsika</t>
-  </si>
-  <si>
-    <t>Sleeping Creature</t>
-  </si>
-  <si>
-    <t>Alvó lény</t>
-  </si>
-  <si>
-    <t>Sleeping Person</t>
-  </si>
-  <si>
-    <t>Alvó személy</t>
-  </si>
-  <si>
-    <t>Sliced</t>
-  </si>
-  <si>
-    <t>Szeletelt</t>
-  </si>
-  <si>
-    <t>Slime</t>
-  </si>
-  <si>
-    <t>Slime (Vanilla)</t>
-  </si>
-  <si>
-    <t>Slime (Vanília)</t>
-  </si>
-  <si>
-    <t>Slime Rancher</t>
-  </si>
-  <si>
-    <t>Slimefun</t>
-  </si>
-  <si>
-    <t>Sly Cooper</t>
-  </si>
-  <si>
-    <t>Smite Gods</t>
-  </si>
-  <si>
-    <t>Smite istenek</t>
-  </si>
-  <si>
-    <t>Smoking</t>
-  </si>
-  <si>
-    <t>Dohányzás</t>
-  </si>
-  <si>
-    <t>Smurfs</t>
-  </si>
-  <si>
-    <t>Törpök</t>
-  </si>
-  <si>
-    <t>Snow Fight</t>
-  </si>
-  <si>
-    <t>Hó harc</t>
-  </si>
-  <si>
-    <t>Snow Sculpture</t>
-  </si>
-  <si>
-    <t>Hó szobor</t>
-  </si>
-  <si>
-    <t>Snow White and the Seven Dwarfs</t>
-  </si>
-  <si>
-    <t>Hófehérke és a hét törpe</t>
-  </si>
-  <si>
-    <t>Songs of War</t>
-  </si>
-  <si>
-    <t>A háború dalai</t>
-  </si>
-  <si>
-    <t>Sonic the Hedgehog</t>
-  </si>
-  <si>
-    <t>Soul Knight</t>
-  </si>
-  <si>
-    <t>Lélek lovag</t>
-  </si>
-  <si>
-    <t>South Park</t>
-  </si>
-  <si>
-    <t>Space Travel</t>
-  </si>
-  <si>
-    <t>Űrutazás</t>
-  </si>
-  <si>
-    <t>Spawn Egg</t>
-  </si>
-  <si>
-    <t>Spawn tojás</t>
-  </si>
-  <si>
-    <t>Spawner</t>
-  </si>
-  <si>
-    <t>Spelunky</t>
-  </si>
-  <si>
-    <t>Spider</t>
-  </si>
-  <si>
-    <t>Pók</t>
-  </si>
-  <si>
-    <t>Spider (Vanilla)</t>
-  </si>
-  <si>
-    <t>Pók (Vanília)</t>
-  </si>
-  <si>
-    <t>Spiderman</t>
-  </si>
-  <si>
-    <t>Pókember</t>
-  </si>
-  <si>
-    <t>Spirited Away</t>
-  </si>
-  <si>
-    <t>Splatoon</t>
-  </si>
-  <si>
-    <t>Spongebob Squarepants</t>
-  </si>
-  <si>
-    <t>Spongyabob négyzetnadrág</t>
-  </si>
-  <si>
-    <t>Spooky's Jump Scare Mansion</t>
-  </si>
-  <si>
-    <t>Spore</t>
-  </si>
-  <si>
-    <t>Sport</t>
-  </si>
-  <si>
-    <t>Spreads</t>
-  </si>
-  <si>
-    <t>Terjed</t>
-  </si>
-  <si>
-    <t>Spring to Life</t>
-  </si>
-  <si>
-    <t>Tavasz az életre</t>
-  </si>
-  <si>
-    <t>Spy x Family</t>
-  </si>
-  <si>
-    <t>Kém x család</t>
-  </si>
-  <si>
-    <t>Spyro</t>
-  </si>
-  <si>
-    <t>Squid Game</t>
-  </si>
-  <si>
-    <t>Tintahal játék</t>
-  </si>
-  <si>
-    <t>St. Patrick's Day</t>
-  </si>
-  <si>
-    <t>Szent Patrik napja</t>
-  </si>
-  <si>
-    <t>StackUp</t>
-  </si>
-  <si>
-    <t>Star Fox</t>
-  </si>
-  <si>
-    <t>Star Trek</t>
-  </si>
-  <si>
-    <t>Star vs the Forces of Evil</t>
-  </si>
-  <si>
-    <t>Csillag a gonosz erői ellen</t>
-  </si>
-  <si>
-    <t>Star Wars</t>
-  </si>
-  <si>
-    <t>Star Wars Helmet</t>
-  </si>
-  <si>
-    <t>Star Wars sisak</t>
-  </si>
-  <si>
-    <t>Star Wars Trooper Helmet</t>
-  </si>
-  <si>
-    <t>Star Wars katona sisak</t>
-  </si>
-  <si>
-    <t>Starbucks</t>
-  </si>
-  <si>
-    <t>StarCraft</t>
-  </si>
-  <si>
-    <t>Stardew Valley</t>
-  </si>
-  <si>
-    <t>Starter Pokemon</t>
-  </si>
-  <si>
-    <t>Stationery</t>
-  </si>
-  <si>
-    <t>Papíráru</t>
-  </si>
-  <si>
-    <t>Steampunk</t>
-  </si>
-  <si>
-    <t>Steins;Gate</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>Steven Universe</t>
-  </si>
-  <si>
-    <t>Stone</t>
-  </si>
-  <si>
-    <t>Kő</t>
-  </si>
-  <si>
-    <t>Storage (other)</t>
-  </si>
-  <si>
-    <t>Tárolás (egyéb)</t>
-  </si>
-  <si>
-    <t>Stranger Things</t>
-  </si>
-  <si>
-    <t>Street Fighter</t>
-  </si>
-  <si>
-    <t>Strider</t>
-  </si>
-  <si>
-    <t>Subnautica</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>Nyár</t>
-  </si>
-  <si>
-    <t>Sunglasses</t>
-  </si>
-  <si>
-    <t>Napszemüveg</t>
-  </si>
-  <si>
-    <t>Super Mario</t>
-  </si>
-  <si>
-    <t>Supernatural</t>
-  </si>
-  <si>
-    <t>Természetfeletti</t>
-  </si>
-  <si>
-    <t>Surprised Creature</t>
-  </si>
-  <si>
-    <t>Meglepett teremtmény</t>
-  </si>
-  <si>
-    <t>Surprised Person</t>
-  </si>
-  <si>
-    <t>Meglepett személy</t>
-  </si>
-  <si>
-    <t>Sushi</t>
-  </si>
-  <si>
-    <t>Swamp</t>
-  </si>
-  <si>
-    <t>Sword Art Online</t>
-  </si>
-  <si>
-    <t>TaleSpin</t>
-  </si>
-  <si>
-    <t>Tangled</t>
-  </si>
-  <si>
-    <t>Tattletail</t>
-  </si>
-  <si>
-    <t>Team Fortress 2</t>
-  </si>
-  <si>
-    <t>Teletubbies</t>
-  </si>
-  <si>
-    <t>Terraria</t>
-  </si>
-  <si>
-    <t>Terraria (Calamity)</t>
-  </si>
-  <si>
-    <t>Tetris</t>
-  </si>
-  <si>
-    <t>Thanksgiving</t>
-  </si>
-  <si>
-    <t>Hálaadás</t>
-  </si>
-  <si>
-    <t>That Time I Got Reincarnated as a Slime</t>
-  </si>
-  <si>
-    <t>Amikor nyálkaként reinkarnálódtam</t>
-  </si>
-  <si>
-    <t>Thaumcraft</t>
-  </si>
-  <si>
-    <t>The Adventures of Tintin</t>
-  </si>
-  <si>
-    <t>Tintin kalandjai</t>
-  </si>
-  <si>
-    <t>The Amazing Digital Circus</t>
-  </si>
-  <si>
-    <t>A csodálatos digitális cirkusz</t>
-  </si>
-  <si>
-    <t>The Amazing World of Gumball</t>
-  </si>
-  <si>
-    <t>Gumball csodálatos világa</t>
-  </si>
-  <si>
-    <t>The Binding of Isaac</t>
-  </si>
-  <si>
-    <t>Az Isaac kötése</t>
-  </si>
-  <si>
-    <t>The Boys</t>
-  </si>
-  <si>
-    <t>A fiúk</t>
-  </si>
-  <si>
-    <t>The Cat Returns</t>
-  </si>
-  <si>
-    <t>A macska visszatér</t>
-  </si>
-  <si>
-    <t>The Conjuring</t>
-  </si>
-  <si>
-    <t>Az igéző</t>
-  </si>
-  <si>
-    <t>The Copper Age</t>
-  </si>
-  <si>
-    <t>A rézkorszak</t>
-  </si>
-  <si>
-    <t>The Emperor's New Groove</t>
-  </si>
-  <si>
-    <t>A császár új groove-ja</t>
-  </si>
-  <si>
-    <t>The English Ensemble Stars</t>
-  </si>
-  <si>
-    <t>Az angol együttes sztárjai</t>
-  </si>
-  <si>
-    <t>The Fairly OddParents</t>
-  </si>
-  <si>
-    <t>The Finals</t>
-  </si>
-  <si>
-    <t>A döntő</t>
-  </si>
-  <si>
-    <t>The Flash</t>
-  </si>
-  <si>
-    <t>The Flintstones</t>
-  </si>
-  <si>
-    <t>A Flintstones</t>
-  </si>
-  <si>
-    <t>The Fly</t>
-  </si>
-  <si>
-    <t>A légy</t>
-  </si>
-  <si>
-    <t>The Garden Awakens</t>
-  </si>
-  <si>
-    <t>A kert ébredezik</t>
-  </si>
-  <si>
-    <t>The Good Dinosaur</t>
-  </si>
-  <si>
-    <t>A jó dinoszaurusz</t>
-  </si>
-  <si>
-    <t>The Great Mouse Detective</t>
-  </si>
-  <si>
-    <t>A nagy egérdetektív</t>
-  </si>
-  <si>
-    <t>The Grim Adventures of Billy &amp; Mandy</t>
-  </si>
-  <si>
-    <t>Billy és Mandy komor kalandjai</t>
-  </si>
-  <si>
-    <t>The Hunchback of Notre Dame</t>
-  </si>
-  <si>
-    <t>A Notre Dame-i púpos</t>
-  </si>
-  <si>
-    <t>The Iron Giant</t>
-  </si>
-  <si>
-    <t>A Vasóriás</t>
-  </si>
-  <si>
-    <t>The Last Guardian</t>
-  </si>
-  <si>
-    <t>Az utolsó őrző</t>
-  </si>
-  <si>
-    <t>The Last of Us</t>
-  </si>
-  <si>
-    <t>The Legend of Zelda</t>
-  </si>
-  <si>
-    <t>A Zelda legendája</t>
-  </si>
-  <si>
-    <t>The Lorax</t>
-  </si>
-  <si>
-    <t>A Lorax</t>
-  </si>
-  <si>
-    <t>The Neverhood</t>
-  </si>
-  <si>
-    <t>A Sohasemlét</t>
-  </si>
-  <si>
-    <t>The Owl House</t>
-  </si>
-  <si>
-    <t>A bagolyház</t>
-  </si>
-  <si>
-    <t>The Princess and the Frog</t>
-  </si>
-  <si>
-    <t>A hercegnő és a béka</t>
-  </si>
-  <si>
-    <t>The Ren &amp; Stimpy Show</t>
-  </si>
-  <si>
-    <t>A Ren &amp; Stimpy Show</t>
-  </si>
-  <si>
-    <t>The Road to El Dorado</t>
-  </si>
-  <si>
-    <t>Az El Dorado felé vezető út</t>
-  </si>
-  <si>
-    <t>The Texas Chainsaw Massacre</t>
-  </si>
-  <si>
-    <t>A texasi láncfűrészes mészárlás</t>
-  </si>
-  <si>
-    <t>The Three Caballeros</t>
-  </si>
-  <si>
-    <t>A három caballeros</t>
-  </si>
-  <si>
-    <t>The Walten Files</t>
-  </si>
-  <si>
-    <t>A Walten akták</t>
-  </si>
-  <si>
-    <t>The Woody Woodpecker Show</t>
-  </si>
-  <si>
-    <t>A Woody Woodpecker Show</t>
-  </si>
-  <si>
-    <t>Thomas &amp; Friends</t>
-  </si>
-  <si>
-    <t>Thor</t>
-  </si>
-  <si>
-    <t>Those Nights at Rachel's</t>
-  </si>
-  <si>
-    <t>Azok az éjszakák Rachelnél</t>
-  </si>
-  <si>
-    <t>Tinker's Construct</t>
-  </si>
-  <si>
-    <t>Titanfall</t>
-  </si>
-  <si>
-    <t>Tokyo Ghoul</t>
-  </si>
-  <si>
-    <t>Tom and Jerry</t>
-  </si>
-  <si>
-    <t>Tom és Jerry</t>
-  </si>
-  <si>
-    <t>Tomb Raider</t>
-  </si>
-  <si>
-    <t>Tomorrow's Pioneers</t>
-  </si>
-  <si>
-    <t>A holnap úttörői</t>
-  </si>
-  <si>
-    <t>Tooth Gap</t>
-  </si>
-  <si>
-    <t>Foghézag</t>
-  </si>
-  <si>
-    <t>Toradora</t>
-  </si>
-  <si>
-    <t>Total Drama Island</t>
-  </si>
-  <si>
-    <t>Teljes dráma sziget</t>
-  </si>
-  <si>
-    <t>Touhou Project</t>
-  </si>
-  <si>
-    <t>Touhou projekt</t>
-  </si>
-  <si>
-    <t>Toy</t>
-  </si>
-  <si>
-    <t>Játék</t>
-  </si>
-  <si>
-    <t>Toy Story</t>
-  </si>
-  <si>
-    <t>Traffic</t>
-  </si>
-  <si>
-    <t>Forgalom</t>
-  </si>
-  <si>
-    <t>Traffic Light</t>
-  </si>
-  <si>
-    <t>Közlekedési lámpa</t>
-  </si>
-  <si>
-    <t>Traffic Sign</t>
-  </si>
-  <si>
-    <t>Forgalmi jel</t>
-  </si>
-  <si>
-    <t>Trails and Tales</t>
-  </si>
-  <si>
-    <t>Utak és mesék</t>
-  </si>
-  <si>
-    <t>Transformers</t>
-  </si>
-  <si>
-    <t>Transformice</t>
-  </si>
-  <si>
-    <t>Transparent Head</t>
-  </si>
-  <si>
-    <t>Átlátszó fej</t>
-  </si>
-  <si>
-    <t>Trash Can</t>
-  </si>
-  <si>
-    <t>Szemetes</t>
-  </si>
-  <si>
-    <t>Treasure</t>
-  </si>
-  <si>
-    <t>Kincs</t>
-  </si>
-  <si>
-    <t>Treasure Planet</t>
-  </si>
-  <si>
-    <t>Kincses bolygó</t>
-  </si>
-  <si>
-    <t>Tricky Trials Update</t>
-  </si>
-  <si>
-    <t>Trükkös próbák frissítése</t>
-  </si>
-  <si>
-    <t>Tron</t>
-  </si>
-  <si>
-    <t>Turtle</t>
-  </si>
-  <si>
-    <t>Teknősbéka</t>
-  </si>
-  <si>
-    <t>Twilight Forest</t>
-  </si>
-  <si>
-    <t>Twisted Wonderland</t>
-  </si>
-  <si>
-    <t>Ultrakill</t>
-  </si>
-  <si>
-    <t>Umineko - When They Cry</t>
-  </si>
-  <si>
-    <t>Umineko - Amikor sírnak</t>
-  </si>
-  <si>
-    <t>Undertale</t>
-  </si>
-  <si>
-    <t>Undertale AU</t>
-  </si>
-  <si>
-    <t>Undertale Yellow</t>
-  </si>
-  <si>
-    <t>Undertale sárga</t>
-  </si>
-  <si>
-    <t>Universal Symbol</t>
-  </si>
-  <si>
-    <t>Univerzális szimbólum</t>
-  </si>
-  <si>
-    <t>Up</t>
-  </si>
-  <si>
-    <t>Fel</t>
-  </si>
-  <si>
-    <t>Urban Wildlife</t>
-  </si>
-  <si>
-    <t>Városi vadvilág</t>
-  </si>
-  <si>
-    <t>V for Vendetta</t>
-  </si>
-  <si>
-    <t>Valentines</t>
-  </si>
-  <si>
-    <t>Valorant</t>
-  </si>
-  <si>
-    <t>Vanilla (removed)</t>
-  </si>
-  <si>
-    <t>Vanília (eltávolítva)</t>
-  </si>
-  <si>
-    <t>Vanilla Block</t>
-  </si>
-  <si>
-    <t>Vanília blokk</t>
-  </si>
-  <si>
-    <t>Vanilla Food</t>
-  </si>
-  <si>
-    <t>Vanília ételek</t>
-  </si>
-  <si>
-    <t>Vanilla Helmet</t>
-  </si>
-  <si>
-    <t>Vanília sisak</t>
-  </si>
-  <si>
-    <t>Vanilla Item</t>
-  </si>
-  <si>
-    <t>Vanília tétel</t>
-  </si>
-  <si>
-    <t>Vanilla Mob</t>
-  </si>
-  <si>
-    <t>Vanília Mob</t>
-  </si>
-  <si>
-    <t>Vault Hunters</t>
-  </si>
-  <si>
-    <t>Vegetable</t>
-  </si>
-  <si>
-    <t>Vehicle</t>
-  </si>
-  <si>
-    <t>Jármű</t>
-  </si>
-  <si>
-    <t>Vikings</t>
-  </si>
-  <si>
-    <t>Villager</t>
-  </si>
-  <si>
-    <t>Falusiak</t>
-  </si>
-  <si>
-    <t>Villager (Desert)</t>
-  </si>
-  <si>
-    <t>Falusi (sivatag)</t>
-  </si>
-  <si>
-    <t>Villager (Jungle)</t>
-  </si>
-  <si>
-    <t>Falusi (dzsungel)</t>
-  </si>
-  <si>
-    <t>Villager (Plains)</t>
-  </si>
-  <si>
-    <t>Falusi (síkság)</t>
-  </si>
-  <si>
-    <t>Villager (Savanna)</t>
-  </si>
-  <si>
-    <t>Falusi (Savanna)</t>
-  </si>
-  <si>
-    <t>Villager (Snowy Tundra)</t>
-  </si>
-  <si>
-    <t>Falusi (Havas Tundra)</t>
-  </si>
-  <si>
-    <t>Villager (Swamp)</t>
-  </si>
-  <si>
-    <t>Falusi (mocsár)</t>
-  </si>
-  <si>
-    <t>Villager (Taiga)</t>
-  </si>
-  <si>
-    <t>Falusi (Taiga)</t>
-  </si>
-  <si>
-    <t>Virtual Youtuber</t>
-  </si>
-  <si>
-    <t>Virtuális Youtuber</t>
-  </si>
-  <si>
-    <t>Vocaloid</t>
-  </si>
-  <si>
-    <t>Voltron</t>
-  </si>
-  <si>
-    <t>Wakfu</t>
-  </si>
-  <si>
-    <t>Walking Dead</t>
-  </si>
-  <si>
-    <t>Wall-E</t>
-  </si>
-  <si>
-    <t>Wallace and Gromit</t>
-  </si>
-  <si>
-    <t>Wallace és Gromit</t>
-  </si>
-  <si>
-    <t>War of the Worlds</t>
-  </si>
-  <si>
-    <t>A világok háborúja</t>
-  </si>
-  <si>
-    <t>Warcraft</t>
-  </si>
-  <si>
-    <t>Warframe</t>
-  </si>
-  <si>
-    <t>Warhammer</t>
-  </si>
-  <si>
-    <t>Warrior Cats</t>
-  </si>
-  <si>
-    <t>Harcos macskák</t>
-  </si>
-  <si>
-    <t>We Bear Bears</t>
-  </si>
-  <si>
-    <t>Mi Bear Bears Bears</t>
-  </si>
-  <si>
-    <t>We Happy Few</t>
-  </si>
-  <si>
-    <t>Weather</t>
-  </si>
-  <si>
-    <t>Időjárás</t>
-  </si>
-  <si>
-    <t>Welcome Home</t>
-  </si>
-  <si>
-    <t>Üdvözöljük otthon</t>
-  </si>
-  <si>
-    <t>Who is this?</t>
-  </si>
-  <si>
-    <t>Ki az?</t>
-  </si>
-  <si>
-    <t>Wild Update</t>
-  </si>
-  <si>
-    <t>Vad frissítés</t>
-  </si>
-  <si>
-    <t>Wings of Fire</t>
-  </si>
-  <si>
-    <t>A tűz szárnyai</t>
-  </si>
-  <si>
-    <t>Winnie the Pooh</t>
-  </si>
-  <si>
-    <t>Micimackó</t>
-  </si>
-  <si>
-    <t>Winter</t>
-  </si>
-  <si>
-    <t>Téli</t>
-  </si>
-  <si>
-    <t>Witcher</t>
-  </si>
-  <si>
-    <t>Wonderful Wonder World</t>
-  </si>
-  <si>
-    <t>Csodálatos Csodavilág</t>
-  </si>
-  <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>Fa</t>
-  </si>
-  <si>
-    <t>Wool</t>
-  </si>
-  <si>
-    <t>Gyapjú</t>
-  </si>
-  <si>
-    <t>Work Safety Helmet</t>
-  </si>
-  <si>
-    <t>Munkavédelmi sisak</t>
-  </si>
-  <si>
-    <t>Wreck It Ralph</t>
-  </si>
-  <si>
-    <t>Wybel</t>
-  </si>
-  <si>
-    <t>Wynncraft</t>
-  </si>
-  <si>
-    <t>X-Men</t>
-  </si>
-  <si>
-    <t>Xenoblade Chronicles</t>
-  </si>
-  <si>
-    <t>Yandere Simulator</t>
-  </si>
-  <si>
-    <t>Yandere szimulátor</t>
-  </si>
-  <si>
-    <t>Yellow Submarine</t>
-  </si>
-  <si>
-    <t>Sárga tengeralattjáró</t>
-  </si>
-  <si>
-    <t>Yokai</t>
-  </si>
-  <si>
-    <t>Yooka Laylee</t>
-  </si>
-  <si>
-    <t>Young</t>
-  </si>
-  <si>
-    <t>Fiatal</t>
-  </si>
-  <si>
-    <t>Youtube</t>
-  </si>
-  <si>
-    <t>Yu-Gi-Oh</t>
-  </si>
-  <si>
-    <t>Yume Nikki</t>
-  </si>
-  <si>
-    <t>Zero no Tsukaima</t>
-  </si>
-  <si>
-    <t>Zero Wing</t>
-  </si>
-  <si>
-    <t>Zéró szárny</t>
-  </si>
-  <si>
-    <t>Zodiac Sign</t>
-  </si>
-  <si>
-    <t>Zodiákus jegy</t>
-  </si>
-  <si>
-    <t>Zombie</t>
-  </si>
-  <si>
-    <t>Zombie (Vanilla)</t>
-  </si>
-  <si>
-    <t>Zombie (Vanília)</t>
-  </si>
-  <si>
-    <t>Zootopia</t>
   </si>
   <si>
     <t>Fall Drop</t>
@@ -6009,7 +6015,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1176"/>
+  <dimension ref="A1:B1177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -15427,11 +15433,19 @@
         <v>1881</v>
       </c>
       <c r="B1176" t="s">
-        <v>1881</v>
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:2">
+      <c r="A1177" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>1883</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1176"/>
+  <autoFilter ref="A1:B1177"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
